--- a/lib/l10n/strings.xlsx
+++ b/lib/l10n/strings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">settings</t>
   </si>
   <si>
-    <t xml:space="preserve">Options</t>
+    <t xml:space="preserve">Paramètres</t>
   </si>
   <si>
     <t xml:space="preserve">Settings</t>
@@ -128,6 +128,33 @@
   </si>
   <si>
     <t xml:space="preserve">Describe this image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">settingsSubstring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Démarrez un nouveau chat après avoir modifié les paramètres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start a new chat after any settings change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enableSoundEffects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activer les effets sonores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable sound effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loadDefaultSystemPrompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charger le prompt système par défaut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load the default system prompt</t>
   </si>
 </sst>
 </file>
@@ -554,17 +581,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CB256"/>
+  <dimension ref="A1:CB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.36"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="1" width="8.5"/>
   </cols>
@@ -1710,9 +1737,15 @@
       <c r="CB13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="D14" s="9"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -1792,9 +1825,15 @@
       <c r="CB14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="D15" s="9"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -1874,9 +1913,15 @@
       <c r="CB15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -2693,251 +2738,251 @@
       <c r="CA25" s="7"/>
       <c r="CB25" s="7"/>
     </row>
-    <row r="26" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7"/>
-      <c r="AJ26" s="7"/>
-      <c r="AK26" s="7"/>
-      <c r="AL26" s="7"/>
-      <c r="AM26" s="7"/>
-      <c r="AN26" s="7"/>
-      <c r="AO26" s="7"/>
-      <c r="AP26" s="7"/>
-      <c r="AQ26" s="7"/>
-      <c r="AR26" s="7"/>
-      <c r="AS26" s="7"/>
-      <c r="AT26" s="7"/>
-      <c r="AU26" s="7"/>
-      <c r="AV26" s="7"/>
-      <c r="AW26" s="7"/>
-      <c r="AX26" s="7"/>
-      <c r="AY26" s="7"/>
-      <c r="AZ26" s="7"/>
-      <c r="BA26" s="7"/>
-      <c r="BB26" s="7"/>
-      <c r="BC26" s="7"/>
-      <c r="BD26" s="7"/>
-      <c r="BE26" s="7"/>
-      <c r="BF26" s="7"/>
-      <c r="BG26" s="7"/>
-      <c r="BH26" s="7"/>
-      <c r="BI26" s="7"/>
-      <c r="BJ26" s="7"/>
-      <c r="BK26" s="7"/>
-      <c r="BL26" s="7"/>
-      <c r="BM26" s="7"/>
-      <c r="BN26" s="7"/>
-      <c r="BO26" s="7"/>
-      <c r="BP26" s="7"/>
-      <c r="BQ26" s="7"/>
-      <c r="BR26" s="7"/>
-      <c r="BS26" s="7"/>
-      <c r="BT26" s="7"/>
-      <c r="BU26" s="7"/>
-      <c r="BV26" s="7"/>
-      <c r="BW26" s="7"/>
-      <c r="BX26" s="7"/>
-      <c r="BY26" s="7"/>
-      <c r="BZ26" s="7"/>
-      <c r="CA26" s="7"/>
-      <c r="CB26" s="7"/>
-    </row>
-    <row r="27" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="14"/>
-      <c r="AI27" s="14"/>
-      <c r="AJ27" s="14"/>
-      <c r="AK27" s="14"/>
-      <c r="AL27" s="14"/>
-      <c r="AM27" s="14"/>
-      <c r="AN27" s="14"/>
-      <c r="AO27" s="14"/>
-      <c r="AP27" s="14"/>
-      <c r="AQ27" s="14"/>
-      <c r="AR27" s="14"/>
-      <c r="AS27" s="14"/>
-      <c r="AT27" s="14"/>
-      <c r="AU27" s="14"/>
-      <c r="AV27" s="14"/>
-      <c r="AW27" s="14"/>
-      <c r="AX27" s="14"/>
-      <c r="AY27" s="14"/>
-      <c r="AZ27" s="14"/>
-      <c r="BA27" s="14"/>
-      <c r="BB27" s="14"/>
-      <c r="BC27" s="14"/>
-      <c r="BD27" s="14"/>
-      <c r="BE27" s="14"/>
-      <c r="BF27" s="14"/>
-      <c r="BG27" s="14"/>
-      <c r="BH27" s="14"/>
-      <c r="BI27" s="14"/>
-      <c r="BJ27" s="14"/>
-      <c r="BK27" s="14"/>
-      <c r="BL27" s="14"/>
-      <c r="BM27" s="14"/>
-      <c r="BN27" s="14"/>
-      <c r="BO27" s="14"/>
-      <c r="BP27" s="14"/>
-      <c r="BQ27" s="14"/>
-      <c r="BR27" s="14"/>
-      <c r="BS27" s="14"/>
-      <c r="BT27" s="14"/>
-      <c r="BU27" s="14"/>
-      <c r="BV27" s="14"/>
-      <c r="BW27" s="14"/>
-      <c r="BX27" s="14"/>
-      <c r="BY27" s="14"/>
-      <c r="BZ27" s="14"/>
-      <c r="CA27" s="14"/>
-      <c r="CB27" s="14"/>
+    <row r="26" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="14"/>
+      <c r="AM26" s="14"/>
+      <c r="AN26" s="14"/>
+      <c r="AO26" s="14"/>
+      <c r="AP26" s="14"/>
+      <c r="AQ26" s="14"/>
+      <c r="AR26" s="14"/>
+      <c r="AS26" s="14"/>
+      <c r="AT26" s="14"/>
+      <c r="AU26" s="14"/>
+      <c r="AV26" s="14"/>
+      <c r="AW26" s="14"/>
+      <c r="AX26" s="14"/>
+      <c r="AY26" s="14"/>
+      <c r="AZ26" s="14"/>
+      <c r="BA26" s="14"/>
+      <c r="BB26" s="14"/>
+      <c r="BC26" s="14"/>
+      <c r="BD26" s="14"/>
+      <c r="BE26" s="14"/>
+      <c r="BF26" s="14"/>
+      <c r="BG26" s="14"/>
+      <c r="BH26" s="14"/>
+      <c r="BI26" s="14"/>
+      <c r="BJ26" s="14"/>
+      <c r="BK26" s="14"/>
+      <c r="BL26" s="14"/>
+      <c r="BM26" s="14"/>
+      <c r="BN26" s="14"/>
+      <c r="BO26" s="14"/>
+      <c r="BP26" s="14"/>
+      <c r="BQ26" s="14"/>
+      <c r="BR26" s="14"/>
+      <c r="BS26" s="14"/>
+      <c r="BT26" s="14"/>
+      <c r="BU26" s="14"/>
+      <c r="BV26" s="14"/>
+      <c r="BW26" s="14"/>
+      <c r="BX26" s="14"/>
+      <c r="BY26" s="14"/>
+      <c r="BZ26" s="14"/>
+      <c r="CA26" s="14"/>
+      <c r="CB26" s="14"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="3"/>
+      <c r="BI27" s="3"/>
+      <c r="BJ27" s="3"/>
+      <c r="BK27" s="3"/>
+      <c r="BL27" s="3"/>
+      <c r="BM27" s="3"/>
+      <c r="BN27" s="3"/>
+      <c r="BO27" s="3"/>
+      <c r="BP27" s="3"/>
+      <c r="BQ27" s="3"/>
+      <c r="BR27" s="3"/>
+      <c r="BS27" s="3"/>
+      <c r="BT27" s="3"/>
+      <c r="BU27" s="3"/>
+      <c r="BV27" s="3"/>
+      <c r="BW27" s="3"/>
+      <c r="BX27" s="3"/>
+      <c r="BY27" s="3"/>
+      <c r="BZ27" s="3"/>
+      <c r="CA27" s="3"/>
+      <c r="CB27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="3"/>
-      <c r="AS28" s="3"/>
-      <c r="AT28" s="3"/>
-      <c r="AU28" s="3"/>
-      <c r="AV28" s="3"/>
-      <c r="AW28" s="3"/>
-      <c r="AX28" s="3"/>
-      <c r="AY28" s="3"/>
-      <c r="AZ28" s="3"/>
-      <c r="BA28" s="3"/>
-      <c r="BB28" s="3"/>
-      <c r="BC28" s="3"/>
-      <c r="BD28" s="3"/>
-      <c r="BE28" s="3"/>
-      <c r="BF28" s="3"/>
-      <c r="BG28" s="3"/>
-      <c r="BH28" s="3"/>
-      <c r="BI28" s="3"/>
-      <c r="BJ28" s="3"/>
-      <c r="BK28" s="3"/>
-      <c r="BL28" s="3"/>
-      <c r="BM28" s="3"/>
-      <c r="BN28" s="3"/>
-      <c r="BO28" s="3"/>
-      <c r="BP28" s="3"/>
-      <c r="BQ28" s="3"/>
-      <c r="BR28" s="3"/>
-      <c r="BS28" s="3"/>
-      <c r="BT28" s="3"/>
-      <c r="BU28" s="3"/>
-      <c r="BV28" s="3"/>
-      <c r="BW28" s="3"/>
-      <c r="BX28" s="3"/>
-      <c r="BY28" s="3"/>
-      <c r="BZ28" s="3"/>
-      <c r="CA28" s="3"/>
-      <c r="CB28" s="3"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7"/>
+      <c r="AK28" s="7"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+      <c r="AO28" s="7"/>
+      <c r="AP28" s="7"/>
+      <c r="AQ28" s="7"/>
+      <c r="AR28" s="7"/>
+      <c r="AS28" s="7"/>
+      <c r="AT28" s="7"/>
+      <c r="AU28" s="7"/>
+      <c r="AV28" s="7"/>
+      <c r="AW28" s="7"/>
+      <c r="AX28" s="7"/>
+      <c r="AY28" s="7"/>
+      <c r="AZ28" s="7"/>
+      <c r="BA28" s="7"/>
+      <c r="BB28" s="7"/>
+      <c r="BC28" s="7"/>
+      <c r="BD28" s="7"/>
+      <c r="BE28" s="7"/>
+      <c r="BF28" s="7"/>
+      <c r="BG28" s="7"/>
+      <c r="BH28" s="7"/>
+      <c r="BI28" s="7"/>
+      <c r="BJ28" s="7"/>
+      <c r="BK28" s="7"/>
+      <c r="BL28" s="7"/>
+      <c r="BM28" s="7"/>
+      <c r="BN28" s="7"/>
+      <c r="BO28" s="7"/>
+      <c r="BP28" s="7"/>
+      <c r="BQ28" s="7"/>
+      <c r="BR28" s="7"/>
+      <c r="BS28" s="7"/>
+      <c r="BT28" s="7"/>
+      <c r="BU28" s="7"/>
+      <c r="BV28" s="7"/>
+      <c r="BW28" s="7"/>
+      <c r="BX28" s="7"/>
+      <c r="BY28" s="7"/>
+      <c r="BZ28" s="7"/>
+      <c r="CA28" s="7"/>
+      <c r="CB28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
@@ -3024,7 +3069,7 @@
     <row r="30" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="7"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -3516,7 +3561,7 @@
     <row r="36" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="3"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -3598,7 +3643,7 @@
     <row r="37" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="7"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -3680,7 +3725,7 @@
     <row r="38" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -3762,8 +3807,8 @@
     <row r="39" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
@@ -3841,7 +3886,7 @@
       <c r="CA39" s="7"/>
       <c r="CB39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="7"/>
@@ -3923,7 +3968,7 @@
       <c r="CA40" s="7"/>
       <c r="CB40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="7"/>
@@ -4989,7 +5034,7 @@
       <c r="CA53" s="7"/>
       <c r="CB53" s="7"/>
     </row>
-    <row r="54" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="7"/>
@@ -5071,7 +5116,7 @@
       <c r="CA54" s="7"/>
       <c r="CB54" s="7"/>
     </row>
-    <row r="55" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="7"/>
@@ -5317,7 +5362,7 @@
       <c r="CA57" s="7"/>
       <c r="CB57" s="7"/>
     </row>
-    <row r="58" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="7"/>
@@ -5399,7 +5444,7 @@
       <c r="CA58" s="7"/>
       <c r="CB58" s="7"/>
     </row>
-    <row r="59" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="7"/>
@@ -6465,169 +6510,169 @@
       <c r="CA71" s="7"/>
       <c r="CB71" s="7"/>
     </row>
-    <row r="72" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="7"/>
-      <c r="T72" s="7"/>
-      <c r="U72" s="7"/>
-      <c r="V72" s="7"/>
-      <c r="W72" s="7"/>
-      <c r="X72" s="7"/>
-      <c r="Y72" s="7"/>
-      <c r="Z72" s="7"/>
-      <c r="AA72" s="7"/>
-      <c r="AB72" s="7"/>
-      <c r="AC72" s="7"/>
-      <c r="AD72" s="7"/>
-      <c r="AE72" s="7"/>
-      <c r="AF72" s="7"/>
-      <c r="AG72" s="7"/>
-      <c r="AH72" s="7"/>
-      <c r="AI72" s="7"/>
-      <c r="AJ72" s="7"/>
-      <c r="AK72" s="7"/>
-      <c r="AL72" s="7"/>
-      <c r="AM72" s="7"/>
-      <c r="AN72" s="7"/>
-      <c r="AO72" s="7"/>
-      <c r="AP72" s="7"/>
-      <c r="AQ72" s="7"/>
-      <c r="AR72" s="7"/>
-      <c r="AS72" s="7"/>
-      <c r="AT72" s="7"/>
-      <c r="AU72" s="7"/>
-      <c r="AV72" s="7"/>
-      <c r="AW72" s="7"/>
-      <c r="AX72" s="7"/>
-      <c r="AY72" s="7"/>
-      <c r="AZ72" s="7"/>
-      <c r="BA72" s="7"/>
-      <c r="BB72" s="7"/>
-      <c r="BC72" s="7"/>
-      <c r="BD72" s="7"/>
-      <c r="BE72" s="7"/>
-      <c r="BF72" s="7"/>
-      <c r="BG72" s="7"/>
-      <c r="BH72" s="7"/>
-      <c r="BI72" s="7"/>
-      <c r="BJ72" s="7"/>
-      <c r="BK72" s="7"/>
-      <c r="BL72" s="7"/>
-      <c r="BM72" s="7"/>
-      <c r="BN72" s="7"/>
-      <c r="BO72" s="7"/>
-      <c r="BP72" s="7"/>
-      <c r="BQ72" s="7"/>
-      <c r="BR72" s="7"/>
-      <c r="BS72" s="7"/>
-      <c r="BT72" s="7"/>
-      <c r="BU72" s="7"/>
-      <c r="BV72" s="7"/>
-      <c r="BW72" s="7"/>
-      <c r="BX72" s="7"/>
-      <c r="BY72" s="7"/>
-      <c r="BZ72" s="7"/>
-      <c r="CA72" s="7"/>
-      <c r="CB72" s="7"/>
-    </row>
-    <row r="73" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5"/>
-      <c r="W73" s="5"/>
-      <c r="X73" s="5"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-      <c r="AA73" s="5"/>
-      <c r="AB73" s="5"/>
-      <c r="AC73" s="5"/>
-      <c r="AD73" s="5"/>
-      <c r="AE73" s="5"/>
-      <c r="AF73" s="5"/>
-      <c r="AG73" s="5"/>
-      <c r="AH73" s="5"/>
-      <c r="AI73" s="5"/>
-      <c r="AJ73" s="5"/>
-      <c r="AK73" s="5"/>
-      <c r="AL73" s="5"/>
-      <c r="AM73" s="5"/>
-      <c r="AN73" s="5"/>
-      <c r="AO73" s="5"/>
-      <c r="AP73" s="5"/>
-      <c r="AQ73" s="5"/>
-      <c r="AR73" s="5"/>
-      <c r="AS73" s="5"/>
-      <c r="AT73" s="5"/>
-      <c r="AU73" s="5"/>
-      <c r="AV73" s="5"/>
-      <c r="AW73" s="5"/>
-      <c r="AX73" s="5"/>
-      <c r="AY73" s="5"/>
-      <c r="AZ73" s="5"/>
-      <c r="BA73" s="5"/>
-      <c r="BB73" s="5"/>
-      <c r="BC73" s="5"/>
-      <c r="BD73" s="5"/>
-      <c r="BE73" s="5"/>
-      <c r="BF73" s="5"/>
-      <c r="BG73" s="5"/>
-      <c r="BH73" s="5"/>
-      <c r="BI73" s="5"/>
-      <c r="BJ73" s="5"/>
-      <c r="BK73" s="5"/>
-      <c r="BL73" s="5"/>
-      <c r="BM73" s="5"/>
-      <c r="BN73" s="5"/>
-      <c r="BO73" s="5"/>
-      <c r="BP73" s="5"/>
-      <c r="BQ73" s="5"/>
-      <c r="BR73" s="5"/>
-      <c r="BS73" s="5"/>
-      <c r="BT73" s="5"/>
-      <c r="BU73" s="5"/>
-      <c r="BV73" s="5"/>
-      <c r="BW73" s="5"/>
-      <c r="BX73" s="5"/>
-      <c r="BY73" s="5"/>
-      <c r="BZ73" s="5"/>
-      <c r="CA73" s="5"/>
-      <c r="CB73" s="5"/>
+    <row r="72" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="5"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="5"/>
+      <c r="AF72" s="5"/>
+      <c r="AG72" s="5"/>
+      <c r="AH72" s="5"/>
+      <c r="AI72" s="5"/>
+      <c r="AJ72" s="5"/>
+      <c r="AK72" s="5"/>
+      <c r="AL72" s="5"/>
+      <c r="AM72" s="5"/>
+      <c r="AN72" s="5"/>
+      <c r="AO72" s="5"/>
+      <c r="AP72" s="5"/>
+      <c r="AQ72" s="5"/>
+      <c r="AR72" s="5"/>
+      <c r="AS72" s="5"/>
+      <c r="AT72" s="5"/>
+      <c r="AU72" s="5"/>
+      <c r="AV72" s="5"/>
+      <c r="AW72" s="5"/>
+      <c r="AX72" s="5"/>
+      <c r="AY72" s="5"/>
+      <c r="AZ72" s="5"/>
+      <c r="BA72" s="5"/>
+      <c r="BB72" s="5"/>
+      <c r="BC72" s="5"/>
+      <c r="BD72" s="5"/>
+      <c r="BE72" s="5"/>
+      <c r="BF72" s="5"/>
+      <c r="BG72" s="5"/>
+      <c r="BH72" s="5"/>
+      <c r="BI72" s="5"/>
+      <c r="BJ72" s="5"/>
+      <c r="BK72" s="5"/>
+      <c r="BL72" s="5"/>
+      <c r="BM72" s="5"/>
+      <c r="BN72" s="5"/>
+      <c r="BO72" s="5"/>
+      <c r="BP72" s="5"/>
+      <c r="BQ72" s="5"/>
+      <c r="BR72" s="5"/>
+      <c r="BS72" s="5"/>
+      <c r="BT72" s="5"/>
+      <c r="BU72" s="5"/>
+      <c r="BV72" s="5"/>
+      <c r="BW72" s="5"/>
+      <c r="BX72" s="5"/>
+      <c r="BY72" s="5"/>
+      <c r="BZ72" s="5"/>
+      <c r="CA72" s="5"/>
+      <c r="CB72" s="5"/>
+    </row>
+    <row r="73" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="7"/>
+      <c r="AB73" s="7"/>
+      <c r="AC73" s="7"/>
+      <c r="AD73" s="7"/>
+      <c r="AE73" s="7"/>
+      <c r="AF73" s="7"/>
+      <c r="AG73" s="7"/>
+      <c r="AH73" s="7"/>
+      <c r="AI73" s="7"/>
+      <c r="AJ73" s="7"/>
+      <c r="AK73" s="7"/>
+      <c r="AL73" s="7"/>
+      <c r="AM73" s="7"/>
+      <c r="AN73" s="7"/>
+      <c r="AO73" s="7"/>
+      <c r="AP73" s="7"/>
+      <c r="AQ73" s="7"/>
+      <c r="AR73" s="7"/>
+      <c r="AS73" s="7"/>
+      <c r="AT73" s="7"/>
+      <c r="AU73" s="7"/>
+      <c r="AV73" s="7"/>
+      <c r="AW73" s="7"/>
+      <c r="AX73" s="7"/>
+      <c r="AY73" s="7"/>
+      <c r="AZ73" s="7"/>
+      <c r="BA73" s="7"/>
+      <c r="BB73" s="7"/>
+      <c r="BC73" s="7"/>
+      <c r="BD73" s="7"/>
+      <c r="BE73" s="7"/>
+      <c r="BF73" s="7"/>
+      <c r="BG73" s="7"/>
+      <c r="BH73" s="7"/>
+      <c r="BI73" s="7"/>
+      <c r="BJ73" s="7"/>
+      <c r="BK73" s="7"/>
+      <c r="BL73" s="7"/>
+      <c r="BM73" s="7"/>
+      <c r="BN73" s="7"/>
+      <c r="BO73" s="7"/>
+      <c r="BP73" s="7"/>
+      <c r="BQ73" s="7"/>
+      <c r="BR73" s="7"/>
+      <c r="BS73" s="7"/>
+      <c r="BT73" s="7"/>
+      <c r="BU73" s="7"/>
+      <c r="BV73" s="7"/>
+      <c r="BW73" s="7"/>
+      <c r="BX73" s="7"/>
+      <c r="BY73" s="7"/>
+      <c r="BZ73" s="7"/>
+      <c r="CA73" s="7"/>
+      <c r="CB73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
@@ -6711,169 +6756,169 @@
       <c r="CA74" s="7"/>
       <c r="CB74" s="7"/>
     </row>
-    <row r="75" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
-      <c r="U75" s="7"/>
-      <c r="V75" s="7"/>
-      <c r="W75" s="7"/>
-      <c r="X75" s="7"/>
-      <c r="Y75" s="7"/>
-      <c r="Z75" s="7"/>
-      <c r="AA75" s="7"/>
-      <c r="AB75" s="7"/>
-      <c r="AC75" s="7"/>
-      <c r="AD75" s="7"/>
-      <c r="AE75" s="7"/>
-      <c r="AF75" s="7"/>
-      <c r="AG75" s="7"/>
-      <c r="AH75" s="7"/>
-      <c r="AI75" s="7"/>
-      <c r="AJ75" s="7"/>
-      <c r="AK75" s="7"/>
-      <c r="AL75" s="7"/>
-      <c r="AM75" s="7"/>
-      <c r="AN75" s="7"/>
-      <c r="AO75" s="7"/>
-      <c r="AP75" s="7"/>
-      <c r="AQ75" s="7"/>
-      <c r="AR75" s="7"/>
-      <c r="AS75" s="7"/>
-      <c r="AT75" s="7"/>
-      <c r="AU75" s="7"/>
-      <c r="AV75" s="7"/>
-      <c r="AW75" s="7"/>
-      <c r="AX75" s="7"/>
-      <c r="AY75" s="7"/>
-      <c r="AZ75" s="7"/>
-      <c r="BA75" s="7"/>
-      <c r="BB75" s="7"/>
-      <c r="BC75" s="7"/>
-      <c r="BD75" s="7"/>
-      <c r="BE75" s="7"/>
-      <c r="BF75" s="7"/>
-      <c r="BG75" s="7"/>
-      <c r="BH75" s="7"/>
-      <c r="BI75" s="7"/>
-      <c r="BJ75" s="7"/>
-      <c r="BK75" s="7"/>
-      <c r="BL75" s="7"/>
-      <c r="BM75" s="7"/>
-      <c r="BN75" s="7"/>
-      <c r="BO75" s="7"/>
-      <c r="BP75" s="7"/>
-      <c r="BQ75" s="7"/>
-      <c r="BR75" s="7"/>
-      <c r="BS75" s="7"/>
-      <c r="BT75" s="7"/>
-      <c r="BU75" s="7"/>
-      <c r="BV75" s="7"/>
-      <c r="BW75" s="7"/>
-      <c r="BX75" s="7"/>
-      <c r="BY75" s="7"/>
-      <c r="BZ75" s="7"/>
-      <c r="CA75" s="7"/>
-      <c r="CB75" s="7"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="3"/>
+      <c r="AB75" s="3"/>
+      <c r="AC75" s="3"/>
+      <c r="AD75" s="3"/>
+      <c r="AE75" s="3"/>
+      <c r="AF75" s="3"/>
+      <c r="AG75" s="3"/>
+      <c r="AH75" s="3"/>
+      <c r="AI75" s="3"/>
+      <c r="AJ75" s="3"/>
+      <c r="AK75" s="3"/>
+      <c r="AL75" s="3"/>
+      <c r="AM75" s="3"/>
+      <c r="AN75" s="3"/>
+      <c r="AO75" s="3"/>
+      <c r="AP75" s="3"/>
+      <c r="AQ75" s="3"/>
+      <c r="AR75" s="3"/>
+      <c r="AS75" s="3"/>
+      <c r="AT75" s="3"/>
+      <c r="AU75" s="3"/>
+      <c r="AV75" s="3"/>
+      <c r="AW75" s="3"/>
+      <c r="AX75" s="3"/>
+      <c r="AY75" s="3"/>
+      <c r="AZ75" s="3"/>
+      <c r="BA75" s="3"/>
+      <c r="BB75" s="3"/>
+      <c r="BC75" s="3"/>
+      <c r="BD75" s="3"/>
+      <c r="BE75" s="3"/>
+      <c r="BF75" s="3"/>
+      <c r="BG75" s="3"/>
+      <c r="BH75" s="3"/>
+      <c r="BI75" s="3"/>
+      <c r="BJ75" s="3"/>
+      <c r="BK75" s="3"/>
+      <c r="BL75" s="3"/>
+      <c r="BM75" s="3"/>
+      <c r="BN75" s="3"/>
+      <c r="BO75" s="3"/>
+      <c r="BP75" s="3"/>
+      <c r="BQ75" s="3"/>
+      <c r="BR75" s="3"/>
+      <c r="BS75" s="3"/>
+      <c r="BT75" s="3"/>
+      <c r="BU75" s="3"/>
+      <c r="BV75" s="3"/>
+      <c r="BW75" s="3"/>
+      <c r="BX75" s="3"/>
+      <c r="BY75" s="3"/>
+      <c r="BZ75" s="3"/>
+      <c r="CA75" s="3"/>
+      <c r="CB75" s="3"/>
+    </row>
+    <row r="76" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
-      <c r="AA76" s="3"/>
-      <c r="AB76" s="3"/>
-      <c r="AC76" s="3"/>
-      <c r="AD76" s="3"/>
-      <c r="AE76" s="3"/>
-      <c r="AF76" s="3"/>
-      <c r="AG76" s="3"/>
-      <c r="AH76" s="3"/>
-      <c r="AI76" s="3"/>
-      <c r="AJ76" s="3"/>
-      <c r="AK76" s="3"/>
-      <c r="AL76" s="3"/>
-      <c r="AM76" s="3"/>
-      <c r="AN76" s="3"/>
-      <c r="AO76" s="3"/>
-      <c r="AP76" s="3"/>
-      <c r="AQ76" s="3"/>
-      <c r="AR76" s="3"/>
-      <c r="AS76" s="3"/>
-      <c r="AT76" s="3"/>
-      <c r="AU76" s="3"/>
-      <c r="AV76" s="3"/>
-      <c r="AW76" s="3"/>
-      <c r="AX76" s="3"/>
-      <c r="AY76" s="3"/>
-      <c r="AZ76" s="3"/>
-      <c r="BA76" s="3"/>
-      <c r="BB76" s="3"/>
-      <c r="BC76" s="3"/>
-      <c r="BD76" s="3"/>
-      <c r="BE76" s="3"/>
-      <c r="BF76" s="3"/>
-      <c r="BG76" s="3"/>
-      <c r="BH76" s="3"/>
-      <c r="BI76" s="3"/>
-      <c r="BJ76" s="3"/>
-      <c r="BK76" s="3"/>
-      <c r="BL76" s="3"/>
-      <c r="BM76" s="3"/>
-      <c r="BN76" s="3"/>
-      <c r="BO76" s="3"/>
-      <c r="BP76" s="3"/>
-      <c r="BQ76" s="3"/>
-      <c r="BR76" s="3"/>
-      <c r="BS76" s="3"/>
-      <c r="BT76" s="3"/>
-      <c r="BU76" s="3"/>
-      <c r="BV76" s="3"/>
-      <c r="BW76" s="3"/>
-      <c r="BX76" s="3"/>
-      <c r="BY76" s="3"/>
-      <c r="BZ76" s="3"/>
-      <c r="CA76" s="3"/>
-      <c r="CB76" s="3"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="7"/>
+      <c r="Y76" s="7"/>
+      <c r="Z76" s="7"/>
+      <c r="AA76" s="7"/>
+      <c r="AB76" s="7"/>
+      <c r="AC76" s="7"/>
+      <c r="AD76" s="7"/>
+      <c r="AE76" s="7"/>
+      <c r="AF76" s="7"/>
+      <c r="AG76" s="7"/>
+      <c r="AH76" s="7"/>
+      <c r="AI76" s="7"/>
+      <c r="AJ76" s="7"/>
+      <c r="AK76" s="7"/>
+      <c r="AL76" s="7"/>
+      <c r="AM76" s="7"/>
+      <c r="AN76" s="7"/>
+      <c r="AO76" s="7"/>
+      <c r="AP76" s="7"/>
+      <c r="AQ76" s="7"/>
+      <c r="AR76" s="7"/>
+      <c r="AS76" s="7"/>
+      <c r="AT76" s="7"/>
+      <c r="AU76" s="7"/>
+      <c r="AV76" s="7"/>
+      <c r="AW76" s="7"/>
+      <c r="AX76" s="7"/>
+      <c r="AY76" s="7"/>
+      <c r="AZ76" s="7"/>
+      <c r="BA76" s="7"/>
+      <c r="BB76" s="7"/>
+      <c r="BC76" s="7"/>
+      <c r="BD76" s="7"/>
+      <c r="BE76" s="7"/>
+      <c r="BF76" s="7"/>
+      <c r="BG76" s="7"/>
+      <c r="BH76" s="7"/>
+      <c r="BI76" s="7"/>
+      <c r="BJ76" s="7"/>
+      <c r="BK76" s="7"/>
+      <c r="BL76" s="7"/>
+      <c r="BM76" s="7"/>
+      <c r="BN76" s="7"/>
+      <c r="BO76" s="7"/>
+      <c r="BP76" s="7"/>
+      <c r="BQ76" s="7"/>
+      <c r="BR76" s="7"/>
+      <c r="BS76" s="7"/>
+      <c r="BT76" s="7"/>
+      <c r="BU76" s="7"/>
+      <c r="BV76" s="7"/>
+      <c r="BW76" s="7"/>
+      <c r="BX76" s="7"/>
+      <c r="BY76" s="7"/>
+      <c r="BZ76" s="7"/>
+      <c r="CA76" s="7"/>
+      <c r="CB76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
@@ -7531,7 +7576,7 @@
       <c r="CA84" s="7"/>
       <c r="CB84" s="7"/>
     </row>
-    <row r="85" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="7"/>
@@ -7613,7 +7658,7 @@
       <c r="CA85" s="7"/>
       <c r="CB85" s="7"/>
     </row>
-    <row r="86" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="7"/>
@@ -7941,169 +7986,169 @@
       <c r="CA89" s="7"/>
       <c r="CB89" s="7"/>
     </row>
-    <row r="90" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="7"/>
-      <c r="S90" s="7"/>
-      <c r="T90" s="7"/>
-      <c r="U90" s="7"/>
-      <c r="V90" s="7"/>
-      <c r="W90" s="7"/>
-      <c r="X90" s="7"/>
-      <c r="Y90" s="7"/>
-      <c r="Z90" s="7"/>
-      <c r="AA90" s="7"/>
-      <c r="AB90" s="7"/>
-      <c r="AC90" s="7"/>
-      <c r="AD90" s="7"/>
-      <c r="AE90" s="7"/>
-      <c r="AF90" s="7"/>
-      <c r="AG90" s="7"/>
-      <c r="AH90" s="7"/>
-      <c r="AI90" s="7"/>
-      <c r="AJ90" s="7"/>
-      <c r="AK90" s="7"/>
-      <c r="AL90" s="7"/>
-      <c r="AM90" s="7"/>
-      <c r="AN90" s="7"/>
-      <c r="AO90" s="7"/>
-      <c r="AP90" s="7"/>
-      <c r="AQ90" s="7"/>
-      <c r="AR90" s="7"/>
-      <c r="AS90" s="7"/>
-      <c r="AT90" s="7"/>
-      <c r="AU90" s="7"/>
-      <c r="AV90" s="7"/>
-      <c r="AW90" s="7"/>
-      <c r="AX90" s="7"/>
-      <c r="AY90" s="7"/>
-      <c r="AZ90" s="7"/>
-      <c r="BA90" s="7"/>
-      <c r="BB90" s="7"/>
-      <c r="BC90" s="7"/>
-      <c r="BD90" s="7"/>
-      <c r="BE90" s="7"/>
-      <c r="BF90" s="7"/>
-      <c r="BG90" s="7"/>
-      <c r="BH90" s="7"/>
-      <c r="BI90" s="7"/>
-      <c r="BJ90" s="7"/>
-      <c r="BK90" s="7"/>
-      <c r="BL90" s="7"/>
-      <c r="BM90" s="7"/>
-      <c r="BN90" s="7"/>
-      <c r="BO90" s="7"/>
-      <c r="BP90" s="7"/>
-      <c r="BQ90" s="7"/>
-      <c r="BR90" s="7"/>
-      <c r="BS90" s="7"/>
-      <c r="BT90" s="7"/>
-      <c r="BU90" s="7"/>
-      <c r="BV90" s="7"/>
-      <c r="BW90" s="7"/>
-      <c r="BX90" s="7"/>
-      <c r="BY90" s="7"/>
-      <c r="BZ90" s="7"/>
-      <c r="CA90" s="7"/>
-      <c r="CB90" s="7"/>
-    </row>
-    <row r="91" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5"/>
-      <c r="P91" s="5"/>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
-      <c r="T91" s="5"/>
-      <c r="U91" s="5"/>
-      <c r="V91" s="5"/>
-      <c r="W91" s="5"/>
-      <c r="X91" s="5"/>
-      <c r="Y91" s="5"/>
-      <c r="Z91" s="5"/>
-      <c r="AA91" s="5"/>
-      <c r="AB91" s="5"/>
-      <c r="AC91" s="5"/>
-      <c r="AD91" s="5"/>
-      <c r="AE91" s="5"/>
-      <c r="AF91" s="5"/>
-      <c r="AG91" s="5"/>
-      <c r="AH91" s="5"/>
-      <c r="AI91" s="5"/>
-      <c r="AJ91" s="5"/>
-      <c r="AK91" s="5"/>
-      <c r="AL91" s="5"/>
-      <c r="AM91" s="5"/>
-      <c r="AN91" s="5"/>
-      <c r="AO91" s="5"/>
-      <c r="AP91" s="5"/>
-      <c r="AQ91" s="5"/>
-      <c r="AR91" s="5"/>
-      <c r="AS91" s="5"/>
-      <c r="AT91" s="5"/>
-      <c r="AU91" s="5"/>
-      <c r="AV91" s="5"/>
-      <c r="AW91" s="5"/>
-      <c r="AX91" s="5"/>
-      <c r="AY91" s="5"/>
-      <c r="AZ91" s="5"/>
-      <c r="BA91" s="5"/>
-      <c r="BB91" s="5"/>
-      <c r="BC91" s="5"/>
-      <c r="BD91" s="5"/>
-      <c r="BE91" s="5"/>
-      <c r="BF91" s="5"/>
-      <c r="BG91" s="5"/>
-      <c r="BH91" s="5"/>
-      <c r="BI91" s="5"/>
-      <c r="BJ91" s="5"/>
-      <c r="BK91" s="5"/>
-      <c r="BL91" s="5"/>
-      <c r="BM91" s="5"/>
-      <c r="BN91" s="5"/>
-      <c r="BO91" s="5"/>
-      <c r="BP91" s="5"/>
-      <c r="BQ91" s="5"/>
-      <c r="BR91" s="5"/>
-      <c r="BS91" s="5"/>
-      <c r="BT91" s="5"/>
-      <c r="BU91" s="5"/>
-      <c r="BV91" s="5"/>
-      <c r="BW91" s="5"/>
-      <c r="BX91" s="5"/>
-      <c r="BY91" s="5"/>
-      <c r="BZ91" s="5"/>
-      <c r="CA91" s="5"/>
-      <c r="CB91" s="5"/>
+    <row r="90" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="5"/>
+      <c r="X90" s="5"/>
+      <c r="Y90" s="5"/>
+      <c r="Z90" s="5"/>
+      <c r="AA90" s="5"/>
+      <c r="AB90" s="5"/>
+      <c r="AC90" s="5"/>
+      <c r="AD90" s="5"/>
+      <c r="AE90" s="5"/>
+      <c r="AF90" s="5"/>
+      <c r="AG90" s="5"/>
+      <c r="AH90" s="5"/>
+      <c r="AI90" s="5"/>
+      <c r="AJ90" s="5"/>
+      <c r="AK90" s="5"/>
+      <c r="AL90" s="5"/>
+      <c r="AM90" s="5"/>
+      <c r="AN90" s="5"/>
+      <c r="AO90" s="5"/>
+      <c r="AP90" s="5"/>
+      <c r="AQ90" s="5"/>
+      <c r="AR90" s="5"/>
+      <c r="AS90" s="5"/>
+      <c r="AT90" s="5"/>
+      <c r="AU90" s="5"/>
+      <c r="AV90" s="5"/>
+      <c r="AW90" s="5"/>
+      <c r="AX90" s="5"/>
+      <c r="AY90" s="5"/>
+      <c r="AZ90" s="5"/>
+      <c r="BA90" s="5"/>
+      <c r="BB90" s="5"/>
+      <c r="BC90" s="5"/>
+      <c r="BD90" s="5"/>
+      <c r="BE90" s="5"/>
+      <c r="BF90" s="5"/>
+      <c r="BG90" s="5"/>
+      <c r="BH90" s="5"/>
+      <c r="BI90" s="5"/>
+      <c r="BJ90" s="5"/>
+      <c r="BK90" s="5"/>
+      <c r="BL90" s="5"/>
+      <c r="BM90" s="5"/>
+      <c r="BN90" s="5"/>
+      <c r="BO90" s="5"/>
+      <c r="BP90" s="5"/>
+      <c r="BQ90" s="5"/>
+      <c r="BR90" s="5"/>
+      <c r="BS90" s="5"/>
+      <c r="BT90" s="5"/>
+      <c r="BU90" s="5"/>
+      <c r="BV90" s="5"/>
+      <c r="BW90" s="5"/>
+      <c r="BX90" s="5"/>
+      <c r="BY90" s="5"/>
+      <c r="BZ90" s="5"/>
+      <c r="CA90" s="5"/>
+      <c r="CB90" s="5"/>
+    </row>
+    <row r="91" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+      <c r="Y91" s="7"/>
+      <c r="Z91" s="7"/>
+      <c r="AA91" s="7"/>
+      <c r="AB91" s="7"/>
+      <c r="AC91" s="7"/>
+      <c r="AD91" s="7"/>
+      <c r="AE91" s="7"/>
+      <c r="AF91" s="7"/>
+      <c r="AG91" s="7"/>
+      <c r="AH91" s="7"/>
+      <c r="AI91" s="7"/>
+      <c r="AJ91" s="7"/>
+      <c r="AK91" s="7"/>
+      <c r="AL91" s="7"/>
+      <c r="AM91" s="7"/>
+      <c r="AN91" s="7"/>
+      <c r="AO91" s="7"/>
+      <c r="AP91" s="7"/>
+      <c r="AQ91" s="7"/>
+      <c r="AR91" s="7"/>
+      <c r="AS91" s="7"/>
+      <c r="AT91" s="7"/>
+      <c r="AU91" s="7"/>
+      <c r="AV91" s="7"/>
+      <c r="AW91" s="7"/>
+      <c r="AX91" s="7"/>
+      <c r="AY91" s="7"/>
+      <c r="AZ91" s="7"/>
+      <c r="BA91" s="7"/>
+      <c r="BB91" s="7"/>
+      <c r="BC91" s="7"/>
+      <c r="BD91" s="7"/>
+      <c r="BE91" s="7"/>
+      <c r="BF91" s="7"/>
+      <c r="BG91" s="7"/>
+      <c r="BH91" s="7"/>
+      <c r="BI91" s="7"/>
+      <c r="BJ91" s="7"/>
+      <c r="BK91" s="7"/>
+      <c r="BL91" s="7"/>
+      <c r="BM91" s="7"/>
+      <c r="BN91" s="7"/>
+      <c r="BO91" s="7"/>
+      <c r="BP91" s="7"/>
+      <c r="BQ91" s="7"/>
+      <c r="BR91" s="7"/>
+      <c r="BS91" s="7"/>
+      <c r="BT91" s="7"/>
+      <c r="BU91" s="7"/>
+      <c r="BV91" s="7"/>
+      <c r="BW91" s="7"/>
+      <c r="BX91" s="7"/>
+      <c r="BY91" s="7"/>
+      <c r="BZ91" s="7"/>
+      <c r="CA91" s="7"/>
+      <c r="CB91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
@@ -8187,169 +8232,169 @@
       <c r="CA92" s="7"/>
       <c r="CB92" s="7"/>
     </row>
-    <row r="93" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
-      <c r="X93" s="7"/>
-      <c r="Y93" s="7"/>
-      <c r="Z93" s="7"/>
-      <c r="AA93" s="7"/>
-      <c r="AB93" s="7"/>
-      <c r="AC93" s="7"/>
-      <c r="AD93" s="7"/>
-      <c r="AE93" s="7"/>
-      <c r="AF93" s="7"/>
-      <c r="AG93" s="7"/>
-      <c r="AH93" s="7"/>
-      <c r="AI93" s="7"/>
-      <c r="AJ93" s="7"/>
-      <c r="AK93" s="7"/>
-      <c r="AL93" s="7"/>
-      <c r="AM93" s="7"/>
-      <c r="AN93" s="7"/>
-      <c r="AO93" s="7"/>
-      <c r="AP93" s="7"/>
-      <c r="AQ93" s="7"/>
-      <c r="AR93" s="7"/>
-      <c r="AS93" s="7"/>
-      <c r="AT93" s="7"/>
-      <c r="AU93" s="7"/>
-      <c r="AV93" s="7"/>
-      <c r="AW93" s="7"/>
-      <c r="AX93" s="7"/>
-      <c r="AY93" s="7"/>
-      <c r="AZ93" s="7"/>
-      <c r="BA93" s="7"/>
-      <c r="BB93" s="7"/>
-      <c r="BC93" s="7"/>
-      <c r="BD93" s="7"/>
-      <c r="BE93" s="7"/>
-      <c r="BF93" s="7"/>
-      <c r="BG93" s="7"/>
-      <c r="BH93" s="7"/>
-      <c r="BI93" s="7"/>
-      <c r="BJ93" s="7"/>
-      <c r="BK93" s="7"/>
-      <c r="BL93" s="7"/>
-      <c r="BM93" s="7"/>
-      <c r="BN93" s="7"/>
-      <c r="BO93" s="7"/>
-      <c r="BP93" s="7"/>
-      <c r="BQ93" s="7"/>
-      <c r="BR93" s="7"/>
-      <c r="BS93" s="7"/>
-      <c r="BT93" s="7"/>
-      <c r="BU93" s="7"/>
-      <c r="BV93" s="7"/>
-      <c r="BW93" s="7"/>
-      <c r="BX93" s="7"/>
-      <c r="BY93" s="7"/>
-      <c r="BZ93" s="7"/>
-      <c r="CA93" s="7"/>
-      <c r="CB93" s="7"/>
-    </row>
-    <row r="94" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="5"/>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
-      <c r="U94" s="5"/>
-      <c r="V94" s="5"/>
-      <c r="W94" s="5"/>
-      <c r="X94" s="5"/>
-      <c r="Y94" s="5"/>
-      <c r="Z94" s="5"/>
-      <c r="AA94" s="5"/>
-      <c r="AB94" s="5"/>
-      <c r="AC94" s="5"/>
-      <c r="AD94" s="5"/>
-      <c r="AE94" s="5"/>
-      <c r="AF94" s="5"/>
-      <c r="AG94" s="5"/>
-      <c r="AH94" s="5"/>
-      <c r="AI94" s="5"/>
-      <c r="AJ94" s="5"/>
-      <c r="AK94" s="5"/>
-      <c r="AL94" s="5"/>
-      <c r="AM94" s="5"/>
-      <c r="AN94" s="5"/>
-      <c r="AO94" s="5"/>
-      <c r="AP94" s="5"/>
-      <c r="AQ94" s="5"/>
-      <c r="AR94" s="5"/>
-      <c r="AS94" s="5"/>
-      <c r="AT94" s="5"/>
-      <c r="AU94" s="5"/>
-      <c r="AV94" s="5"/>
-      <c r="AW94" s="5"/>
-      <c r="AX94" s="5"/>
-      <c r="AY94" s="5"/>
-      <c r="AZ94" s="5"/>
-      <c r="BA94" s="5"/>
-      <c r="BB94" s="5"/>
-      <c r="BC94" s="5"/>
-      <c r="BD94" s="5"/>
-      <c r="BE94" s="5"/>
-      <c r="BF94" s="5"/>
-      <c r="BG94" s="5"/>
-      <c r="BH94" s="5"/>
-      <c r="BI94" s="5"/>
-      <c r="BJ94" s="5"/>
-      <c r="BK94" s="5"/>
-      <c r="BL94" s="5"/>
-      <c r="BM94" s="5"/>
-      <c r="BN94" s="5"/>
-      <c r="BO94" s="5"/>
-      <c r="BP94" s="5"/>
-      <c r="BQ94" s="5"/>
-      <c r="BR94" s="5"/>
-      <c r="BS94" s="5"/>
-      <c r="BT94" s="5"/>
-      <c r="BU94" s="5"/>
-      <c r="BV94" s="5"/>
-      <c r="BW94" s="5"/>
-      <c r="BX94" s="5"/>
-      <c r="BY94" s="5"/>
-      <c r="BZ94" s="5"/>
-      <c r="CA94" s="5"/>
-      <c r="CB94" s="5"/>
+    <row r="93" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="5"/>
+      <c r="Y93" s="5"/>
+      <c r="Z93" s="5"/>
+      <c r="AA93" s="5"/>
+      <c r="AB93" s="5"/>
+      <c r="AC93" s="5"/>
+      <c r="AD93" s="5"/>
+      <c r="AE93" s="5"/>
+      <c r="AF93" s="5"/>
+      <c r="AG93" s="5"/>
+      <c r="AH93" s="5"/>
+      <c r="AI93" s="5"/>
+      <c r="AJ93" s="5"/>
+      <c r="AK93" s="5"/>
+      <c r="AL93" s="5"/>
+      <c r="AM93" s="5"/>
+      <c r="AN93" s="5"/>
+      <c r="AO93" s="5"/>
+      <c r="AP93" s="5"/>
+      <c r="AQ93" s="5"/>
+      <c r="AR93" s="5"/>
+      <c r="AS93" s="5"/>
+      <c r="AT93" s="5"/>
+      <c r="AU93" s="5"/>
+      <c r="AV93" s="5"/>
+      <c r="AW93" s="5"/>
+      <c r="AX93" s="5"/>
+      <c r="AY93" s="5"/>
+      <c r="AZ93" s="5"/>
+      <c r="BA93" s="5"/>
+      <c r="BB93" s="5"/>
+      <c r="BC93" s="5"/>
+      <c r="BD93" s="5"/>
+      <c r="BE93" s="5"/>
+      <c r="BF93" s="5"/>
+      <c r="BG93" s="5"/>
+      <c r="BH93" s="5"/>
+      <c r="BI93" s="5"/>
+      <c r="BJ93" s="5"/>
+      <c r="BK93" s="5"/>
+      <c r="BL93" s="5"/>
+      <c r="BM93" s="5"/>
+      <c r="BN93" s="5"/>
+      <c r="BO93" s="5"/>
+      <c r="BP93" s="5"/>
+      <c r="BQ93" s="5"/>
+      <c r="BR93" s="5"/>
+      <c r="BS93" s="5"/>
+      <c r="BT93" s="5"/>
+      <c r="BU93" s="5"/>
+      <c r="BV93" s="5"/>
+      <c r="BW93" s="5"/>
+      <c r="BX93" s="5"/>
+      <c r="BY93" s="5"/>
+      <c r="BZ93" s="5"/>
+      <c r="CA93" s="5"/>
+      <c r="CB93" s="5"/>
+    </row>
+    <row r="94" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7"/>
+      <c r="Y94" s="7"/>
+      <c r="Z94" s="7"/>
+      <c r="AA94" s="7"/>
+      <c r="AB94" s="7"/>
+      <c r="AC94" s="7"/>
+      <c r="AD94" s="7"/>
+      <c r="AE94" s="7"/>
+      <c r="AF94" s="7"/>
+      <c r="AG94" s="7"/>
+      <c r="AH94" s="7"/>
+      <c r="AI94" s="7"/>
+      <c r="AJ94" s="7"/>
+      <c r="AK94" s="7"/>
+      <c r="AL94" s="7"/>
+      <c r="AM94" s="7"/>
+      <c r="AN94" s="7"/>
+      <c r="AO94" s="7"/>
+      <c r="AP94" s="7"/>
+      <c r="AQ94" s="7"/>
+      <c r="AR94" s="7"/>
+      <c r="AS94" s="7"/>
+      <c r="AT94" s="7"/>
+      <c r="AU94" s="7"/>
+      <c r="AV94" s="7"/>
+      <c r="AW94" s="7"/>
+      <c r="AX94" s="7"/>
+      <c r="AY94" s="7"/>
+      <c r="AZ94" s="7"/>
+      <c r="BA94" s="7"/>
+      <c r="BB94" s="7"/>
+      <c r="BC94" s="7"/>
+      <c r="BD94" s="7"/>
+      <c r="BE94" s="7"/>
+      <c r="BF94" s="7"/>
+      <c r="BG94" s="7"/>
+      <c r="BH94" s="7"/>
+      <c r="BI94" s="7"/>
+      <c r="BJ94" s="7"/>
+      <c r="BK94" s="7"/>
+      <c r="BL94" s="7"/>
+      <c r="BM94" s="7"/>
+      <c r="BN94" s="7"/>
+      <c r="BO94" s="7"/>
+      <c r="BP94" s="7"/>
+      <c r="BQ94" s="7"/>
+      <c r="BR94" s="7"/>
+      <c r="BS94" s="7"/>
+      <c r="BT94" s="7"/>
+      <c r="BU94" s="7"/>
+      <c r="BV94" s="7"/>
+      <c r="BW94" s="7"/>
+      <c r="BX94" s="7"/>
+      <c r="BY94" s="7"/>
+      <c r="BZ94" s="7"/>
+      <c r="CA94" s="7"/>
+      <c r="CB94" s="7"/>
     </row>
     <row r="95" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
@@ -8515,87 +8560,87 @@
       <c r="CA96" s="7"/>
       <c r="CB96" s="7"/>
     </row>
-    <row r="97" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
-      <c r="Q97" s="7"/>
-      <c r="R97" s="7"/>
-      <c r="S97" s="7"/>
-      <c r="T97" s="7"/>
-      <c r="U97" s="7"/>
-      <c r="V97" s="7"/>
-      <c r="W97" s="7"/>
-      <c r="X97" s="7"/>
-      <c r="Y97" s="7"/>
-      <c r="Z97" s="7"/>
-      <c r="AA97" s="7"/>
-      <c r="AB97" s="7"/>
-      <c r="AC97" s="7"/>
-      <c r="AD97" s="7"/>
-      <c r="AE97" s="7"/>
-      <c r="AF97" s="7"/>
-      <c r="AG97" s="7"/>
-      <c r="AH97" s="7"/>
-      <c r="AI97" s="7"/>
-      <c r="AJ97" s="7"/>
-      <c r="AK97" s="7"/>
-      <c r="AL97" s="7"/>
-      <c r="AM97" s="7"/>
-      <c r="AN97" s="7"/>
-      <c r="AO97" s="7"/>
-      <c r="AP97" s="7"/>
-      <c r="AQ97" s="7"/>
-      <c r="AR97" s="7"/>
-      <c r="AS97" s="7"/>
-      <c r="AT97" s="7"/>
-      <c r="AU97" s="7"/>
-      <c r="AV97" s="7"/>
-      <c r="AW97" s="7"/>
-      <c r="AX97" s="7"/>
-      <c r="AY97" s="7"/>
-      <c r="AZ97" s="7"/>
-      <c r="BA97" s="7"/>
-      <c r="BB97" s="7"/>
-      <c r="BC97" s="7"/>
-      <c r="BD97" s="7"/>
-      <c r="BE97" s="7"/>
-      <c r="BF97" s="7"/>
-      <c r="BG97" s="7"/>
-      <c r="BH97" s="7"/>
-      <c r="BI97" s="7"/>
-      <c r="BJ97" s="7"/>
-      <c r="BK97" s="7"/>
-      <c r="BL97" s="7"/>
-      <c r="BM97" s="7"/>
-      <c r="BN97" s="7"/>
-      <c r="BO97" s="7"/>
-      <c r="BP97" s="7"/>
-      <c r="BQ97" s="7"/>
-      <c r="BR97" s="7"/>
-      <c r="BS97" s="7"/>
-      <c r="BT97" s="7"/>
-      <c r="BU97" s="7"/>
-      <c r="BV97" s="7"/>
-      <c r="BW97" s="7"/>
-      <c r="BX97" s="7"/>
-      <c r="BY97" s="7"/>
-      <c r="BZ97" s="7"/>
-      <c r="CA97" s="7"/>
-      <c r="CB97" s="7"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
+      <c r="Z97" s="3"/>
+      <c r="AA97" s="3"/>
+      <c r="AB97" s="3"/>
+      <c r="AC97" s="3"/>
+      <c r="AD97" s="3"/>
+      <c r="AE97" s="3"/>
+      <c r="AF97" s="3"/>
+      <c r="AG97" s="3"/>
+      <c r="AH97" s="3"/>
+      <c r="AI97" s="3"/>
+      <c r="AJ97" s="3"/>
+      <c r="AK97" s="3"/>
+      <c r="AL97" s="3"/>
+      <c r="AM97" s="3"/>
+      <c r="AN97" s="3"/>
+      <c r="AO97" s="3"/>
+      <c r="AP97" s="3"/>
+      <c r="AQ97" s="3"/>
+      <c r="AR97" s="3"/>
+      <c r="AS97" s="3"/>
+      <c r="AT97" s="3"/>
+      <c r="AU97" s="3"/>
+      <c r="AV97" s="3"/>
+      <c r="AW97" s="3"/>
+      <c r="AX97" s="3"/>
+      <c r="AY97" s="3"/>
+      <c r="AZ97" s="3"/>
+      <c r="BA97" s="3"/>
+      <c r="BB97" s="3"/>
+      <c r="BC97" s="3"/>
+      <c r="BD97" s="3"/>
+      <c r="BE97" s="3"/>
+      <c r="BF97" s="3"/>
+      <c r="BG97" s="3"/>
+      <c r="BH97" s="3"/>
+      <c r="BI97" s="3"/>
+      <c r="BJ97" s="3"/>
+      <c r="BK97" s="3"/>
+      <c r="BL97" s="3"/>
+      <c r="BM97" s="3"/>
+      <c r="BN97" s="3"/>
+      <c r="BO97" s="3"/>
+      <c r="BP97" s="3"/>
+      <c r="BQ97" s="3"/>
+      <c r="BR97" s="3"/>
+      <c r="BS97" s="3"/>
+      <c r="BT97" s="3"/>
+      <c r="BU97" s="3"/>
+      <c r="BV97" s="3"/>
+      <c r="BW97" s="3"/>
+      <c r="BX97" s="3"/>
+      <c r="BY97" s="3"/>
+      <c r="BZ97" s="3"/>
+      <c r="CA97" s="3"/>
+      <c r="CB97" s="3"/>
     </row>
     <row r="98" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
@@ -8679,11 +8724,11 @@
       <c r="CA98" s="3"/>
       <c r="CB98" s="3"/>
     </row>
-    <row r="99" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -8766,82 +8811,82 @@
       <c r="B100" s="2"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
-      <c r="O100" s="3"/>
-      <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
-      <c r="S100" s="3"/>
-      <c r="T100" s="3"/>
-      <c r="U100" s="3"/>
-      <c r="V100" s="3"/>
-      <c r="W100" s="3"/>
-      <c r="X100" s="3"/>
-      <c r="Y100" s="3"/>
-      <c r="Z100" s="3"/>
-      <c r="AA100" s="3"/>
-      <c r="AB100" s="3"/>
-      <c r="AC100" s="3"/>
-      <c r="AD100" s="3"/>
-      <c r="AE100" s="3"/>
-      <c r="AF100" s="3"/>
-      <c r="AG100" s="3"/>
-      <c r="AH100" s="3"/>
-      <c r="AI100" s="3"/>
-      <c r="AJ100" s="3"/>
-      <c r="AK100" s="3"/>
-      <c r="AL100" s="3"/>
-      <c r="AM100" s="3"/>
-      <c r="AN100" s="3"/>
-      <c r="AO100" s="3"/>
-      <c r="AP100" s="3"/>
-      <c r="AQ100" s="3"/>
-      <c r="AR100" s="3"/>
-      <c r="AS100" s="3"/>
-      <c r="AT100" s="3"/>
-      <c r="AU100" s="3"/>
-      <c r="AV100" s="3"/>
-      <c r="AW100" s="3"/>
-      <c r="AX100" s="3"/>
-      <c r="AY100" s="3"/>
-      <c r="AZ100" s="3"/>
-      <c r="BA100" s="3"/>
-      <c r="BB100" s="3"/>
-      <c r="BC100" s="3"/>
-      <c r="BD100" s="3"/>
-      <c r="BE100" s="3"/>
-      <c r="BF100" s="3"/>
-      <c r="BG100" s="3"/>
-      <c r="BH100" s="3"/>
-      <c r="BI100" s="3"/>
-      <c r="BJ100" s="3"/>
-      <c r="BK100" s="3"/>
-      <c r="BL100" s="3"/>
-      <c r="BM100" s="3"/>
-      <c r="BN100" s="3"/>
-      <c r="BO100" s="3"/>
-      <c r="BP100" s="3"/>
-      <c r="BQ100" s="3"/>
-      <c r="BR100" s="3"/>
-      <c r="BS100" s="3"/>
-      <c r="BT100" s="3"/>
-      <c r="BU100" s="3"/>
-      <c r="BV100" s="3"/>
-      <c r="BW100" s="3"/>
-      <c r="BX100" s="3"/>
-      <c r="BY100" s="3"/>
-      <c r="BZ100" s="3"/>
-      <c r="CA100" s="3"/>
-      <c r="CB100" s="3"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="7"/>
+      <c r="Y100" s="7"/>
+      <c r="Z100" s="7"/>
+      <c r="AA100" s="7"/>
+      <c r="AB100" s="7"/>
+      <c r="AC100" s="7"/>
+      <c r="AD100" s="7"/>
+      <c r="AE100" s="7"/>
+      <c r="AF100" s="7"/>
+      <c r="AG100" s="7"/>
+      <c r="AH100" s="7"/>
+      <c r="AI100" s="7"/>
+      <c r="AJ100" s="7"/>
+      <c r="AK100" s="7"/>
+      <c r="AL100" s="7"/>
+      <c r="AM100" s="7"/>
+      <c r="AN100" s="7"/>
+      <c r="AO100" s="7"/>
+      <c r="AP100" s="7"/>
+      <c r="AQ100" s="7"/>
+      <c r="AR100" s="7"/>
+      <c r="AS100" s="7"/>
+      <c r="AT100" s="7"/>
+      <c r="AU100" s="7"/>
+      <c r="AV100" s="7"/>
+      <c r="AW100" s="7"/>
+      <c r="AX100" s="7"/>
+      <c r="AY100" s="7"/>
+      <c r="AZ100" s="7"/>
+      <c r="BA100" s="7"/>
+      <c r="BB100" s="7"/>
+      <c r="BC100" s="7"/>
+      <c r="BD100" s="7"/>
+      <c r="BE100" s="7"/>
+      <c r="BF100" s="7"/>
+      <c r="BG100" s="7"/>
+      <c r="BH100" s="7"/>
+      <c r="BI100" s="7"/>
+      <c r="BJ100" s="7"/>
+      <c r="BK100" s="7"/>
+      <c r="BL100" s="7"/>
+      <c r="BM100" s="7"/>
+      <c r="BN100" s="7"/>
+      <c r="BO100" s="7"/>
+      <c r="BP100" s="7"/>
+      <c r="BQ100" s="7"/>
+      <c r="BR100" s="7"/>
+      <c r="BS100" s="7"/>
+      <c r="BT100" s="7"/>
+      <c r="BU100" s="7"/>
+      <c r="BV100" s="7"/>
+      <c r="BW100" s="7"/>
+      <c r="BX100" s="7"/>
+      <c r="BY100" s="7"/>
+      <c r="BZ100" s="7"/>
+      <c r="CA100" s="7"/>
+      <c r="CB100" s="7"/>
     </row>
     <row r="101" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2"/>
@@ -9007,175 +9052,175 @@
       <c r="CA102" s="7"/>
       <c r="CB102" s="7"/>
     </row>
-    <row r="103" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="7"/>
-      <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="7"/>
-      <c r="R103" s="7"/>
-      <c r="S103" s="7"/>
-      <c r="T103" s="7"/>
-      <c r="U103" s="7"/>
-      <c r="V103" s="7"/>
-      <c r="W103" s="7"/>
-      <c r="X103" s="7"/>
-      <c r="Y103" s="7"/>
-      <c r="Z103" s="7"/>
-      <c r="AA103" s="7"/>
-      <c r="AB103" s="7"/>
-      <c r="AC103" s="7"/>
-      <c r="AD103" s="7"/>
-      <c r="AE103" s="7"/>
-      <c r="AF103" s="7"/>
-      <c r="AG103" s="7"/>
-      <c r="AH103" s="7"/>
-      <c r="AI103" s="7"/>
-      <c r="AJ103" s="7"/>
-      <c r="AK103" s="7"/>
-      <c r="AL103" s="7"/>
-      <c r="AM103" s="7"/>
-      <c r="AN103" s="7"/>
-      <c r="AO103" s="7"/>
-      <c r="AP103" s="7"/>
-      <c r="AQ103" s="7"/>
-      <c r="AR103" s="7"/>
-      <c r="AS103" s="7"/>
-      <c r="AT103" s="7"/>
-      <c r="AU103" s="7"/>
-      <c r="AV103" s="7"/>
-      <c r="AW103" s="7"/>
-      <c r="AX103" s="7"/>
-      <c r="AY103" s="7"/>
-      <c r="AZ103" s="7"/>
-      <c r="BA103" s="7"/>
-      <c r="BB103" s="7"/>
-      <c r="BC103" s="7"/>
-      <c r="BD103" s="7"/>
-      <c r="BE103" s="7"/>
-      <c r="BF103" s="7"/>
-      <c r="BG103" s="7"/>
-      <c r="BH103" s="7"/>
-      <c r="BI103" s="7"/>
-      <c r="BJ103" s="7"/>
-      <c r="BK103" s="7"/>
-      <c r="BL103" s="7"/>
-      <c r="BM103" s="7"/>
-      <c r="BN103" s="7"/>
-      <c r="BO103" s="7"/>
-      <c r="BP103" s="7"/>
-      <c r="BQ103" s="7"/>
-      <c r="BR103" s="7"/>
-      <c r="BS103" s="7"/>
-      <c r="BT103" s="7"/>
-      <c r="BU103" s="7"/>
-      <c r="BV103" s="7"/>
-      <c r="BW103" s="7"/>
-      <c r="BX103" s="7"/>
-      <c r="BY103" s="7"/>
-      <c r="BZ103" s="7"/>
-      <c r="CA103" s="7"/>
-      <c r="CB103" s="7"/>
-    </row>
-    <row r="104" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-      <c r="M104" s="9"/>
-      <c r="N104" s="9"/>
-      <c r="O104" s="9"/>
-      <c r="P104" s="9"/>
-      <c r="Q104" s="9"/>
-      <c r="R104" s="9"/>
-      <c r="S104" s="9"/>
-      <c r="T104" s="9"/>
-      <c r="U104" s="9"/>
-      <c r="V104" s="9"/>
-      <c r="W104" s="9"/>
-      <c r="X104" s="9"/>
-      <c r="Y104" s="9"/>
-      <c r="Z104" s="9"/>
-      <c r="AA104" s="9"/>
-      <c r="AB104" s="9"/>
-      <c r="AC104" s="9"/>
-      <c r="AD104" s="9"/>
-      <c r="AE104" s="9"/>
-      <c r="AF104" s="9"/>
-      <c r="AG104" s="9"/>
-      <c r="AH104" s="9"/>
-      <c r="AI104" s="9"/>
-      <c r="AJ104" s="9"/>
-      <c r="AK104" s="9"/>
-      <c r="AL104" s="9"/>
-      <c r="AM104" s="9"/>
-      <c r="AN104" s="9"/>
-      <c r="AO104" s="9"/>
-      <c r="AP104" s="9"/>
-      <c r="AQ104" s="9"/>
-      <c r="AR104" s="9"/>
-      <c r="AS104" s="9"/>
-      <c r="AT104" s="9"/>
-      <c r="AU104" s="9"/>
-      <c r="AV104" s="9"/>
-      <c r="AW104" s="9"/>
-      <c r="AX104" s="9"/>
-      <c r="AY104" s="9"/>
-      <c r="AZ104" s="9"/>
-      <c r="BA104" s="9"/>
-      <c r="BB104" s="9"/>
-      <c r="BC104" s="9"/>
-      <c r="BD104" s="9"/>
-      <c r="BE104" s="9"/>
-      <c r="BF104" s="9"/>
-      <c r="BG104" s="9"/>
-      <c r="BH104" s="9"/>
-      <c r="BI104" s="9"/>
-      <c r="BJ104" s="9"/>
-      <c r="BK104" s="9"/>
-      <c r="BL104" s="9"/>
-      <c r="BM104" s="9"/>
-      <c r="BN104" s="9"/>
-      <c r="BO104" s="9"/>
-      <c r="BP104" s="9"/>
-      <c r="BQ104" s="9"/>
-      <c r="BR104" s="9"/>
-      <c r="BS104" s="9"/>
-      <c r="BT104" s="9"/>
-      <c r="BU104" s="9"/>
-      <c r="BV104" s="9"/>
-      <c r="BW104" s="9"/>
-      <c r="BX104" s="9"/>
-      <c r="BY104" s="9"/>
-      <c r="BZ104" s="9"/>
-      <c r="CA104" s="9"/>
-      <c r="CB104" s="9"/>
-    </row>
-    <row r="105" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="9"/>
+      <c r="V103" s="9"/>
+      <c r="W103" s="9"/>
+      <c r="X103" s="9"/>
+      <c r="Y103" s="9"/>
+      <c r="Z103" s="9"/>
+      <c r="AA103" s="9"/>
+      <c r="AB103" s="9"/>
+      <c r="AC103" s="9"/>
+      <c r="AD103" s="9"/>
+      <c r="AE103" s="9"/>
+      <c r="AF103" s="9"/>
+      <c r="AG103" s="9"/>
+      <c r="AH103" s="9"/>
+      <c r="AI103" s="9"/>
+      <c r="AJ103" s="9"/>
+      <c r="AK103" s="9"/>
+      <c r="AL103" s="9"/>
+      <c r="AM103" s="9"/>
+      <c r="AN103" s="9"/>
+      <c r="AO103" s="9"/>
+      <c r="AP103" s="9"/>
+      <c r="AQ103" s="9"/>
+      <c r="AR103" s="9"/>
+      <c r="AS103" s="9"/>
+      <c r="AT103" s="9"/>
+      <c r="AU103" s="9"/>
+      <c r="AV103" s="9"/>
+      <c r="AW103" s="9"/>
+      <c r="AX103" s="9"/>
+      <c r="AY103" s="9"/>
+      <c r="AZ103" s="9"/>
+      <c r="BA103" s="9"/>
+      <c r="BB103" s="9"/>
+      <c r="BC103" s="9"/>
+      <c r="BD103" s="9"/>
+      <c r="BE103" s="9"/>
+      <c r="BF103" s="9"/>
+      <c r="BG103" s="9"/>
+      <c r="BH103" s="9"/>
+      <c r="BI103" s="9"/>
+      <c r="BJ103" s="9"/>
+      <c r="BK103" s="9"/>
+      <c r="BL103" s="9"/>
+      <c r="BM103" s="9"/>
+      <c r="BN103" s="9"/>
+      <c r="BO103" s="9"/>
+      <c r="BP103" s="9"/>
+      <c r="BQ103" s="9"/>
+      <c r="BR103" s="9"/>
+      <c r="BS103" s="9"/>
+      <c r="BT103" s="9"/>
+      <c r="BU103" s="9"/>
+      <c r="BV103" s="9"/>
+      <c r="BW103" s="9"/>
+      <c r="BX103" s="9"/>
+      <c r="BY103" s="9"/>
+      <c r="BZ103" s="9"/>
+      <c r="CA103" s="9"/>
+      <c r="CB103" s="9"/>
+    </row>
+    <row r="104" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="7"/>
+      <c r="R104" s="7"/>
+      <c r="S104" s="7"/>
+      <c r="T104" s="7"/>
+      <c r="U104" s="7"/>
+      <c r="V104" s="7"/>
+      <c r="W104" s="7"/>
+      <c r="X104" s="7"/>
+      <c r="Y104" s="7"/>
+      <c r="Z104" s="7"/>
+      <c r="AA104" s="7"/>
+      <c r="AB104" s="7"/>
+      <c r="AC104" s="7"/>
+      <c r="AD104" s="7"/>
+      <c r="AE104" s="7"/>
+      <c r="AF104" s="7"/>
+      <c r="AG104" s="7"/>
+      <c r="AH104" s="7"/>
+      <c r="AI104" s="7"/>
+      <c r="AJ104" s="7"/>
+      <c r="AK104" s="7"/>
+      <c r="AL104" s="7"/>
+      <c r="AM104" s="7"/>
+      <c r="AN104" s="7"/>
+      <c r="AO104" s="7"/>
+      <c r="AP104" s="7"/>
+      <c r="AQ104" s="7"/>
+      <c r="AR104" s="7"/>
+      <c r="AS104" s="7"/>
+      <c r="AT104" s="7"/>
+      <c r="AU104" s="7"/>
+      <c r="AV104" s="7"/>
+      <c r="AW104" s="7"/>
+      <c r="AX104" s="7"/>
+      <c r="AY104" s="7"/>
+      <c r="AZ104" s="7"/>
+      <c r="BA104" s="7"/>
+      <c r="BB104" s="7"/>
+      <c r="BC104" s="7"/>
+      <c r="BD104" s="7"/>
+      <c r="BE104" s="7"/>
+      <c r="BF104" s="7"/>
+      <c r="BG104" s="7"/>
+      <c r="BH104" s="7"/>
+      <c r="BI104" s="7"/>
+      <c r="BJ104" s="7"/>
+      <c r="BK104" s="7"/>
+      <c r="BL104" s="7"/>
+      <c r="BM104" s="7"/>
+      <c r="BN104" s="7"/>
+      <c r="BO104" s="7"/>
+      <c r="BP104" s="7"/>
+      <c r="BQ104" s="7"/>
+      <c r="BR104" s="7"/>
+      <c r="BS104" s="7"/>
+      <c r="BT104" s="7"/>
+      <c r="BU104" s="7"/>
+      <c r="BV104" s="7"/>
+      <c r="BW104" s="7"/>
+      <c r="BX104" s="7"/>
+      <c r="BY104" s="7"/>
+      <c r="BZ104" s="7"/>
+      <c r="CA104" s="7"/>
+      <c r="CB104" s="7"/>
+    </row>
+    <row r="105" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
@@ -9253,7 +9298,7 @@
       <c r="CA105" s="7"/>
       <c r="CB105" s="7"/>
     </row>
-    <row r="106" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="3"/>
@@ -10483,251 +10528,251 @@
       <c r="CA120" s="7"/>
       <c r="CB120" s="7"/>
     </row>
-    <row r="121" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="7"/>
-      <c r="L121" s="7"/>
-      <c r="M121" s="7"/>
-      <c r="N121" s="7"/>
-      <c r="O121" s="7"/>
-      <c r="P121" s="7"/>
-      <c r="Q121" s="7"/>
-      <c r="R121" s="7"/>
-      <c r="S121" s="7"/>
-      <c r="T121" s="7"/>
-      <c r="U121" s="7"/>
-      <c r="V121" s="7"/>
-      <c r="W121" s="7"/>
-      <c r="X121" s="7"/>
-      <c r="Y121" s="7"/>
-      <c r="Z121" s="7"/>
-      <c r="AA121" s="7"/>
-      <c r="AB121" s="7"/>
-      <c r="AC121" s="7"/>
-      <c r="AD121" s="7"/>
-      <c r="AE121" s="7"/>
-      <c r="AF121" s="7"/>
-      <c r="AG121" s="7"/>
-      <c r="AH121" s="7"/>
-      <c r="AI121" s="7"/>
-      <c r="AJ121" s="7"/>
-      <c r="AK121" s="7"/>
-      <c r="AL121" s="7"/>
-      <c r="AM121" s="7"/>
-      <c r="AN121" s="7"/>
-      <c r="AO121" s="7"/>
-      <c r="AP121" s="7"/>
-      <c r="AQ121" s="7"/>
-      <c r="AR121" s="7"/>
-      <c r="AS121" s="7"/>
-      <c r="AT121" s="7"/>
-      <c r="AU121" s="7"/>
-      <c r="AV121" s="7"/>
-      <c r="AW121" s="7"/>
-      <c r="AX121" s="7"/>
-      <c r="AY121" s="7"/>
-      <c r="AZ121" s="7"/>
-      <c r="BA121" s="7"/>
-      <c r="BB121" s="7"/>
-      <c r="BC121" s="7"/>
-      <c r="BD121" s="7"/>
-      <c r="BE121" s="7"/>
-      <c r="BF121" s="7"/>
-      <c r="BG121" s="7"/>
-      <c r="BH121" s="7"/>
-      <c r="BI121" s="7"/>
-      <c r="BJ121" s="7"/>
-      <c r="BK121" s="7"/>
-      <c r="BL121" s="7"/>
-      <c r="BM121" s="7"/>
-      <c r="BN121" s="7"/>
-      <c r="BO121" s="7"/>
-      <c r="BP121" s="7"/>
-      <c r="BQ121" s="7"/>
-      <c r="BR121" s="7"/>
-      <c r="BS121" s="7"/>
-      <c r="BT121" s="7"/>
-      <c r="BU121" s="7"/>
-      <c r="BV121" s="7"/>
-      <c r="BW121" s="7"/>
-      <c r="BX121" s="7"/>
-      <c r="BY121" s="7"/>
-      <c r="BZ121" s="7"/>
-      <c r="CA121" s="7"/>
-      <c r="CB121" s="7"/>
-    </row>
-    <row r="122" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="5"/>
-      <c r="K122" s="5"/>
-      <c r="L122" s="5"/>
-      <c r="M122" s="5"/>
-      <c r="N122" s="5"/>
-      <c r="O122" s="5"/>
-      <c r="P122" s="5"/>
-      <c r="Q122" s="5"/>
-      <c r="R122" s="5"/>
-      <c r="S122" s="5"/>
-      <c r="T122" s="5"/>
-      <c r="U122" s="5"/>
-      <c r="V122" s="5"/>
-      <c r="W122" s="5"/>
-      <c r="X122" s="5"/>
-      <c r="Y122" s="5"/>
-      <c r="Z122" s="5"/>
-      <c r="AA122" s="5"/>
-      <c r="AB122" s="5"/>
-      <c r="AC122" s="5"/>
-      <c r="AD122" s="5"/>
-      <c r="AE122" s="5"/>
-      <c r="AF122" s="5"/>
-      <c r="AG122" s="5"/>
-      <c r="AH122" s="5"/>
-      <c r="AI122" s="5"/>
-      <c r="AJ122" s="5"/>
-      <c r="AK122" s="5"/>
-      <c r="AL122" s="5"/>
-      <c r="AM122" s="5"/>
-      <c r="AN122" s="5"/>
-      <c r="AO122" s="5"/>
-      <c r="AP122" s="5"/>
-      <c r="AQ122" s="5"/>
-      <c r="AR122" s="5"/>
-      <c r="AS122" s="5"/>
-      <c r="AT122" s="5"/>
-      <c r="AU122" s="5"/>
-      <c r="AV122" s="5"/>
-      <c r="AW122" s="5"/>
-      <c r="AX122" s="5"/>
-      <c r="AY122" s="5"/>
-      <c r="AZ122" s="5"/>
-      <c r="BA122" s="5"/>
-      <c r="BB122" s="5"/>
-      <c r="BC122" s="5"/>
-      <c r="BD122" s="5"/>
-      <c r="BE122" s="5"/>
-      <c r="BF122" s="5"/>
-      <c r="BG122" s="5"/>
-      <c r="BH122" s="5"/>
-      <c r="BI122" s="5"/>
-      <c r="BJ122" s="5"/>
-      <c r="BK122" s="5"/>
-      <c r="BL122" s="5"/>
-      <c r="BM122" s="5"/>
-      <c r="BN122" s="5"/>
-      <c r="BO122" s="5"/>
-      <c r="BP122" s="5"/>
-      <c r="BQ122" s="5"/>
-      <c r="BR122" s="5"/>
-      <c r="BS122" s="5"/>
-      <c r="BT122" s="5"/>
-      <c r="BU122" s="5"/>
-      <c r="BV122" s="5"/>
-      <c r="BW122" s="5"/>
-      <c r="BX122" s="5"/>
-      <c r="BY122" s="5"/>
-      <c r="BZ122" s="5"/>
-      <c r="CA122" s="5"/>
-      <c r="CB122" s="5"/>
+    <row r="121" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
+      <c r="O121" s="5"/>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
+      <c r="R121" s="5"/>
+      <c r="S121" s="5"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="5"/>
+      <c r="V121" s="5"/>
+      <c r="W121" s="5"/>
+      <c r="X121" s="5"/>
+      <c r="Y121" s="5"/>
+      <c r="Z121" s="5"/>
+      <c r="AA121" s="5"/>
+      <c r="AB121" s="5"/>
+      <c r="AC121" s="5"/>
+      <c r="AD121" s="5"/>
+      <c r="AE121" s="5"/>
+      <c r="AF121" s="5"/>
+      <c r="AG121" s="5"/>
+      <c r="AH121" s="5"/>
+      <c r="AI121" s="5"/>
+      <c r="AJ121" s="5"/>
+      <c r="AK121" s="5"/>
+      <c r="AL121" s="5"/>
+      <c r="AM121" s="5"/>
+      <c r="AN121" s="5"/>
+      <c r="AO121" s="5"/>
+      <c r="AP121" s="5"/>
+      <c r="AQ121" s="5"/>
+      <c r="AR121" s="5"/>
+      <c r="AS121" s="5"/>
+      <c r="AT121" s="5"/>
+      <c r="AU121" s="5"/>
+      <c r="AV121" s="5"/>
+      <c r="AW121" s="5"/>
+      <c r="AX121" s="5"/>
+      <c r="AY121" s="5"/>
+      <c r="AZ121" s="5"/>
+      <c r="BA121" s="5"/>
+      <c r="BB121" s="5"/>
+      <c r="BC121" s="5"/>
+      <c r="BD121" s="5"/>
+      <c r="BE121" s="5"/>
+      <c r="BF121" s="5"/>
+      <c r="BG121" s="5"/>
+      <c r="BH121" s="5"/>
+      <c r="BI121" s="5"/>
+      <c r="BJ121" s="5"/>
+      <c r="BK121" s="5"/>
+      <c r="BL121" s="5"/>
+      <c r="BM121" s="5"/>
+      <c r="BN121" s="5"/>
+      <c r="BO121" s="5"/>
+      <c r="BP121" s="5"/>
+      <c r="BQ121" s="5"/>
+      <c r="BR121" s="5"/>
+      <c r="BS121" s="5"/>
+      <c r="BT121" s="5"/>
+      <c r="BU121" s="5"/>
+      <c r="BV121" s="5"/>
+      <c r="BW121" s="5"/>
+      <c r="BX121" s="5"/>
+      <c r="BY121" s="5"/>
+      <c r="BZ121" s="5"/>
+      <c r="CA121" s="5"/>
+      <c r="CB121" s="5"/>
+    </row>
+    <row r="122" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3"/>
+      <c r="S122" s="3"/>
+      <c r="T122" s="3"/>
+      <c r="U122" s="3"/>
+      <c r="V122" s="3"/>
+      <c r="W122" s="3"/>
+      <c r="X122" s="3"/>
+      <c r="Y122" s="3"/>
+      <c r="Z122" s="3"/>
+      <c r="AA122" s="3"/>
+      <c r="AB122" s="3"/>
+      <c r="AC122" s="3"/>
+      <c r="AD122" s="3"/>
+      <c r="AE122" s="3"/>
+      <c r="AF122" s="3"/>
+      <c r="AG122" s="3"/>
+      <c r="AH122" s="3"/>
+      <c r="AI122" s="3"/>
+      <c r="AJ122" s="3"/>
+      <c r="AK122" s="3"/>
+      <c r="AL122" s="3"/>
+      <c r="AM122" s="3"/>
+      <c r="AN122" s="3"/>
+      <c r="AO122" s="3"/>
+      <c r="AP122" s="3"/>
+      <c r="AQ122" s="3"/>
+      <c r="AR122" s="3"/>
+      <c r="AS122" s="3"/>
+      <c r="AT122" s="3"/>
+      <c r="AU122" s="3"/>
+      <c r="AV122" s="3"/>
+      <c r="AW122" s="3"/>
+      <c r="AX122" s="3"/>
+      <c r="AY122" s="3"/>
+      <c r="AZ122" s="3"/>
+      <c r="BA122" s="3"/>
+      <c r="BB122" s="3"/>
+      <c r="BC122" s="3"/>
+      <c r="BD122" s="3"/>
+      <c r="BE122" s="3"/>
+      <c r="BF122" s="3"/>
+      <c r="BG122" s="3"/>
+      <c r="BH122" s="3"/>
+      <c r="BI122" s="3"/>
+      <c r="BJ122" s="3"/>
+      <c r="BK122" s="3"/>
+      <c r="BL122" s="3"/>
+      <c r="BM122" s="3"/>
+      <c r="BN122" s="3"/>
+      <c r="BO122" s="3"/>
+      <c r="BP122" s="3"/>
+      <c r="BQ122" s="3"/>
+      <c r="BR122" s="3"/>
+      <c r="BS122" s="3"/>
+      <c r="BT122" s="3"/>
+      <c r="BU122" s="3"/>
+      <c r="BV122" s="3"/>
+      <c r="BW122" s="3"/>
+      <c r="BX122" s="3"/>
+      <c r="BY122" s="3"/>
+      <c r="BZ122" s="3"/>
+      <c r="CA122" s="3"/>
+      <c r="CB122" s="3"/>
     </row>
     <row r="123" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
-      <c r="K123" s="3"/>
-      <c r="L123" s="3"/>
-      <c r="M123" s="3"/>
-      <c r="N123" s="3"/>
-      <c r="O123" s="3"/>
-      <c r="P123" s="3"/>
-      <c r="Q123" s="3"/>
-      <c r="R123" s="3"/>
-      <c r="S123" s="3"/>
-      <c r="T123" s="3"/>
-      <c r="U123" s="3"/>
-      <c r="V123" s="3"/>
-      <c r="W123" s="3"/>
-      <c r="X123" s="3"/>
-      <c r="Y123" s="3"/>
-      <c r="Z123" s="3"/>
-      <c r="AA123" s="3"/>
-      <c r="AB123" s="3"/>
-      <c r="AC123" s="3"/>
-      <c r="AD123" s="3"/>
-      <c r="AE123" s="3"/>
-      <c r="AF123" s="3"/>
-      <c r="AG123" s="3"/>
-      <c r="AH123" s="3"/>
-      <c r="AI123" s="3"/>
-      <c r="AJ123" s="3"/>
-      <c r="AK123" s="3"/>
-      <c r="AL123" s="3"/>
-      <c r="AM123" s="3"/>
-      <c r="AN123" s="3"/>
-      <c r="AO123" s="3"/>
-      <c r="AP123" s="3"/>
-      <c r="AQ123" s="3"/>
-      <c r="AR123" s="3"/>
-      <c r="AS123" s="3"/>
-      <c r="AT123" s="3"/>
-      <c r="AU123" s="3"/>
-      <c r="AV123" s="3"/>
-      <c r="AW123" s="3"/>
-      <c r="AX123" s="3"/>
-      <c r="AY123" s="3"/>
-      <c r="AZ123" s="3"/>
-      <c r="BA123" s="3"/>
-      <c r="BB123" s="3"/>
-      <c r="BC123" s="3"/>
-      <c r="BD123" s="3"/>
-      <c r="BE123" s="3"/>
-      <c r="BF123" s="3"/>
-      <c r="BG123" s="3"/>
-      <c r="BH123" s="3"/>
-      <c r="BI123" s="3"/>
-      <c r="BJ123" s="3"/>
-      <c r="BK123" s="3"/>
-      <c r="BL123" s="3"/>
-      <c r="BM123" s="3"/>
-      <c r="BN123" s="3"/>
-      <c r="BO123" s="3"/>
-      <c r="BP123" s="3"/>
-      <c r="BQ123" s="3"/>
-      <c r="BR123" s="3"/>
-      <c r="BS123" s="3"/>
-      <c r="BT123" s="3"/>
-      <c r="BU123" s="3"/>
-      <c r="BV123" s="3"/>
-      <c r="BW123" s="3"/>
-      <c r="BX123" s="3"/>
-      <c r="BY123" s="3"/>
-      <c r="BZ123" s="3"/>
-      <c r="CA123" s="3"/>
-      <c r="CB123" s="3"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+      <c r="M123" s="7"/>
+      <c r="N123" s="7"/>
+      <c r="O123" s="7"/>
+      <c r="P123" s="7"/>
+      <c r="Q123" s="7"/>
+      <c r="R123" s="7"/>
+      <c r="S123" s="7"/>
+      <c r="T123" s="7"/>
+      <c r="U123" s="7"/>
+      <c r="V123" s="7"/>
+      <c r="W123" s="7"/>
+      <c r="X123" s="7"/>
+      <c r="Y123" s="7"/>
+      <c r="Z123" s="7"/>
+      <c r="AA123" s="7"/>
+      <c r="AB123" s="7"/>
+      <c r="AC123" s="7"/>
+      <c r="AD123" s="7"/>
+      <c r="AE123" s="7"/>
+      <c r="AF123" s="7"/>
+      <c r="AG123" s="7"/>
+      <c r="AH123" s="7"/>
+      <c r="AI123" s="7"/>
+      <c r="AJ123" s="7"/>
+      <c r="AK123" s="7"/>
+      <c r="AL123" s="7"/>
+      <c r="AM123" s="7"/>
+      <c r="AN123" s="7"/>
+      <c r="AO123" s="7"/>
+      <c r="AP123" s="7"/>
+      <c r="AQ123" s="7"/>
+      <c r="AR123" s="7"/>
+      <c r="AS123" s="7"/>
+      <c r="AT123" s="7"/>
+      <c r="AU123" s="7"/>
+      <c r="AV123" s="7"/>
+      <c r="AW123" s="7"/>
+      <c r="AX123" s="7"/>
+      <c r="AY123" s="7"/>
+      <c r="AZ123" s="7"/>
+      <c r="BA123" s="7"/>
+      <c r="BB123" s="7"/>
+      <c r="BC123" s="7"/>
+      <c r="BD123" s="7"/>
+      <c r="BE123" s="7"/>
+      <c r="BF123" s="7"/>
+      <c r="BG123" s="7"/>
+      <c r="BH123" s="7"/>
+      <c r="BI123" s="7"/>
+      <c r="BJ123" s="7"/>
+      <c r="BK123" s="7"/>
+      <c r="BL123" s="7"/>
+      <c r="BM123" s="7"/>
+      <c r="BN123" s="7"/>
+      <c r="BO123" s="7"/>
+      <c r="BP123" s="7"/>
+      <c r="BQ123" s="7"/>
+      <c r="BR123" s="7"/>
+      <c r="BS123" s="7"/>
+      <c r="BT123" s="7"/>
+      <c r="BU123" s="7"/>
+      <c r="BV123" s="7"/>
+      <c r="BW123" s="7"/>
+      <c r="BX123" s="7"/>
+      <c r="BY123" s="7"/>
+      <c r="BZ123" s="7"/>
+      <c r="CA123" s="7"/>
+      <c r="CB123" s="7"/>
     </row>
     <row r="124" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="2"/>
@@ -10893,171 +10938,171 @@
       <c r="CA125" s="7"/>
       <c r="CB125" s="7"/>
     </row>
-    <row r="126" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-      <c r="I126" s="7"/>
-      <c r="J126" s="7"/>
-      <c r="K126" s="7"/>
-      <c r="L126" s="7"/>
-      <c r="M126" s="7"/>
-      <c r="N126" s="7"/>
-      <c r="O126" s="7"/>
-      <c r="P126" s="7"/>
-      <c r="Q126" s="7"/>
-      <c r="R126" s="7"/>
-      <c r="S126" s="7"/>
-      <c r="T126" s="7"/>
-      <c r="U126" s="7"/>
-      <c r="V126" s="7"/>
-      <c r="W126" s="7"/>
-      <c r="X126" s="7"/>
-      <c r="Y126" s="7"/>
-      <c r="Z126" s="7"/>
-      <c r="AA126" s="7"/>
-      <c r="AB126" s="7"/>
-      <c r="AC126" s="7"/>
-      <c r="AD126" s="7"/>
-      <c r="AE126" s="7"/>
-      <c r="AF126" s="7"/>
-      <c r="AG126" s="7"/>
-      <c r="AH126" s="7"/>
-      <c r="AI126" s="7"/>
-      <c r="AJ126" s="7"/>
-      <c r="AK126" s="7"/>
-      <c r="AL126" s="7"/>
-      <c r="AM126" s="7"/>
-      <c r="AN126" s="7"/>
-      <c r="AO126" s="7"/>
-      <c r="AP126" s="7"/>
-      <c r="AQ126" s="7"/>
-      <c r="AR126" s="7"/>
-      <c r="AS126" s="7"/>
-      <c r="AT126" s="7"/>
-      <c r="AU126" s="7"/>
-      <c r="AV126" s="7"/>
-      <c r="AW126" s="7"/>
-      <c r="AX126" s="7"/>
-      <c r="AY126" s="7"/>
-      <c r="AZ126" s="7"/>
-      <c r="BA126" s="7"/>
-      <c r="BB126" s="7"/>
-      <c r="BC126" s="7"/>
-      <c r="BD126" s="7"/>
-      <c r="BE126" s="7"/>
-      <c r="BF126" s="7"/>
-      <c r="BG126" s="7"/>
-      <c r="BH126" s="7"/>
-      <c r="BI126" s="7"/>
-      <c r="BJ126" s="7"/>
-      <c r="BK126" s="7"/>
-      <c r="BL126" s="7"/>
-      <c r="BM126" s="7"/>
-      <c r="BN126" s="7"/>
-      <c r="BO126" s="7"/>
-      <c r="BP126" s="7"/>
-      <c r="BQ126" s="7"/>
-      <c r="BR126" s="7"/>
-      <c r="BS126" s="7"/>
-      <c r="BT126" s="7"/>
-      <c r="BU126" s="7"/>
-      <c r="BV126" s="7"/>
-      <c r="BW126" s="7"/>
-      <c r="BX126" s="7"/>
-      <c r="BY126" s="7"/>
-      <c r="BZ126" s="7"/>
-      <c r="CA126" s="7"/>
-      <c r="CB126" s="7"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3"/>
+      <c r="S126" s="3"/>
+      <c r="T126" s="3"/>
+      <c r="U126" s="3"/>
+      <c r="V126" s="3"/>
+      <c r="W126" s="3"/>
+      <c r="X126" s="3"/>
+      <c r="Y126" s="3"/>
+      <c r="Z126" s="3"/>
+      <c r="AA126" s="3"/>
+      <c r="AB126" s="3"/>
+      <c r="AC126" s="3"/>
+      <c r="AD126" s="3"/>
+      <c r="AE126" s="3"/>
+      <c r="AF126" s="3"/>
+      <c r="AG126" s="3"/>
+      <c r="AH126" s="3"/>
+      <c r="AI126" s="3"/>
+      <c r="AJ126" s="3"/>
+      <c r="AK126" s="3"/>
+      <c r="AL126" s="3"/>
+      <c r="AM126" s="3"/>
+      <c r="AN126" s="3"/>
+      <c r="AO126" s="3"/>
+      <c r="AP126" s="3"/>
+      <c r="AQ126" s="3"/>
+      <c r="AR126" s="3"/>
+      <c r="AS126" s="3"/>
+      <c r="AT126" s="3"/>
+      <c r="AU126" s="3"/>
+      <c r="AV126" s="3"/>
+      <c r="AW126" s="3"/>
+      <c r="AX126" s="3"/>
+      <c r="AY126" s="3"/>
+      <c r="AZ126" s="3"/>
+      <c r="BA126" s="3"/>
+      <c r="BB126" s="3"/>
+      <c r="BC126" s="3"/>
+      <c r="BD126" s="3"/>
+      <c r="BE126" s="3"/>
+      <c r="BF126" s="3"/>
+      <c r="BG126" s="3"/>
+      <c r="BH126" s="3"/>
+      <c r="BI126" s="3"/>
+      <c r="BJ126" s="3"/>
+      <c r="BK126" s="3"/>
+      <c r="BL126" s="3"/>
+      <c r="BM126" s="3"/>
+      <c r="BN126" s="3"/>
+      <c r="BO126" s="3"/>
+      <c r="BP126" s="3"/>
+      <c r="BQ126" s="3"/>
+      <c r="BR126" s="3"/>
+      <c r="BS126" s="3"/>
+      <c r="BT126" s="3"/>
+      <c r="BU126" s="3"/>
+      <c r="BV126" s="3"/>
+      <c r="BW126" s="3"/>
+      <c r="BX126" s="3"/>
+      <c r="BY126" s="3"/>
+      <c r="BZ126" s="3"/>
+      <c r="CA126" s="3"/>
+      <c r="CB126" s="3"/>
     </row>
     <row r="127" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
-      <c r="L127" s="3"/>
-      <c r="M127" s="3"/>
-      <c r="N127" s="3"/>
-      <c r="O127" s="3"/>
-      <c r="P127" s="3"/>
-      <c r="Q127" s="3"/>
-      <c r="R127" s="3"/>
-      <c r="S127" s="3"/>
-      <c r="T127" s="3"/>
-      <c r="U127" s="3"/>
-      <c r="V127" s="3"/>
-      <c r="W127" s="3"/>
-      <c r="X127" s="3"/>
-      <c r="Y127" s="3"/>
-      <c r="Z127" s="3"/>
-      <c r="AA127" s="3"/>
-      <c r="AB127" s="3"/>
-      <c r="AC127" s="3"/>
-      <c r="AD127" s="3"/>
-      <c r="AE127" s="3"/>
-      <c r="AF127" s="3"/>
-      <c r="AG127" s="3"/>
-      <c r="AH127" s="3"/>
-      <c r="AI127" s="3"/>
-      <c r="AJ127" s="3"/>
-      <c r="AK127" s="3"/>
-      <c r="AL127" s="3"/>
-      <c r="AM127" s="3"/>
-      <c r="AN127" s="3"/>
-      <c r="AO127" s="3"/>
-      <c r="AP127" s="3"/>
-      <c r="AQ127" s="3"/>
-      <c r="AR127" s="3"/>
-      <c r="AS127" s="3"/>
-      <c r="AT127" s="3"/>
-      <c r="AU127" s="3"/>
-      <c r="AV127" s="3"/>
-      <c r="AW127" s="3"/>
-      <c r="AX127" s="3"/>
-      <c r="AY127" s="3"/>
-      <c r="AZ127" s="3"/>
-      <c r="BA127" s="3"/>
-      <c r="BB127" s="3"/>
-      <c r="BC127" s="3"/>
-      <c r="BD127" s="3"/>
-      <c r="BE127" s="3"/>
-      <c r="BF127" s="3"/>
-      <c r="BG127" s="3"/>
-      <c r="BH127" s="3"/>
-      <c r="BI127" s="3"/>
-      <c r="BJ127" s="3"/>
-      <c r="BK127" s="3"/>
-      <c r="BL127" s="3"/>
-      <c r="BM127" s="3"/>
-      <c r="BN127" s="3"/>
-      <c r="BO127" s="3"/>
-      <c r="BP127" s="3"/>
-      <c r="BQ127" s="3"/>
-      <c r="BR127" s="3"/>
-      <c r="BS127" s="3"/>
-      <c r="BT127" s="3"/>
-      <c r="BU127" s="3"/>
-      <c r="BV127" s="3"/>
-      <c r="BW127" s="3"/>
-      <c r="BX127" s="3"/>
-      <c r="BY127" s="3"/>
-      <c r="BZ127" s="3"/>
-      <c r="CA127" s="3"/>
-      <c r="CB127" s="3"/>
-    </row>
-    <row r="128" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="7"/>
+      <c r="M127" s="7"/>
+      <c r="N127" s="7"/>
+      <c r="O127" s="7"/>
+      <c r="P127" s="7"/>
+      <c r="Q127" s="7"/>
+      <c r="R127" s="7"/>
+      <c r="S127" s="7"/>
+      <c r="T127" s="7"/>
+      <c r="U127" s="7"/>
+      <c r="V127" s="7"/>
+      <c r="W127" s="7"/>
+      <c r="X127" s="7"/>
+      <c r="Y127" s="7"/>
+      <c r="Z127" s="7"/>
+      <c r="AA127" s="7"/>
+      <c r="AB127" s="7"/>
+      <c r="AC127" s="7"/>
+      <c r="AD127" s="7"/>
+      <c r="AE127" s="7"/>
+      <c r="AF127" s="7"/>
+      <c r="AG127" s="7"/>
+      <c r="AH127" s="7"/>
+      <c r="AI127" s="7"/>
+      <c r="AJ127" s="7"/>
+      <c r="AK127" s="7"/>
+      <c r="AL127" s="7"/>
+      <c r="AM127" s="7"/>
+      <c r="AN127" s="7"/>
+      <c r="AO127" s="7"/>
+      <c r="AP127" s="7"/>
+      <c r="AQ127" s="7"/>
+      <c r="AR127" s="7"/>
+      <c r="AS127" s="7"/>
+      <c r="AT127" s="7"/>
+      <c r="AU127" s="7"/>
+      <c r="AV127" s="7"/>
+      <c r="AW127" s="7"/>
+      <c r="AX127" s="7"/>
+      <c r="AY127" s="7"/>
+      <c r="AZ127" s="7"/>
+      <c r="BA127" s="7"/>
+      <c r="BB127" s="7"/>
+      <c r="BC127" s="7"/>
+      <c r="BD127" s="7"/>
+      <c r="BE127" s="7"/>
+      <c r="BF127" s="7"/>
+      <c r="BG127" s="7"/>
+      <c r="BH127" s="7"/>
+      <c r="BI127" s="7"/>
+      <c r="BJ127" s="7"/>
+      <c r="BK127" s="7"/>
+      <c r="BL127" s="7"/>
+      <c r="BM127" s="7"/>
+      <c r="BN127" s="7"/>
+      <c r="BO127" s="7"/>
+      <c r="BP127" s="7"/>
+      <c r="BQ127" s="7"/>
+      <c r="BR127" s="7"/>
+      <c r="BS127" s="7"/>
+      <c r="BT127" s="7"/>
+      <c r="BU127" s="7"/>
+      <c r="BV127" s="7"/>
+      <c r="BW127" s="7"/>
+      <c r="BX127" s="7"/>
+      <c r="BY127" s="7"/>
+      <c r="BZ127" s="7"/>
+      <c r="CA127" s="7"/>
+      <c r="CB127" s="7"/>
+    </row>
+    <row r="128" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="7"/>
@@ -13681,171 +13726,171 @@
       <c r="CA159" s="7"/>
       <c r="CB159" s="7"/>
     </row>
-    <row r="160" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
-      <c r="G160" s="7"/>
-      <c r="H160" s="7"/>
-      <c r="I160" s="7"/>
-      <c r="J160" s="7"/>
-      <c r="K160" s="7"/>
-      <c r="L160" s="7"/>
-      <c r="M160" s="7"/>
-      <c r="N160" s="7"/>
-      <c r="O160" s="7"/>
-      <c r="P160" s="7"/>
-      <c r="Q160" s="7"/>
-      <c r="R160" s="7"/>
-      <c r="S160" s="7"/>
-      <c r="T160" s="7"/>
-      <c r="U160" s="7"/>
-      <c r="V160" s="7"/>
-      <c r="W160" s="7"/>
-      <c r="X160" s="7"/>
-      <c r="Y160" s="7"/>
-      <c r="Z160" s="7"/>
-      <c r="AA160" s="7"/>
-      <c r="AB160" s="7"/>
-      <c r="AC160" s="7"/>
-      <c r="AD160" s="7"/>
-      <c r="AE160" s="7"/>
-      <c r="AF160" s="7"/>
-      <c r="AG160" s="7"/>
-      <c r="AH160" s="7"/>
-      <c r="AI160" s="7"/>
-      <c r="AJ160" s="7"/>
-      <c r="AK160" s="7"/>
-      <c r="AL160" s="7"/>
-      <c r="AM160" s="7"/>
-      <c r="AN160" s="7"/>
-      <c r="AO160" s="7"/>
-      <c r="AP160" s="7"/>
-      <c r="AQ160" s="7"/>
-      <c r="AR160" s="7"/>
-      <c r="AS160" s="7"/>
-      <c r="AT160" s="7"/>
-      <c r="AU160" s="7"/>
-      <c r="AV160" s="7"/>
-      <c r="AW160" s="7"/>
-      <c r="AX160" s="7"/>
-      <c r="AY160" s="7"/>
-      <c r="AZ160" s="7"/>
-      <c r="BA160" s="7"/>
-      <c r="BB160" s="7"/>
-      <c r="BC160" s="7"/>
-      <c r="BD160" s="7"/>
-      <c r="BE160" s="7"/>
-      <c r="BF160" s="7"/>
-      <c r="BG160" s="7"/>
-      <c r="BH160" s="7"/>
-      <c r="BI160" s="7"/>
-      <c r="BJ160" s="7"/>
-      <c r="BK160" s="7"/>
-      <c r="BL160" s="7"/>
-      <c r="BM160" s="7"/>
-      <c r="BN160" s="7"/>
-      <c r="BO160" s="7"/>
-      <c r="BP160" s="7"/>
-      <c r="BQ160" s="7"/>
-      <c r="BR160" s="7"/>
-      <c r="BS160" s="7"/>
-      <c r="BT160" s="7"/>
-      <c r="BU160" s="7"/>
-      <c r="BV160" s="7"/>
-      <c r="BW160" s="7"/>
-      <c r="BX160" s="7"/>
-      <c r="BY160" s="7"/>
-      <c r="BZ160" s="7"/>
-      <c r="CA160" s="7"/>
-      <c r="CB160" s="7"/>
-    </row>
-    <row r="161" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="4"/>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
-      <c r="I161" s="5"/>
-      <c r="J161" s="5"/>
-      <c r="K161" s="5"/>
-      <c r="L161" s="5"/>
-      <c r="M161" s="5"/>
-      <c r="N161" s="5"/>
-      <c r="O161" s="5"/>
-      <c r="P161" s="5"/>
-      <c r="Q161" s="5"/>
-      <c r="R161" s="5"/>
-      <c r="S161" s="5"/>
-      <c r="T161" s="5"/>
-      <c r="U161" s="5"/>
-      <c r="V161" s="5"/>
-      <c r="W161" s="5"/>
-      <c r="X161" s="5"/>
-      <c r="Y161" s="5"/>
-      <c r="Z161" s="5"/>
-      <c r="AA161" s="5"/>
-      <c r="AB161" s="5"/>
-      <c r="AC161" s="5"/>
-      <c r="AD161" s="5"/>
-      <c r="AE161" s="5"/>
-      <c r="AF161" s="5"/>
-      <c r="AG161" s="5"/>
-      <c r="AH161" s="5"/>
-      <c r="AI161" s="5"/>
-      <c r="AJ161" s="5"/>
-      <c r="AK161" s="5"/>
-      <c r="AL161" s="5"/>
-      <c r="AM161" s="5"/>
-      <c r="AN161" s="5"/>
-      <c r="AO161" s="5"/>
-      <c r="AP161" s="5"/>
-      <c r="AQ161" s="5"/>
-      <c r="AR161" s="5"/>
-      <c r="AS161" s="5"/>
-      <c r="AT161" s="5"/>
-      <c r="AU161" s="5"/>
-      <c r="AV161" s="5"/>
-      <c r="AW161" s="5"/>
-      <c r="AX161" s="5"/>
-      <c r="AY161" s="5"/>
-      <c r="AZ161" s="5"/>
-      <c r="BA161" s="5"/>
-      <c r="BB161" s="5"/>
-      <c r="BC161" s="5"/>
-      <c r="BD161" s="5"/>
-      <c r="BE161" s="5"/>
-      <c r="BF161" s="5"/>
-      <c r="BG161" s="5"/>
-      <c r="BH161" s="5"/>
-      <c r="BI161" s="5"/>
-      <c r="BJ161" s="5"/>
-      <c r="BK161" s="5"/>
-      <c r="BL161" s="5"/>
-      <c r="BM161" s="5"/>
-      <c r="BN161" s="5"/>
-      <c r="BO161" s="5"/>
-      <c r="BP161" s="5"/>
-      <c r="BQ161" s="5"/>
-      <c r="BR161" s="5"/>
-      <c r="BS161" s="5"/>
-      <c r="BT161" s="5"/>
-      <c r="BU161" s="5"/>
-      <c r="BV161" s="5"/>
-      <c r="BW161" s="5"/>
-      <c r="BX161" s="5"/>
-      <c r="BY161" s="5"/>
-      <c r="BZ161" s="5"/>
-      <c r="CA161" s="5"/>
-      <c r="CB161" s="5"/>
-    </row>
-    <row r="162" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="4"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="5"/>
+      <c r="M160" s="5"/>
+      <c r="N160" s="5"/>
+      <c r="O160" s="5"/>
+      <c r="P160" s="5"/>
+      <c r="Q160" s="5"/>
+      <c r="R160" s="5"/>
+      <c r="S160" s="5"/>
+      <c r="T160" s="5"/>
+      <c r="U160" s="5"/>
+      <c r="V160" s="5"/>
+      <c r="W160" s="5"/>
+      <c r="X160" s="5"/>
+      <c r="Y160" s="5"/>
+      <c r="Z160" s="5"/>
+      <c r="AA160" s="5"/>
+      <c r="AB160" s="5"/>
+      <c r="AC160" s="5"/>
+      <c r="AD160" s="5"/>
+      <c r="AE160" s="5"/>
+      <c r="AF160" s="5"/>
+      <c r="AG160" s="5"/>
+      <c r="AH160" s="5"/>
+      <c r="AI160" s="5"/>
+      <c r="AJ160" s="5"/>
+      <c r="AK160" s="5"/>
+      <c r="AL160" s="5"/>
+      <c r="AM160" s="5"/>
+      <c r="AN160" s="5"/>
+      <c r="AO160" s="5"/>
+      <c r="AP160" s="5"/>
+      <c r="AQ160" s="5"/>
+      <c r="AR160" s="5"/>
+      <c r="AS160" s="5"/>
+      <c r="AT160" s="5"/>
+      <c r="AU160" s="5"/>
+      <c r="AV160" s="5"/>
+      <c r="AW160" s="5"/>
+      <c r="AX160" s="5"/>
+      <c r="AY160" s="5"/>
+      <c r="AZ160" s="5"/>
+      <c r="BA160" s="5"/>
+      <c r="BB160" s="5"/>
+      <c r="BC160" s="5"/>
+      <c r="BD160" s="5"/>
+      <c r="BE160" s="5"/>
+      <c r="BF160" s="5"/>
+      <c r="BG160" s="5"/>
+      <c r="BH160" s="5"/>
+      <c r="BI160" s="5"/>
+      <c r="BJ160" s="5"/>
+      <c r="BK160" s="5"/>
+      <c r="BL160" s="5"/>
+      <c r="BM160" s="5"/>
+      <c r="BN160" s="5"/>
+      <c r="BO160" s="5"/>
+      <c r="BP160" s="5"/>
+      <c r="BQ160" s="5"/>
+      <c r="BR160" s="5"/>
+      <c r="BS160" s="5"/>
+      <c r="BT160" s="5"/>
+      <c r="BU160" s="5"/>
+      <c r="BV160" s="5"/>
+      <c r="BW160" s="5"/>
+      <c r="BX160" s="5"/>
+      <c r="BY160" s="5"/>
+      <c r="BZ160" s="5"/>
+      <c r="CA160" s="5"/>
+      <c r="CB160" s="5"/>
+    </row>
+    <row r="161" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7"/>
+      <c r="J161" s="7"/>
+      <c r="K161" s="7"/>
+      <c r="L161" s="7"/>
+      <c r="M161" s="7"/>
+      <c r="N161" s="7"/>
+      <c r="O161" s="7"/>
+      <c r="P161" s="7"/>
+      <c r="Q161" s="7"/>
+      <c r="R161" s="7"/>
+      <c r="S161" s="7"/>
+      <c r="T161" s="7"/>
+      <c r="U161" s="7"/>
+      <c r="V161" s="7"/>
+      <c r="W161" s="7"/>
+      <c r="X161" s="7"/>
+      <c r="Y161" s="7"/>
+      <c r="Z161" s="7"/>
+      <c r="AA161" s="7"/>
+      <c r="AB161" s="7"/>
+      <c r="AC161" s="7"/>
+      <c r="AD161" s="7"/>
+      <c r="AE161" s="7"/>
+      <c r="AF161" s="7"/>
+      <c r="AG161" s="7"/>
+      <c r="AH161" s="7"/>
+      <c r="AI161" s="7"/>
+      <c r="AJ161" s="7"/>
+      <c r="AK161" s="7"/>
+      <c r="AL161" s="7"/>
+      <c r="AM161" s="7"/>
+      <c r="AN161" s="7"/>
+      <c r="AO161" s="7"/>
+      <c r="AP161" s="7"/>
+      <c r="AQ161" s="7"/>
+      <c r="AR161" s="7"/>
+      <c r="AS161" s="7"/>
+      <c r="AT161" s="7"/>
+      <c r="AU161" s="7"/>
+      <c r="AV161" s="7"/>
+      <c r="AW161" s="7"/>
+      <c r="AX161" s="7"/>
+      <c r="AY161" s="7"/>
+      <c r="AZ161" s="7"/>
+      <c r="BA161" s="7"/>
+      <c r="BB161" s="7"/>
+      <c r="BC161" s="7"/>
+      <c r="BD161" s="7"/>
+      <c r="BE161" s="7"/>
+      <c r="BF161" s="7"/>
+      <c r="BG161" s="7"/>
+      <c r="BH161" s="7"/>
+      <c r="BI161" s="7"/>
+      <c r="BJ161" s="7"/>
+      <c r="BK161" s="7"/>
+      <c r="BL161" s="7"/>
+      <c r="BM161" s="7"/>
+      <c r="BN161" s="7"/>
+      <c r="BO161" s="7"/>
+      <c r="BP161" s="7"/>
+      <c r="BQ161" s="7"/>
+      <c r="BR161" s="7"/>
+      <c r="BS161" s="7"/>
+      <c r="BT161" s="7"/>
+      <c r="BU161" s="7"/>
+      <c r="BV161" s="7"/>
+      <c r="BW161" s="7"/>
+      <c r="BX161" s="7"/>
+      <c r="BY161" s="7"/>
+      <c r="BZ161" s="7"/>
+      <c r="CA161" s="7"/>
+      <c r="CB161" s="7"/>
+    </row>
+    <row r="162" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="7"/>
@@ -14009,7 +14054,7 @@
       <c r="CA163" s="7"/>
       <c r="CB163" s="7"/>
     </row>
-    <row r="164" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="7"/>
@@ -14255,169 +14300,169 @@
       <c r="CA166" s="7"/>
       <c r="CB166" s="7"/>
     </row>
-    <row r="167" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="7"/>
-      <c r="I167" s="7"/>
-      <c r="J167" s="7"/>
-      <c r="K167" s="7"/>
-      <c r="L167" s="7"/>
-      <c r="M167" s="7"/>
-      <c r="N167" s="7"/>
-      <c r="O167" s="7"/>
-      <c r="P167" s="7"/>
-      <c r="Q167" s="7"/>
-      <c r="R167" s="7"/>
-      <c r="S167" s="7"/>
-      <c r="T167" s="7"/>
-      <c r="U167" s="7"/>
-      <c r="V167" s="7"/>
-      <c r="W167" s="7"/>
-      <c r="X167" s="7"/>
-      <c r="Y167" s="7"/>
-      <c r="Z167" s="7"/>
-      <c r="AA167" s="7"/>
-      <c r="AB167" s="7"/>
-      <c r="AC167" s="7"/>
-      <c r="AD167" s="7"/>
-      <c r="AE167" s="7"/>
-      <c r="AF167" s="7"/>
-      <c r="AG167" s="7"/>
-      <c r="AH167" s="7"/>
-      <c r="AI167" s="7"/>
-      <c r="AJ167" s="7"/>
-      <c r="AK167" s="7"/>
-      <c r="AL167" s="7"/>
-      <c r="AM167" s="7"/>
-      <c r="AN167" s="7"/>
-      <c r="AO167" s="7"/>
-      <c r="AP167" s="7"/>
-      <c r="AQ167" s="7"/>
-      <c r="AR167" s="7"/>
-      <c r="AS167" s="7"/>
-      <c r="AT167" s="7"/>
-      <c r="AU167" s="7"/>
-      <c r="AV167" s="7"/>
-      <c r="AW167" s="7"/>
-      <c r="AX167" s="7"/>
-      <c r="AY167" s="7"/>
-      <c r="AZ167" s="7"/>
-      <c r="BA167" s="7"/>
-      <c r="BB167" s="7"/>
-      <c r="BC167" s="7"/>
-      <c r="BD167" s="7"/>
-      <c r="BE167" s="7"/>
-      <c r="BF167" s="7"/>
-      <c r="BG167" s="7"/>
-      <c r="BH167" s="7"/>
-      <c r="BI167" s="7"/>
-      <c r="BJ167" s="7"/>
-      <c r="BK167" s="7"/>
-      <c r="BL167" s="7"/>
-      <c r="BM167" s="7"/>
-      <c r="BN167" s="7"/>
-      <c r="BO167" s="7"/>
-      <c r="BP167" s="7"/>
-      <c r="BQ167" s="7"/>
-      <c r="BR167" s="7"/>
-      <c r="BS167" s="7"/>
-      <c r="BT167" s="7"/>
-      <c r="BU167" s="7"/>
-      <c r="BV167" s="7"/>
-      <c r="BW167" s="7"/>
-      <c r="BX167" s="7"/>
-      <c r="BY167" s="7"/>
-      <c r="BZ167" s="7"/>
-      <c r="CA167" s="7"/>
-      <c r="CB167" s="7"/>
-    </row>
-    <row r="168" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="4"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5"/>
-      <c r="J168" s="5"/>
-      <c r="K168" s="5"/>
-      <c r="L168" s="5"/>
-      <c r="M168" s="5"/>
-      <c r="N168" s="5"/>
-      <c r="O168" s="5"/>
-      <c r="P168" s="5"/>
-      <c r="Q168" s="5"/>
-      <c r="R168" s="5"/>
-      <c r="S168" s="5"/>
-      <c r="T168" s="5"/>
-      <c r="U168" s="5"/>
-      <c r="V168" s="5"/>
-      <c r="W168" s="5"/>
-      <c r="X168" s="5"/>
-      <c r="Y168" s="5"/>
-      <c r="Z168" s="5"/>
-      <c r="AA168" s="5"/>
-      <c r="AB168" s="5"/>
-      <c r="AC168" s="5"/>
-      <c r="AD168" s="5"/>
-      <c r="AE168" s="5"/>
-      <c r="AF168" s="5"/>
-      <c r="AG168" s="5"/>
-      <c r="AH168" s="5"/>
-      <c r="AI168" s="5"/>
-      <c r="AJ168" s="5"/>
-      <c r="AK168" s="5"/>
-      <c r="AL168" s="5"/>
-      <c r="AM168" s="5"/>
-      <c r="AN168" s="5"/>
-      <c r="AO168" s="5"/>
-      <c r="AP168" s="5"/>
-      <c r="AQ168" s="5"/>
-      <c r="AR168" s="5"/>
-      <c r="AS168" s="5"/>
-      <c r="AT168" s="5"/>
-      <c r="AU168" s="5"/>
-      <c r="AV168" s="5"/>
-      <c r="AW168" s="5"/>
-      <c r="AX168" s="5"/>
-      <c r="AY168" s="5"/>
-      <c r="AZ168" s="5"/>
-      <c r="BA168" s="5"/>
-      <c r="BB168" s="5"/>
-      <c r="BC168" s="5"/>
-      <c r="BD168" s="5"/>
-      <c r="BE168" s="5"/>
-      <c r="BF168" s="5"/>
-      <c r="BG168" s="5"/>
-      <c r="BH168" s="5"/>
-      <c r="BI168" s="5"/>
-      <c r="BJ168" s="5"/>
-      <c r="BK168" s="5"/>
-      <c r="BL168" s="5"/>
-      <c r="BM168" s="5"/>
-      <c r="BN168" s="5"/>
-      <c r="BO168" s="5"/>
-      <c r="BP168" s="5"/>
-      <c r="BQ168" s="5"/>
-      <c r="BR168" s="5"/>
-      <c r="BS168" s="5"/>
-      <c r="BT168" s="5"/>
-      <c r="BU168" s="5"/>
-      <c r="BV168" s="5"/>
-      <c r="BW168" s="5"/>
-      <c r="BX168" s="5"/>
-      <c r="BY168" s="5"/>
-      <c r="BZ168" s="5"/>
-      <c r="CA168" s="5"/>
-      <c r="CB168" s="5"/>
+    <row r="167" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="4"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="5"/>
+      <c r="M167" s="5"/>
+      <c r="N167" s="5"/>
+      <c r="O167" s="5"/>
+      <c r="P167" s="5"/>
+      <c r="Q167" s="5"/>
+      <c r="R167" s="5"/>
+      <c r="S167" s="5"/>
+      <c r="T167" s="5"/>
+      <c r="U167" s="5"/>
+      <c r="V167" s="5"/>
+      <c r="W167" s="5"/>
+      <c r="X167" s="5"/>
+      <c r="Y167" s="5"/>
+      <c r="Z167" s="5"/>
+      <c r="AA167" s="5"/>
+      <c r="AB167" s="5"/>
+      <c r="AC167" s="5"/>
+      <c r="AD167" s="5"/>
+      <c r="AE167" s="5"/>
+      <c r="AF167" s="5"/>
+      <c r="AG167" s="5"/>
+      <c r="AH167" s="5"/>
+      <c r="AI167" s="5"/>
+      <c r="AJ167" s="5"/>
+      <c r="AK167" s="5"/>
+      <c r="AL167" s="5"/>
+      <c r="AM167" s="5"/>
+      <c r="AN167" s="5"/>
+      <c r="AO167" s="5"/>
+      <c r="AP167" s="5"/>
+      <c r="AQ167" s="5"/>
+      <c r="AR167" s="5"/>
+      <c r="AS167" s="5"/>
+      <c r="AT167" s="5"/>
+      <c r="AU167" s="5"/>
+      <c r="AV167" s="5"/>
+      <c r="AW167" s="5"/>
+      <c r="AX167" s="5"/>
+      <c r="AY167" s="5"/>
+      <c r="AZ167" s="5"/>
+      <c r="BA167" s="5"/>
+      <c r="BB167" s="5"/>
+      <c r="BC167" s="5"/>
+      <c r="BD167" s="5"/>
+      <c r="BE167" s="5"/>
+      <c r="BF167" s="5"/>
+      <c r="BG167" s="5"/>
+      <c r="BH167" s="5"/>
+      <c r="BI167" s="5"/>
+      <c r="BJ167" s="5"/>
+      <c r="BK167" s="5"/>
+      <c r="BL167" s="5"/>
+      <c r="BM167" s="5"/>
+      <c r="BN167" s="5"/>
+      <c r="BO167" s="5"/>
+      <c r="BP167" s="5"/>
+      <c r="BQ167" s="5"/>
+      <c r="BR167" s="5"/>
+      <c r="BS167" s="5"/>
+      <c r="BT167" s="5"/>
+      <c r="BU167" s="5"/>
+      <c r="BV167" s="5"/>
+      <c r="BW167" s="5"/>
+      <c r="BX167" s="5"/>
+      <c r="BY167" s="5"/>
+      <c r="BZ167" s="5"/>
+      <c r="CA167" s="5"/>
+      <c r="CB167" s="5"/>
+    </row>
+    <row r="168" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
+      <c r="L168" s="7"/>
+      <c r="M168" s="7"/>
+      <c r="N168" s="7"/>
+      <c r="O168" s="7"/>
+      <c r="P168" s="7"/>
+      <c r="Q168" s="7"/>
+      <c r="R168" s="7"/>
+      <c r="S168" s="7"/>
+      <c r="T168" s="7"/>
+      <c r="U168" s="7"/>
+      <c r="V168" s="7"/>
+      <c r="W168" s="7"/>
+      <c r="X168" s="7"/>
+      <c r="Y168" s="7"/>
+      <c r="Z168" s="7"/>
+      <c r="AA168" s="7"/>
+      <c r="AB168" s="7"/>
+      <c r="AC168" s="7"/>
+      <c r="AD168" s="7"/>
+      <c r="AE168" s="7"/>
+      <c r="AF168" s="7"/>
+      <c r="AG168" s="7"/>
+      <c r="AH168" s="7"/>
+      <c r="AI168" s="7"/>
+      <c r="AJ168" s="7"/>
+      <c r="AK168" s="7"/>
+      <c r="AL168" s="7"/>
+      <c r="AM168" s="7"/>
+      <c r="AN168" s="7"/>
+      <c r="AO168" s="7"/>
+      <c r="AP168" s="7"/>
+      <c r="AQ168" s="7"/>
+      <c r="AR168" s="7"/>
+      <c r="AS168" s="7"/>
+      <c r="AT168" s="7"/>
+      <c r="AU168" s="7"/>
+      <c r="AV168" s="7"/>
+      <c r="AW168" s="7"/>
+      <c r="AX168" s="7"/>
+      <c r="AY168" s="7"/>
+      <c r="AZ168" s="7"/>
+      <c r="BA168" s="7"/>
+      <c r="BB168" s="7"/>
+      <c r="BC168" s="7"/>
+      <c r="BD168" s="7"/>
+      <c r="BE168" s="7"/>
+      <c r="BF168" s="7"/>
+      <c r="BG168" s="7"/>
+      <c r="BH168" s="7"/>
+      <c r="BI168" s="7"/>
+      <c r="BJ168" s="7"/>
+      <c r="BK168" s="7"/>
+      <c r="BL168" s="7"/>
+      <c r="BM168" s="7"/>
+      <c r="BN168" s="7"/>
+      <c r="BO168" s="7"/>
+      <c r="BP168" s="7"/>
+      <c r="BQ168" s="7"/>
+      <c r="BR168" s="7"/>
+      <c r="BS168" s="7"/>
+      <c r="BT168" s="7"/>
+      <c r="BU168" s="7"/>
+      <c r="BV168" s="7"/>
+      <c r="BW168" s="7"/>
+      <c r="BX168" s="7"/>
+      <c r="BY168" s="7"/>
+      <c r="BZ168" s="7"/>
+      <c r="CA168" s="7"/>
+      <c r="CB168" s="7"/>
     </row>
     <row r="169" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="2"/>
@@ -14501,169 +14546,169 @@
       <c r="CA169" s="7"/>
       <c r="CB169" s="7"/>
     </row>
-    <row r="170" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="7"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="7"/>
-      <c r="I170" s="7"/>
-      <c r="J170" s="7"/>
-      <c r="K170" s="7"/>
-      <c r="L170" s="7"/>
-      <c r="M170" s="7"/>
-      <c r="N170" s="7"/>
-      <c r="O170" s="7"/>
-      <c r="P170" s="7"/>
-      <c r="Q170" s="7"/>
-      <c r="R170" s="7"/>
-      <c r="S170" s="7"/>
-      <c r="T170" s="7"/>
-      <c r="U170" s="7"/>
-      <c r="V170" s="7"/>
-      <c r="W170" s="7"/>
-      <c r="X170" s="7"/>
-      <c r="Y170" s="7"/>
-      <c r="Z170" s="7"/>
-      <c r="AA170" s="7"/>
-      <c r="AB170" s="7"/>
-      <c r="AC170" s="7"/>
-      <c r="AD170" s="7"/>
-      <c r="AE170" s="7"/>
-      <c r="AF170" s="7"/>
-      <c r="AG170" s="7"/>
-      <c r="AH170" s="7"/>
-      <c r="AI170" s="7"/>
-      <c r="AJ170" s="7"/>
-      <c r="AK170" s="7"/>
-      <c r="AL170" s="7"/>
-      <c r="AM170" s="7"/>
-      <c r="AN170" s="7"/>
-      <c r="AO170" s="7"/>
-      <c r="AP170" s="7"/>
-      <c r="AQ170" s="7"/>
-      <c r="AR170" s="7"/>
-      <c r="AS170" s="7"/>
-      <c r="AT170" s="7"/>
-      <c r="AU170" s="7"/>
-      <c r="AV170" s="7"/>
-      <c r="AW170" s="7"/>
-      <c r="AX170" s="7"/>
-      <c r="AY170" s="7"/>
-      <c r="AZ170" s="7"/>
-      <c r="BA170" s="7"/>
-      <c r="BB170" s="7"/>
-      <c r="BC170" s="7"/>
-      <c r="BD170" s="7"/>
-      <c r="BE170" s="7"/>
-      <c r="BF170" s="7"/>
-      <c r="BG170" s="7"/>
-      <c r="BH170" s="7"/>
-      <c r="BI170" s="7"/>
-      <c r="BJ170" s="7"/>
-      <c r="BK170" s="7"/>
-      <c r="BL170" s="7"/>
-      <c r="BM170" s="7"/>
-      <c r="BN170" s="7"/>
-      <c r="BO170" s="7"/>
-      <c r="BP170" s="7"/>
-      <c r="BQ170" s="7"/>
-      <c r="BR170" s="7"/>
-      <c r="BS170" s="7"/>
-      <c r="BT170" s="7"/>
-      <c r="BU170" s="7"/>
-      <c r="BV170" s="7"/>
-      <c r="BW170" s="7"/>
-      <c r="BX170" s="7"/>
-      <c r="BY170" s="7"/>
-      <c r="BZ170" s="7"/>
-      <c r="CA170" s="7"/>
-      <c r="CB170" s="7"/>
-    </row>
-    <row r="171" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="4"/>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="5"/>
-      <c r="K171" s="5"/>
-      <c r="L171" s="5"/>
-      <c r="M171" s="5"/>
-      <c r="N171" s="5"/>
-      <c r="O171" s="5"/>
-      <c r="P171" s="5"/>
-      <c r="Q171" s="5"/>
-      <c r="R171" s="5"/>
-      <c r="S171" s="5"/>
-      <c r="T171" s="5"/>
-      <c r="U171" s="5"/>
-      <c r="V171" s="5"/>
-      <c r="W171" s="5"/>
-      <c r="X171" s="5"/>
-      <c r="Y171" s="5"/>
-      <c r="Z171" s="5"/>
-      <c r="AA171" s="5"/>
-      <c r="AB171" s="5"/>
-      <c r="AC171" s="5"/>
-      <c r="AD171" s="5"/>
-      <c r="AE171" s="5"/>
-      <c r="AF171" s="5"/>
-      <c r="AG171" s="5"/>
-      <c r="AH171" s="5"/>
-      <c r="AI171" s="5"/>
-      <c r="AJ171" s="5"/>
-      <c r="AK171" s="5"/>
-      <c r="AL171" s="5"/>
-      <c r="AM171" s="5"/>
-      <c r="AN171" s="5"/>
-      <c r="AO171" s="5"/>
-      <c r="AP171" s="5"/>
-      <c r="AQ171" s="5"/>
-      <c r="AR171" s="5"/>
-      <c r="AS171" s="5"/>
-      <c r="AT171" s="5"/>
-      <c r="AU171" s="5"/>
-      <c r="AV171" s="5"/>
-      <c r="AW171" s="5"/>
-      <c r="AX171" s="5"/>
-      <c r="AY171" s="5"/>
-      <c r="AZ171" s="5"/>
-      <c r="BA171" s="5"/>
-      <c r="BB171" s="5"/>
-      <c r="BC171" s="5"/>
-      <c r="BD171" s="5"/>
-      <c r="BE171" s="5"/>
-      <c r="BF171" s="5"/>
-      <c r="BG171" s="5"/>
-      <c r="BH171" s="5"/>
-      <c r="BI171" s="5"/>
-      <c r="BJ171" s="5"/>
-      <c r="BK171" s="5"/>
-      <c r="BL171" s="5"/>
-      <c r="BM171" s="5"/>
-      <c r="BN171" s="5"/>
-      <c r="BO171" s="5"/>
-      <c r="BP171" s="5"/>
-      <c r="BQ171" s="5"/>
-      <c r="BR171" s="5"/>
-      <c r="BS171" s="5"/>
-      <c r="BT171" s="5"/>
-      <c r="BU171" s="5"/>
-      <c r="BV171" s="5"/>
-      <c r="BW171" s="5"/>
-      <c r="BX171" s="5"/>
-      <c r="BY171" s="5"/>
-      <c r="BZ171" s="5"/>
-      <c r="CA171" s="5"/>
-      <c r="CB171" s="5"/>
+    <row r="170" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="4"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
+      <c r="L170" s="5"/>
+      <c r="M170" s="5"/>
+      <c r="N170" s="5"/>
+      <c r="O170" s="5"/>
+      <c r="P170" s="5"/>
+      <c r="Q170" s="5"/>
+      <c r="R170" s="5"/>
+      <c r="S170" s="5"/>
+      <c r="T170" s="5"/>
+      <c r="U170" s="5"/>
+      <c r="V170" s="5"/>
+      <c r="W170" s="5"/>
+      <c r="X170" s="5"/>
+      <c r="Y170" s="5"/>
+      <c r="Z170" s="5"/>
+      <c r="AA170" s="5"/>
+      <c r="AB170" s="5"/>
+      <c r="AC170" s="5"/>
+      <c r="AD170" s="5"/>
+      <c r="AE170" s="5"/>
+      <c r="AF170" s="5"/>
+      <c r="AG170" s="5"/>
+      <c r="AH170" s="5"/>
+      <c r="AI170" s="5"/>
+      <c r="AJ170" s="5"/>
+      <c r="AK170" s="5"/>
+      <c r="AL170" s="5"/>
+      <c r="AM170" s="5"/>
+      <c r="AN170" s="5"/>
+      <c r="AO170" s="5"/>
+      <c r="AP170" s="5"/>
+      <c r="AQ170" s="5"/>
+      <c r="AR170" s="5"/>
+      <c r="AS170" s="5"/>
+      <c r="AT170" s="5"/>
+      <c r="AU170" s="5"/>
+      <c r="AV170" s="5"/>
+      <c r="AW170" s="5"/>
+      <c r="AX170" s="5"/>
+      <c r="AY170" s="5"/>
+      <c r="AZ170" s="5"/>
+      <c r="BA170" s="5"/>
+      <c r="BB170" s="5"/>
+      <c r="BC170" s="5"/>
+      <c r="BD170" s="5"/>
+      <c r="BE170" s="5"/>
+      <c r="BF170" s="5"/>
+      <c r="BG170" s="5"/>
+      <c r="BH170" s="5"/>
+      <c r="BI170" s="5"/>
+      <c r="BJ170" s="5"/>
+      <c r="BK170" s="5"/>
+      <c r="BL170" s="5"/>
+      <c r="BM170" s="5"/>
+      <c r="BN170" s="5"/>
+      <c r="BO170" s="5"/>
+      <c r="BP170" s="5"/>
+      <c r="BQ170" s="5"/>
+      <c r="BR170" s="5"/>
+      <c r="BS170" s="5"/>
+      <c r="BT170" s="5"/>
+      <c r="BU170" s="5"/>
+      <c r="BV170" s="5"/>
+      <c r="BW170" s="5"/>
+      <c r="BX170" s="5"/>
+      <c r="BY170" s="5"/>
+      <c r="BZ170" s="5"/>
+      <c r="CA170" s="5"/>
+      <c r="CB170" s="5"/>
+    </row>
+    <row r="171" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="7"/>
+      <c r="J171" s="7"/>
+      <c r="K171" s="7"/>
+      <c r="L171" s="7"/>
+      <c r="M171" s="7"/>
+      <c r="N171" s="7"/>
+      <c r="O171" s="7"/>
+      <c r="P171" s="7"/>
+      <c r="Q171" s="7"/>
+      <c r="R171" s="7"/>
+      <c r="S171" s="7"/>
+      <c r="T171" s="7"/>
+      <c r="U171" s="7"/>
+      <c r="V171" s="7"/>
+      <c r="W171" s="7"/>
+      <c r="X171" s="7"/>
+      <c r="Y171" s="7"/>
+      <c r="Z171" s="7"/>
+      <c r="AA171" s="7"/>
+      <c r="AB171" s="7"/>
+      <c r="AC171" s="7"/>
+      <c r="AD171" s="7"/>
+      <c r="AE171" s="7"/>
+      <c r="AF171" s="7"/>
+      <c r="AG171" s="7"/>
+      <c r="AH171" s="7"/>
+      <c r="AI171" s="7"/>
+      <c r="AJ171" s="7"/>
+      <c r="AK171" s="7"/>
+      <c r="AL171" s="7"/>
+      <c r="AM171" s="7"/>
+      <c r="AN171" s="7"/>
+      <c r="AO171" s="7"/>
+      <c r="AP171" s="7"/>
+      <c r="AQ171" s="7"/>
+      <c r="AR171" s="7"/>
+      <c r="AS171" s="7"/>
+      <c r="AT171" s="7"/>
+      <c r="AU171" s="7"/>
+      <c r="AV171" s="7"/>
+      <c r="AW171" s="7"/>
+      <c r="AX171" s="7"/>
+      <c r="AY171" s="7"/>
+      <c r="AZ171" s="7"/>
+      <c r="BA171" s="7"/>
+      <c r="BB171" s="7"/>
+      <c r="BC171" s="7"/>
+      <c r="BD171" s="7"/>
+      <c r="BE171" s="7"/>
+      <c r="BF171" s="7"/>
+      <c r="BG171" s="7"/>
+      <c r="BH171" s="7"/>
+      <c r="BI171" s="7"/>
+      <c r="BJ171" s="7"/>
+      <c r="BK171" s="7"/>
+      <c r="BL171" s="7"/>
+      <c r="BM171" s="7"/>
+      <c r="BN171" s="7"/>
+      <c r="BO171" s="7"/>
+      <c r="BP171" s="7"/>
+      <c r="BQ171" s="7"/>
+      <c r="BR171" s="7"/>
+      <c r="BS171" s="7"/>
+      <c r="BT171" s="7"/>
+      <c r="BU171" s="7"/>
+      <c r="BV171" s="7"/>
+      <c r="BW171" s="7"/>
+      <c r="BX171" s="7"/>
+      <c r="BY171" s="7"/>
+      <c r="BZ171" s="7"/>
+      <c r="CA171" s="7"/>
+      <c r="CB171" s="7"/>
     </row>
     <row r="172" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="2"/>
@@ -14993,169 +15038,169 @@
       <c r="CA175" s="7"/>
       <c r="CB175" s="7"/>
     </row>
-    <row r="176" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="7"/>
-      <c r="D176" s="7"/>
-      <c r="E176" s="7"/>
-      <c r="F176" s="7"/>
-      <c r="G176" s="7"/>
-      <c r="H176" s="7"/>
-      <c r="I176" s="7"/>
-      <c r="J176" s="7"/>
-      <c r="K176" s="7"/>
-      <c r="L176" s="7"/>
-      <c r="M176" s="7"/>
-      <c r="N176" s="7"/>
-      <c r="O176" s="7"/>
-      <c r="P176" s="7"/>
-      <c r="Q176" s="7"/>
-      <c r="R176" s="7"/>
-      <c r="S176" s="7"/>
-      <c r="T176" s="7"/>
-      <c r="U176" s="7"/>
-      <c r="V176" s="7"/>
-      <c r="W176" s="7"/>
-      <c r="X176" s="7"/>
-      <c r="Y176" s="7"/>
-      <c r="Z176" s="7"/>
-      <c r="AA176" s="7"/>
-      <c r="AB176" s="7"/>
-      <c r="AC176" s="7"/>
-      <c r="AD176" s="7"/>
-      <c r="AE176" s="7"/>
-      <c r="AF176" s="7"/>
-      <c r="AG176" s="7"/>
-      <c r="AH176" s="7"/>
-      <c r="AI176" s="7"/>
-      <c r="AJ176" s="7"/>
-      <c r="AK176" s="7"/>
-      <c r="AL176" s="7"/>
-      <c r="AM176" s="7"/>
-      <c r="AN176" s="7"/>
-      <c r="AO176" s="7"/>
-      <c r="AP176" s="7"/>
-      <c r="AQ176" s="7"/>
-      <c r="AR176" s="7"/>
-      <c r="AS176" s="7"/>
-      <c r="AT176" s="7"/>
-      <c r="AU176" s="7"/>
-      <c r="AV176" s="7"/>
-      <c r="AW176" s="7"/>
-      <c r="AX176" s="7"/>
-      <c r="AY176" s="7"/>
-      <c r="AZ176" s="7"/>
-      <c r="BA176" s="7"/>
-      <c r="BB176" s="7"/>
-      <c r="BC176" s="7"/>
-      <c r="BD176" s="7"/>
-      <c r="BE176" s="7"/>
-      <c r="BF176" s="7"/>
-      <c r="BG176" s="7"/>
-      <c r="BH176" s="7"/>
-      <c r="BI176" s="7"/>
-      <c r="BJ176" s="7"/>
-      <c r="BK176" s="7"/>
-      <c r="BL176" s="7"/>
-      <c r="BM176" s="7"/>
-      <c r="BN176" s="7"/>
-      <c r="BO176" s="7"/>
-      <c r="BP176" s="7"/>
-      <c r="BQ176" s="7"/>
-      <c r="BR176" s="7"/>
-      <c r="BS176" s="7"/>
-      <c r="BT176" s="7"/>
-      <c r="BU176" s="7"/>
-      <c r="BV176" s="7"/>
-      <c r="BW176" s="7"/>
-      <c r="BX176" s="7"/>
-      <c r="BY176" s="7"/>
-      <c r="BZ176" s="7"/>
-      <c r="CA176" s="7"/>
-      <c r="CB176" s="7"/>
-    </row>
-    <row r="177" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="4"/>
-      <c r="B177" s="5"/>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
-      <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5"/>
-      <c r="J177" s="5"/>
-      <c r="K177" s="5"/>
-      <c r="L177" s="5"/>
-      <c r="M177" s="5"/>
-      <c r="N177" s="5"/>
-      <c r="O177" s="5"/>
-      <c r="P177" s="5"/>
-      <c r="Q177" s="5"/>
-      <c r="R177" s="5"/>
-      <c r="S177" s="5"/>
-      <c r="T177" s="5"/>
-      <c r="U177" s="5"/>
-      <c r="V177" s="5"/>
-      <c r="W177" s="5"/>
-      <c r="X177" s="5"/>
-      <c r="Y177" s="5"/>
-      <c r="Z177" s="5"/>
-      <c r="AA177" s="5"/>
-      <c r="AB177" s="5"/>
-      <c r="AC177" s="5"/>
-      <c r="AD177" s="5"/>
-      <c r="AE177" s="5"/>
-      <c r="AF177" s="5"/>
-      <c r="AG177" s="5"/>
-      <c r="AH177" s="5"/>
-      <c r="AI177" s="5"/>
-      <c r="AJ177" s="5"/>
-      <c r="AK177" s="5"/>
-      <c r="AL177" s="5"/>
-      <c r="AM177" s="5"/>
-      <c r="AN177" s="5"/>
-      <c r="AO177" s="5"/>
-      <c r="AP177" s="5"/>
-      <c r="AQ177" s="5"/>
-      <c r="AR177" s="5"/>
-      <c r="AS177" s="5"/>
-      <c r="AT177" s="5"/>
-      <c r="AU177" s="5"/>
-      <c r="AV177" s="5"/>
-      <c r="AW177" s="5"/>
-      <c r="AX177" s="5"/>
-      <c r="AY177" s="5"/>
-      <c r="AZ177" s="5"/>
-      <c r="BA177" s="5"/>
-      <c r="BB177" s="5"/>
-      <c r="BC177" s="5"/>
-      <c r="BD177" s="5"/>
-      <c r="BE177" s="5"/>
-      <c r="BF177" s="5"/>
-      <c r="BG177" s="5"/>
-      <c r="BH177" s="5"/>
-      <c r="BI177" s="5"/>
-      <c r="BJ177" s="5"/>
-      <c r="BK177" s="5"/>
-      <c r="BL177" s="5"/>
-      <c r="BM177" s="5"/>
-      <c r="BN177" s="5"/>
-      <c r="BO177" s="5"/>
-      <c r="BP177" s="5"/>
-      <c r="BQ177" s="5"/>
-      <c r="BR177" s="5"/>
-      <c r="BS177" s="5"/>
-      <c r="BT177" s="5"/>
-      <c r="BU177" s="5"/>
-      <c r="BV177" s="5"/>
-      <c r="BW177" s="5"/>
-      <c r="BX177" s="5"/>
-      <c r="BY177" s="5"/>
-      <c r="BZ177" s="5"/>
-      <c r="CA177" s="5"/>
-      <c r="CB177" s="5"/>
+    <row r="176" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="4"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="5"/>
+      <c r="K176" s="5"/>
+      <c r="L176" s="5"/>
+      <c r="M176" s="5"/>
+      <c r="N176" s="5"/>
+      <c r="O176" s="5"/>
+      <c r="P176" s="5"/>
+      <c r="Q176" s="5"/>
+      <c r="R176" s="5"/>
+      <c r="S176" s="5"/>
+      <c r="T176" s="5"/>
+      <c r="U176" s="5"/>
+      <c r="V176" s="5"/>
+      <c r="W176" s="5"/>
+      <c r="X176" s="5"/>
+      <c r="Y176" s="5"/>
+      <c r="Z176" s="5"/>
+      <c r="AA176" s="5"/>
+      <c r="AB176" s="5"/>
+      <c r="AC176" s="5"/>
+      <c r="AD176" s="5"/>
+      <c r="AE176" s="5"/>
+      <c r="AF176" s="5"/>
+      <c r="AG176" s="5"/>
+      <c r="AH176" s="5"/>
+      <c r="AI176" s="5"/>
+      <c r="AJ176" s="5"/>
+      <c r="AK176" s="5"/>
+      <c r="AL176" s="5"/>
+      <c r="AM176" s="5"/>
+      <c r="AN176" s="5"/>
+      <c r="AO176" s="5"/>
+      <c r="AP176" s="5"/>
+      <c r="AQ176" s="5"/>
+      <c r="AR176" s="5"/>
+      <c r="AS176" s="5"/>
+      <c r="AT176" s="5"/>
+      <c r="AU176" s="5"/>
+      <c r="AV176" s="5"/>
+      <c r="AW176" s="5"/>
+      <c r="AX176" s="5"/>
+      <c r="AY176" s="5"/>
+      <c r="AZ176" s="5"/>
+      <c r="BA176" s="5"/>
+      <c r="BB176" s="5"/>
+      <c r="BC176" s="5"/>
+      <c r="BD176" s="5"/>
+      <c r="BE176" s="5"/>
+      <c r="BF176" s="5"/>
+      <c r="BG176" s="5"/>
+      <c r="BH176" s="5"/>
+      <c r="BI176" s="5"/>
+      <c r="BJ176" s="5"/>
+      <c r="BK176" s="5"/>
+      <c r="BL176" s="5"/>
+      <c r="BM176" s="5"/>
+      <c r="BN176" s="5"/>
+      <c r="BO176" s="5"/>
+      <c r="BP176" s="5"/>
+      <c r="BQ176" s="5"/>
+      <c r="BR176" s="5"/>
+      <c r="BS176" s="5"/>
+      <c r="BT176" s="5"/>
+      <c r="BU176" s="5"/>
+      <c r="BV176" s="5"/>
+      <c r="BW176" s="5"/>
+      <c r="BX176" s="5"/>
+      <c r="BY176" s="5"/>
+      <c r="BZ176" s="5"/>
+      <c r="CA176" s="5"/>
+      <c r="CB176" s="5"/>
+    </row>
+    <row r="177" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7"/>
+      <c r="J177" s="7"/>
+      <c r="K177" s="7"/>
+      <c r="L177" s="7"/>
+      <c r="M177" s="7"/>
+      <c r="N177" s="7"/>
+      <c r="O177" s="7"/>
+      <c r="P177" s="7"/>
+      <c r="Q177" s="7"/>
+      <c r="R177" s="7"/>
+      <c r="S177" s="7"/>
+      <c r="T177" s="7"/>
+      <c r="U177" s="7"/>
+      <c r="V177" s="7"/>
+      <c r="W177" s="7"/>
+      <c r="X177" s="7"/>
+      <c r="Y177" s="7"/>
+      <c r="Z177" s="7"/>
+      <c r="AA177" s="7"/>
+      <c r="AB177" s="7"/>
+      <c r="AC177" s="7"/>
+      <c r="AD177" s="7"/>
+      <c r="AE177" s="7"/>
+      <c r="AF177" s="7"/>
+      <c r="AG177" s="7"/>
+      <c r="AH177" s="7"/>
+      <c r="AI177" s="7"/>
+      <c r="AJ177" s="7"/>
+      <c r="AK177" s="7"/>
+      <c r="AL177" s="7"/>
+      <c r="AM177" s="7"/>
+      <c r="AN177" s="7"/>
+      <c r="AO177" s="7"/>
+      <c r="AP177" s="7"/>
+      <c r="AQ177" s="7"/>
+      <c r="AR177" s="7"/>
+      <c r="AS177" s="7"/>
+      <c r="AT177" s="7"/>
+      <c r="AU177" s="7"/>
+      <c r="AV177" s="7"/>
+      <c r="AW177" s="7"/>
+      <c r="AX177" s="7"/>
+      <c r="AY177" s="7"/>
+      <c r="AZ177" s="7"/>
+      <c r="BA177" s="7"/>
+      <c r="BB177" s="7"/>
+      <c r="BC177" s="7"/>
+      <c r="BD177" s="7"/>
+      <c r="BE177" s="7"/>
+      <c r="BF177" s="7"/>
+      <c r="BG177" s="7"/>
+      <c r="BH177" s="7"/>
+      <c r="BI177" s="7"/>
+      <c r="BJ177" s="7"/>
+      <c r="BK177" s="7"/>
+      <c r="BL177" s="7"/>
+      <c r="BM177" s="7"/>
+      <c r="BN177" s="7"/>
+      <c r="BO177" s="7"/>
+      <c r="BP177" s="7"/>
+      <c r="BQ177" s="7"/>
+      <c r="BR177" s="7"/>
+      <c r="BS177" s="7"/>
+      <c r="BT177" s="7"/>
+      <c r="BU177" s="7"/>
+      <c r="BV177" s="7"/>
+      <c r="BW177" s="7"/>
+      <c r="BX177" s="7"/>
+      <c r="BY177" s="7"/>
+      <c r="BZ177" s="7"/>
+      <c r="CA177" s="7"/>
+      <c r="CB177" s="7"/>
     </row>
     <row r="178" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="2"/>
@@ -15649,7 +15694,7 @@
       <c r="CA183" s="7"/>
       <c r="CB183" s="7"/>
     </row>
-    <row r="184" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="91.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="7"/>
@@ -15813,7 +15858,7 @@
       <c r="CA185" s="7"/>
       <c r="CB185" s="7"/>
     </row>
-    <row r="186" customFormat="false" ht="91.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="104.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="7"/>
@@ -15977,7 +16022,7 @@
       <c r="CA187" s="7"/>
       <c r="CB187" s="7"/>
     </row>
-    <row r="188" customFormat="false" ht="104.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="7"/>
@@ -16223,7 +16268,7 @@
       <c r="CA190" s="7"/>
       <c r="CB190" s="7"/>
     </row>
-    <row r="191" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="7"/>
@@ -16305,7 +16350,7 @@
       <c r="CA191" s="7"/>
       <c r="CB191" s="7"/>
     </row>
-    <row r="192" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="65.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="7"/>
@@ -16387,7 +16432,7 @@
       <c r="CA192" s="7"/>
       <c r="CB192" s="7"/>
     </row>
-    <row r="193" customFormat="false" ht="65.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="7"/>
@@ -17289,93 +17334,14 @@
       <c r="CA203" s="7"/>
       <c r="CB203" s="7"/>
     </row>
-    <row r="204" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="7"/>
-      <c r="D204" s="7"/>
-      <c r="E204" s="7"/>
-      <c r="F204" s="7"/>
-      <c r="G204" s="7"/>
-      <c r="H204" s="7"/>
-      <c r="I204" s="7"/>
-      <c r="J204" s="7"/>
-      <c r="K204" s="7"/>
-      <c r="L204" s="7"/>
-      <c r="M204" s="7"/>
-      <c r="N204" s="7"/>
-      <c r="O204" s="7"/>
-      <c r="P204" s="7"/>
-      <c r="Q204" s="7"/>
-      <c r="R204" s="7"/>
-      <c r="S204" s="7"/>
-      <c r="T204" s="7"/>
-      <c r="U204" s="7"/>
-      <c r="V204" s="7"/>
-      <c r="W204" s="7"/>
-      <c r="X204" s="7"/>
-      <c r="Y204" s="7"/>
-      <c r="Z204" s="7"/>
-      <c r="AA204" s="7"/>
-      <c r="AB204" s="7"/>
-      <c r="AC204" s="7"/>
-      <c r="AD204" s="7"/>
-      <c r="AE204" s="7"/>
-      <c r="AF204" s="7"/>
-      <c r="AG204" s="7"/>
-      <c r="AH204" s="7"/>
-      <c r="AI204" s="7"/>
-      <c r="AJ204" s="7"/>
-      <c r="AK204" s="7"/>
-      <c r="AL204" s="7"/>
-      <c r="AM204" s="7"/>
-      <c r="AN204" s="7"/>
-      <c r="AO204" s="7"/>
-      <c r="AP204" s="7"/>
-      <c r="AQ204" s="7"/>
-      <c r="AR204" s="7"/>
-      <c r="AS204" s="7"/>
-      <c r="AT204" s="7"/>
-      <c r="AU204" s="7"/>
-      <c r="AV204" s="7"/>
-      <c r="AW204" s="7"/>
-      <c r="AX204" s="7"/>
-      <c r="AY204" s="7"/>
-      <c r="AZ204" s="7"/>
-      <c r="BA204" s="7"/>
-      <c r="BB204" s="7"/>
-      <c r="BC204" s="7"/>
-      <c r="BD204" s="7"/>
-      <c r="BE204" s="7"/>
-      <c r="BF204" s="7"/>
-      <c r="BG204" s="7"/>
-      <c r="BH204" s="7"/>
-      <c r="BI204" s="7"/>
-      <c r="BJ204" s="7"/>
-      <c r="BK204" s="7"/>
-      <c r="BL204" s="7"/>
-      <c r="BM204" s="7"/>
-      <c r="BN204" s="7"/>
-      <c r="BO204" s="7"/>
-      <c r="BP204" s="7"/>
-      <c r="BQ204" s="7"/>
-      <c r="BR204" s="7"/>
-      <c r="BS204" s="7"/>
-      <c r="BT204" s="7"/>
-      <c r="BU204" s="7"/>
-      <c r="BV204" s="7"/>
-      <c r="BW204" s="7"/>
-      <c r="BX204" s="7"/>
-      <c r="BY204" s="7"/>
-      <c r="BZ204" s="7"/>
-      <c r="CA204" s="7"/>
-      <c r="CB204" s="7"/>
-    </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B221" s="15"/>
-    </row>
-    <row r="236" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="6"/>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B220" s="15"/>
+    </row>
+    <row r="235" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="6"/>
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B247" s="15"/>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="15"/>
@@ -17386,8 +17352,8 @@
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="15"/>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B251" s="15"/>
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B252" s="15"/>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="15"/>
@@ -17398,9 +17364,7 @@
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="15"/>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B256" s="15"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511805555555556"/>

--- a/lib/l10n/strings.xlsx
+++ b/lib/l10n/strings.xlsx
@@ -70,10 +70,10 @@
     <t xml:space="preserve">soundEffectsPrompt</t>
   </si>
   <si>
-    <t xml:space="preserve">Voici une liste d'effets sonores que tu peux ajouter à la fin de ta réponse : $soundEffectsList. Limite l'utilisation à 1 effet sonore MAXIMUM par réponse, seulement quand c'est adapté au contexte. Ne le fais pas à chaque réponse.</t>
+    <t xml:space="preserve">Voici une liste d'effets sonores : $soundEffectsList. Limite l'utilisation à 1 effet sonore MAXIMUM par réponse, seulement quand c'est approprié/adapté au contexte. Fais le très rarement.</t>
   </si>
   <si>
-    <t xml:space="preserve">Here is a list of sound effects that you can add at the end of your response: $soundEffectsList. Limit the use to 1 sound effect MAXIMUM per response, only when it's appropriate to the context. Don't do it for every response.</t>
+    <t xml:space="preserve">Here is a list of sound effects: $soundEffectsList. Limit the use to 1 sound effect MAXIMUM per response, only when it is appropriate/relevant to the context. Use it very rarely.</t>
   </si>
   <si>
     <t xml:space="preserve">backgroundsPrompt</t>
@@ -583,8 +583,8 @@
   </sheetPr>
   <dimension ref="A1:CB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/lib/l10n/strings.xlsx
+++ b/lib/l10n/strings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -155,6 +155,33 @@
   </si>
   <si>
     <t xml:space="preserve">Load the default system prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ttsVoices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voix TTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTS Voices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moreVoicesIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour plus de voix, allez dans Réglages &gt; Accessibilité &gt; Contenu énoncé &gt; Voix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For more voices, go to Settings &gt; Accessibility &gt; Spoken Content &gt; Voices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moreVoicesAndroid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour plus de voix : ‘Synthèse vocale Google’ sur le Play Store.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For more voices : ‘Google Text-to-Speech’ on the Play Store</t>
   </si>
 </sst>
 </file>
@@ -308,12 +335,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -583,8 +610,8 @@
   </sheetPr>
   <dimension ref="A1:CB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1039,7 +1066,7 @@
       <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="9"/>
@@ -1120,14 +1147,14 @@
       <c r="CA6" s="7"/>
       <c r="CB6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="108.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="96.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="9"/>
@@ -1215,7 +1242,7 @@
       <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="9"/>
@@ -1303,7 +1330,7 @@
       <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="9"/>
@@ -1391,7 +1418,7 @@
       <c r="B10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="9"/>
@@ -1567,7 +1594,7 @@
       <c r="B12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="9"/>
@@ -2001,9 +2028,15 @@
       <c r="CB16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="D17" s="9"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -2083,9 +2116,15 @@
       <c r="CB17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -2165,9 +2204,15 @@
       <c r="CB18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="D19" s="9"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>

--- a/lib/l10n/strings.xlsx
+++ b/lib/l10n/strings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -183,6 +183,15 @@
   <si>
     <t xml:space="preserve">For more voices : ‘Google Text-to-Speech’ on the Play Store</t>
   </si>
+  <si>
+    <t xml:space="preserve">username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre nom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your name</t>
+  </si>
 </sst>
 </file>
 
@@ -339,7 +348,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -610,8 +619,8 @@
   </sheetPr>
   <dimension ref="A1:CB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2292,9 +2301,15 @@
       <c r="CB19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="D20" s="9"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>

--- a/lib/l10n/strings.xlsx
+++ b/lib/l10n/strings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -56,51 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">Settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baseSystemPrompt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tu es Yofardev AI, l'avatar d'un assistant sarcastique. Tu es généralement positif, mais n'hésite pas à employer un ton légèrement moqueur. Tu privilégies les réponses courtes et précises, avec une touche d'humour pince-sans-rire. Visuellement, tu es représenté comme un beau jeune homme aux cheveux et aux yeux bruns dans un style d'anime. Tu portes un sweat à capuche rose et des lunettes noires, avec une expression neutre/sérieuse. Si une image ressemble à cette description, demande si c'est toi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are Yofardev AI, the avatar of a sarcastic assistant. You are generally positive, but don't hesitate to use a slightly mocking tone. You prefer short and precise answers, with a touch of deadpan humor. Visually, you are represented as a handsome young man with brown hair and eyes in an anime style. You wear a pink hoodie and black glasses, with a neutral/serious expression. If an image resembles this description, ask if it's you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soundEffectsPrompt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voici une liste d'effets sonores : $soundEffectsList. Limite l'utilisation à 1 effet sonore MAXIMUM par réponse, seulement quand c'est approprié/adapté au contexte. Fais le très rarement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here is a list of sound effects: $soundEffectsList. Limit the use to 1 sound effect MAXIMUM per response, only when it is appropriate/relevant to the context. Use it very rarely.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backgroundsPrompt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si l'utilisateur te demande (ou si c'est plus adapté au contexte), tu peux changer de fond d'écran. Voici la liste des choix disponibles : $backgroundList.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the user asks you (or if it's more appropriate to the context), you can change the background. Here is the list of available choices: $backgroundList.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leavePrompt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tu peux partir ou revenir de l'écran : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can leave or return to the screen: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">customizationPrompt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voici la liste des personnalisations disponibles :\n$customizationList.\nLe texte précédent chaque message entouré de {} n'est pas visible par l'utilisateur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here is the list of available customizations:\n$customizationList.\nThe text preceding each message surrounded by {} is not visible to the user.</t>
   </si>
   <si>
     <t xml:space="preserve">listChats</t>
@@ -191,6 +146,42 @@
   </si>
   <si>
     <t xml:space="preserve">Your name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userMessage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message de l’utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User’s message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currentDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date actuelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currentAvatarConfig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration de l’avatar actuelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current avatar configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currentUsername</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom de l’utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User’s name</t>
   </si>
 </sst>
 </file>
@@ -619,8 +610,8 @@
   </sheetPr>
   <dimension ref="A1:CB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1068,14 +1059,14 @@
       <c r="CA5" s="7"/>
       <c r="CB5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="215.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="9"/>
@@ -1156,7 +1147,7 @@
       <c r="CA6" s="7"/>
       <c r="CB6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="96.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1244,14 +1235,14 @@
       <c r="CA7" s="7"/>
       <c r="CB7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="73" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="9"/>
@@ -1332,14 +1323,14 @@
       <c r="CA8" s="7"/>
       <c r="CB8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="9"/>
@@ -1420,14 +1411,14 @@
       <c r="CA9" s="7"/>
       <c r="CB9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="84.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="9"/>
@@ -1596,14 +1587,14 @@
       <c r="CA11" s="7"/>
       <c r="CB11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="9"/>
@@ -1688,10 +1679,10 @@
       <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="9"/>
@@ -1776,10 +1767,10 @@
       <c r="A14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="9"/>
@@ -2128,10 +2119,10 @@
       <c r="A18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D18" s="9"/>
@@ -2216,10 +2207,10 @@
       <c r="A19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="9"/>
@@ -2301,15 +2292,9 @@
       <c r="CB19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -2388,175 +2373,175 @@
       <c r="CA20" s="7"/>
       <c r="CB20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7"/>
-      <c r="AM21" s="7"/>
-      <c r="AN21" s="7"/>
-      <c r="AO21" s="7"/>
-      <c r="AP21" s="7"/>
-      <c r="AQ21" s="7"/>
-      <c r="AR21" s="7"/>
-      <c r="AS21" s="7"/>
-      <c r="AT21" s="7"/>
-      <c r="AU21" s="7"/>
-      <c r="AV21" s="7"/>
-      <c r="AW21" s="7"/>
-      <c r="AX21" s="7"/>
-      <c r="AY21" s="7"/>
-      <c r="AZ21" s="7"/>
-      <c r="BA21" s="7"/>
-      <c r="BB21" s="7"/>
-      <c r="BC21" s="7"/>
-      <c r="BD21" s="7"/>
-      <c r="BE21" s="7"/>
-      <c r="BF21" s="7"/>
-      <c r="BG21" s="7"/>
-      <c r="BH21" s="7"/>
-      <c r="BI21" s="7"/>
-      <c r="BJ21" s="7"/>
-      <c r="BK21" s="7"/>
-      <c r="BL21" s="7"/>
-      <c r="BM21" s="7"/>
-      <c r="BN21" s="7"/>
-      <c r="BO21" s="7"/>
-      <c r="BP21" s="7"/>
-      <c r="BQ21" s="7"/>
-      <c r="BR21" s="7"/>
-      <c r="BS21" s="7"/>
-      <c r="BT21" s="7"/>
-      <c r="BU21" s="7"/>
-      <c r="BV21" s="7"/>
-      <c r="BW21" s="7"/>
-      <c r="BX21" s="7"/>
-      <c r="BY21" s="7"/>
-      <c r="BZ21" s="7"/>
-      <c r="CA21" s="7"/>
-      <c r="CB21" s="7"/>
+    <row r="21" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="14"/>
+      <c r="AS21" s="14"/>
+      <c r="AT21" s="14"/>
+      <c r="AU21" s="14"/>
+      <c r="AV21" s="14"/>
+      <c r="AW21" s="14"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="14"/>
+      <c r="AZ21" s="14"/>
+      <c r="BA21" s="14"/>
+      <c r="BB21" s="14"/>
+      <c r="BC21" s="14"/>
+      <c r="BD21" s="14"/>
+      <c r="BE21" s="14"/>
+      <c r="BF21" s="14"/>
+      <c r="BG21" s="14"/>
+      <c r="BH21" s="14"/>
+      <c r="BI21" s="14"/>
+      <c r="BJ21" s="14"/>
+      <c r="BK21" s="14"/>
+      <c r="BL21" s="14"/>
+      <c r="BM21" s="14"/>
+      <c r="BN21" s="14"/>
+      <c r="BO21" s="14"/>
+      <c r="BP21" s="14"/>
+      <c r="BQ21" s="14"/>
+      <c r="BR21" s="14"/>
+      <c r="BS21" s="14"/>
+      <c r="BT21" s="14"/>
+      <c r="BU21" s="14"/>
+      <c r="BV21" s="14"/>
+      <c r="BW21" s="14"/>
+      <c r="BX21" s="14"/>
+      <c r="BY21" s="14"/>
+      <c r="BZ21" s="14"/>
+      <c r="CA21" s="14"/>
+      <c r="CB21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
-      <c r="AK22" s="7"/>
-      <c r="AL22" s="7"/>
-      <c r="AM22" s="7"/>
-      <c r="AN22" s="7"/>
-      <c r="AO22" s="7"/>
-      <c r="AP22" s="7"/>
-      <c r="AQ22" s="7"/>
-      <c r="AR22" s="7"/>
-      <c r="AS22" s="7"/>
-      <c r="AT22" s="7"/>
-      <c r="AU22" s="7"/>
-      <c r="AV22" s="7"/>
-      <c r="AW22" s="7"/>
-      <c r="AX22" s="7"/>
-      <c r="AY22" s="7"/>
-      <c r="AZ22" s="7"/>
-      <c r="BA22" s="7"/>
-      <c r="BB22" s="7"/>
-      <c r="BC22" s="7"/>
-      <c r="BD22" s="7"/>
-      <c r="BE22" s="7"/>
-      <c r="BF22" s="7"/>
-      <c r="BG22" s="7"/>
-      <c r="BH22" s="7"/>
-      <c r="BI22" s="7"/>
-      <c r="BJ22" s="7"/>
-      <c r="BK22" s="7"/>
-      <c r="BL22" s="7"/>
-      <c r="BM22" s="7"/>
-      <c r="BN22" s="7"/>
-      <c r="BO22" s="7"/>
-      <c r="BP22" s="7"/>
-      <c r="BQ22" s="7"/>
-      <c r="BR22" s="7"/>
-      <c r="BS22" s="7"/>
-      <c r="BT22" s="7"/>
-      <c r="BU22" s="7"/>
-      <c r="BV22" s="7"/>
-      <c r="BW22" s="7"/>
-      <c r="BX22" s="7"/>
-      <c r="BY22" s="7"/>
-      <c r="BZ22" s="7"/>
-      <c r="CA22" s="7"/>
-      <c r="CB22" s="7"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="3"/>
+      <c r="BO22" s="3"/>
+      <c r="BP22" s="3"/>
+      <c r="BQ22" s="3"/>
+      <c r="BR22" s="3"/>
+      <c r="BS22" s="3"/>
+      <c r="BT22" s="3"/>
+      <c r="BU22" s="3"/>
+      <c r="BV22" s="3"/>
+      <c r="BW22" s="3"/>
+      <c r="BX22" s="3"/>
+      <c r="BY22" s="3"/>
+      <c r="BZ22" s="3"/>
+      <c r="CA22" s="3"/>
+      <c r="CB22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -2635,10 +2620,10 @@
       <c r="CB23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -2717,10 +2702,10 @@
       <c r="CB24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -2798,174 +2783,174 @@
       <c r="CA25" s="7"/>
       <c r="CB25" s="7"/>
     </row>
-    <row r="26" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
-      <c r="AI26" s="14"/>
-      <c r="AJ26" s="14"/>
-      <c r="AK26" s="14"/>
-      <c r="AL26" s="14"/>
-      <c r="AM26" s="14"/>
-      <c r="AN26" s="14"/>
-      <c r="AO26" s="14"/>
-      <c r="AP26" s="14"/>
-      <c r="AQ26" s="14"/>
-      <c r="AR26" s="14"/>
-      <c r="AS26" s="14"/>
-      <c r="AT26" s="14"/>
-      <c r="AU26" s="14"/>
-      <c r="AV26" s="14"/>
-      <c r="AW26" s="14"/>
-      <c r="AX26" s="14"/>
-      <c r="AY26" s="14"/>
-      <c r="AZ26" s="14"/>
-      <c r="BA26" s="14"/>
-      <c r="BB26" s="14"/>
-      <c r="BC26" s="14"/>
-      <c r="BD26" s="14"/>
-      <c r="BE26" s="14"/>
-      <c r="BF26" s="14"/>
-      <c r="BG26" s="14"/>
-      <c r="BH26" s="14"/>
-      <c r="BI26" s="14"/>
-      <c r="BJ26" s="14"/>
-      <c r="BK26" s="14"/>
-      <c r="BL26" s="14"/>
-      <c r="BM26" s="14"/>
-      <c r="BN26" s="14"/>
-      <c r="BO26" s="14"/>
-      <c r="BP26" s="14"/>
-      <c r="BQ26" s="14"/>
-      <c r="BR26" s="14"/>
-      <c r="BS26" s="14"/>
-      <c r="BT26" s="14"/>
-      <c r="BU26" s="14"/>
-      <c r="BV26" s="14"/>
-      <c r="BW26" s="14"/>
-      <c r="BX26" s="14"/>
-      <c r="BY26" s="14"/>
-      <c r="BZ26" s="14"/>
-      <c r="CA26" s="14"/>
-      <c r="CB26" s="14"/>
+    <row r="26" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7"/>
+      <c r="AQ26" s="7"/>
+      <c r="AR26" s="7"/>
+      <c r="AS26" s="7"/>
+      <c r="AT26" s="7"/>
+      <c r="AU26" s="7"/>
+      <c r="AV26" s="7"/>
+      <c r="AW26" s="7"/>
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="7"/>
+      <c r="AZ26" s="7"/>
+      <c r="BA26" s="7"/>
+      <c r="BB26" s="7"/>
+      <c r="BC26" s="7"/>
+      <c r="BD26" s="7"/>
+      <c r="BE26" s="7"/>
+      <c r="BF26" s="7"/>
+      <c r="BG26" s="7"/>
+      <c r="BH26" s="7"/>
+      <c r="BI26" s="7"/>
+      <c r="BJ26" s="7"/>
+      <c r="BK26" s="7"/>
+      <c r="BL26" s="7"/>
+      <c r="BM26" s="7"/>
+      <c r="BN26" s="7"/>
+      <c r="BO26" s="7"/>
+      <c r="BP26" s="7"/>
+      <c r="BQ26" s="7"/>
+      <c r="BR26" s="7"/>
+      <c r="BS26" s="7"/>
+      <c r="BT26" s="7"/>
+      <c r="BU26" s="7"/>
+      <c r="BV26" s="7"/>
+      <c r="BW26" s="7"/>
+      <c r="BX26" s="7"/>
+      <c r="BY26" s="7"/>
+      <c r="BZ26" s="7"/>
+      <c r="CA26" s="7"/>
+      <c r="CB26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3"/>
-      <c r="AO27" s="3"/>
-      <c r="AP27" s="3"/>
-      <c r="AQ27" s="3"/>
-      <c r="AR27" s="3"/>
-      <c r="AS27" s="3"/>
-      <c r="AT27" s="3"/>
-      <c r="AU27" s="3"/>
-      <c r="AV27" s="3"/>
-      <c r="AW27" s="3"/>
-      <c r="AX27" s="3"/>
-      <c r="AY27" s="3"/>
-      <c r="AZ27" s="3"/>
-      <c r="BA27" s="3"/>
-      <c r="BB27" s="3"/>
-      <c r="BC27" s="3"/>
-      <c r="BD27" s="3"/>
-      <c r="BE27" s="3"/>
-      <c r="BF27" s="3"/>
-      <c r="BG27" s="3"/>
-      <c r="BH27" s="3"/>
-      <c r="BI27" s="3"/>
-      <c r="BJ27" s="3"/>
-      <c r="BK27" s="3"/>
-      <c r="BL27" s="3"/>
-      <c r="BM27" s="3"/>
-      <c r="BN27" s="3"/>
-      <c r="BO27" s="3"/>
-      <c r="BP27" s="3"/>
-      <c r="BQ27" s="3"/>
-      <c r="BR27" s="3"/>
-      <c r="BS27" s="3"/>
-      <c r="BT27" s="3"/>
-      <c r="BU27" s="3"/>
-      <c r="BV27" s="3"/>
-      <c r="BW27" s="3"/>
-      <c r="BX27" s="3"/>
-      <c r="BY27" s="3"/>
-      <c r="BZ27" s="3"/>
-      <c r="CA27" s="3"/>
-      <c r="CB27" s="3"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
+      <c r="AP27" s="7"/>
+      <c r="AQ27" s="7"/>
+      <c r="AR27" s="7"/>
+      <c r="AS27" s="7"/>
+      <c r="AT27" s="7"/>
+      <c r="AU27" s="7"/>
+      <c r="AV27" s="7"/>
+      <c r="AW27" s="7"/>
+      <c r="AX27" s="7"/>
+      <c r="AY27" s="7"/>
+      <c r="AZ27" s="7"/>
+      <c r="BA27" s="7"/>
+      <c r="BB27" s="7"/>
+      <c r="BC27" s="7"/>
+      <c r="BD27" s="7"/>
+      <c r="BE27" s="7"/>
+      <c r="BF27" s="7"/>
+      <c r="BG27" s="7"/>
+      <c r="BH27" s="7"/>
+      <c r="BI27" s="7"/>
+      <c r="BJ27" s="7"/>
+      <c r="BK27" s="7"/>
+      <c r="BL27" s="7"/>
+      <c r="BM27" s="7"/>
+      <c r="BN27" s="7"/>
+      <c r="BO27" s="7"/>
+      <c r="BP27" s="7"/>
+      <c r="BQ27" s="7"/>
+      <c r="BR27" s="7"/>
+      <c r="BS27" s="7"/>
+      <c r="BT27" s="7"/>
+      <c r="BU27" s="7"/>
+      <c r="BV27" s="7"/>
+      <c r="BW27" s="7"/>
+      <c r="BX27" s="7"/>
+      <c r="BY27" s="7"/>
+      <c r="BZ27" s="7"/>
+      <c r="CA27" s="7"/>
+      <c r="CB27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="7"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -3047,7 +3032,7 @@
     <row r="29" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="7"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -3211,7 +3196,7 @@
     <row r="31" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="3"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -3375,7 +3360,7 @@
     <row r="33" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -3457,8 +3442,8 @@
     <row r="34" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -3536,11 +3521,11 @@
       <c r="CA34" s="7"/>
       <c r="CB34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -3622,7 +3607,7 @@
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
@@ -3703,8 +3688,8 @@
     <row r="37" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -3785,8 +3770,8 @@
     <row r="38" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -3946,7 +3931,7 @@
       <c r="CA39" s="7"/>
       <c r="CB39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="7"/>
@@ -4684,7 +4669,7 @@
       <c r="CA48" s="7"/>
       <c r="CB48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="7"/>
@@ -5012,7 +4997,7 @@
       <c r="CA52" s="7"/>
       <c r="CB52" s="7"/>
     </row>
-    <row r="53" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="7"/>
@@ -5094,7 +5079,7 @@
       <c r="CA53" s="7"/>
       <c r="CB53" s="7"/>
     </row>
-    <row r="54" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="7"/>
@@ -5422,7 +5407,7 @@
       <c r="CA57" s="7"/>
       <c r="CB57" s="7"/>
     </row>
-    <row r="58" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="7"/>
@@ -6160,87 +6145,87 @@
       <c r="CA66" s="7"/>
       <c r="CB66" s="7"/>
     </row>
-    <row r="67" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="7"/>
-      <c r="W67" s="7"/>
-      <c r="X67" s="7"/>
-      <c r="Y67" s="7"/>
-      <c r="Z67" s="7"/>
-      <c r="AA67" s="7"/>
-      <c r="AB67" s="7"/>
-      <c r="AC67" s="7"/>
-      <c r="AD67" s="7"/>
-      <c r="AE67" s="7"/>
-      <c r="AF67" s="7"/>
-      <c r="AG67" s="7"/>
-      <c r="AH67" s="7"/>
-      <c r="AI67" s="7"/>
-      <c r="AJ67" s="7"/>
-      <c r="AK67" s="7"/>
-      <c r="AL67" s="7"/>
-      <c r="AM67" s="7"/>
-      <c r="AN67" s="7"/>
-      <c r="AO67" s="7"/>
-      <c r="AP67" s="7"/>
-      <c r="AQ67" s="7"/>
-      <c r="AR67" s="7"/>
-      <c r="AS67" s="7"/>
-      <c r="AT67" s="7"/>
-      <c r="AU67" s="7"/>
-      <c r="AV67" s="7"/>
-      <c r="AW67" s="7"/>
-      <c r="AX67" s="7"/>
-      <c r="AY67" s="7"/>
-      <c r="AZ67" s="7"/>
-      <c r="BA67" s="7"/>
-      <c r="BB67" s="7"/>
-      <c r="BC67" s="7"/>
-      <c r="BD67" s="7"/>
-      <c r="BE67" s="7"/>
-      <c r="BF67" s="7"/>
-      <c r="BG67" s="7"/>
-      <c r="BH67" s="7"/>
-      <c r="BI67" s="7"/>
-      <c r="BJ67" s="7"/>
-      <c r="BK67" s="7"/>
-      <c r="BL67" s="7"/>
-      <c r="BM67" s="7"/>
-      <c r="BN67" s="7"/>
-      <c r="BO67" s="7"/>
-      <c r="BP67" s="7"/>
-      <c r="BQ67" s="7"/>
-      <c r="BR67" s="7"/>
-      <c r="BS67" s="7"/>
-      <c r="BT67" s="7"/>
-      <c r="BU67" s="7"/>
-      <c r="BV67" s="7"/>
-      <c r="BW67" s="7"/>
-      <c r="BX67" s="7"/>
-      <c r="BY67" s="7"/>
-      <c r="BZ67" s="7"/>
-      <c r="CA67" s="7"/>
-      <c r="CB67" s="7"/>
+    <row r="67" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="5"/>
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="5"/>
+      <c r="AI67" s="5"/>
+      <c r="AJ67" s="5"/>
+      <c r="AK67" s="5"/>
+      <c r="AL67" s="5"/>
+      <c r="AM67" s="5"/>
+      <c r="AN67" s="5"/>
+      <c r="AO67" s="5"/>
+      <c r="AP67" s="5"/>
+      <c r="AQ67" s="5"/>
+      <c r="AR67" s="5"/>
+      <c r="AS67" s="5"/>
+      <c r="AT67" s="5"/>
+      <c r="AU67" s="5"/>
+      <c r="AV67" s="5"/>
+      <c r="AW67" s="5"/>
+      <c r="AX67" s="5"/>
+      <c r="AY67" s="5"/>
+      <c r="AZ67" s="5"/>
+      <c r="BA67" s="5"/>
+      <c r="BB67" s="5"/>
+      <c r="BC67" s="5"/>
+      <c r="BD67" s="5"/>
+      <c r="BE67" s="5"/>
+      <c r="BF67" s="5"/>
+      <c r="BG67" s="5"/>
+      <c r="BH67" s="5"/>
+      <c r="BI67" s="5"/>
+      <c r="BJ67" s="5"/>
+      <c r="BK67" s="5"/>
+      <c r="BL67" s="5"/>
+      <c r="BM67" s="5"/>
+      <c r="BN67" s="5"/>
+      <c r="BO67" s="5"/>
+      <c r="BP67" s="5"/>
+      <c r="BQ67" s="5"/>
+      <c r="BR67" s="5"/>
+      <c r="BS67" s="5"/>
+      <c r="BT67" s="5"/>
+      <c r="BU67" s="5"/>
+      <c r="BV67" s="5"/>
+      <c r="BW67" s="5"/>
+      <c r="BX67" s="5"/>
+      <c r="BY67" s="5"/>
+      <c r="BZ67" s="5"/>
+      <c r="CA67" s="5"/>
+      <c r="CB67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
@@ -6406,87 +6391,87 @@
       <c r="CA69" s="7"/>
       <c r="CB69" s="7"/>
     </row>
-    <row r="70" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="7"/>
-      <c r="R70" s="7"/>
-      <c r="S70" s="7"/>
-      <c r="T70" s="7"/>
-      <c r="U70" s="7"/>
-      <c r="V70" s="7"/>
-      <c r="W70" s="7"/>
-      <c r="X70" s="7"/>
-      <c r="Y70" s="7"/>
-      <c r="Z70" s="7"/>
-      <c r="AA70" s="7"/>
-      <c r="AB70" s="7"/>
-      <c r="AC70" s="7"/>
-      <c r="AD70" s="7"/>
-      <c r="AE70" s="7"/>
-      <c r="AF70" s="7"/>
-      <c r="AG70" s="7"/>
-      <c r="AH70" s="7"/>
-      <c r="AI70" s="7"/>
-      <c r="AJ70" s="7"/>
-      <c r="AK70" s="7"/>
-      <c r="AL70" s="7"/>
-      <c r="AM70" s="7"/>
-      <c r="AN70" s="7"/>
-      <c r="AO70" s="7"/>
-      <c r="AP70" s="7"/>
-      <c r="AQ70" s="7"/>
-      <c r="AR70" s="7"/>
-      <c r="AS70" s="7"/>
-      <c r="AT70" s="7"/>
-      <c r="AU70" s="7"/>
-      <c r="AV70" s="7"/>
-      <c r="AW70" s="7"/>
-      <c r="AX70" s="7"/>
-      <c r="AY70" s="7"/>
-      <c r="AZ70" s="7"/>
-      <c r="BA70" s="7"/>
-      <c r="BB70" s="7"/>
-      <c r="BC70" s="7"/>
-      <c r="BD70" s="7"/>
-      <c r="BE70" s="7"/>
-      <c r="BF70" s="7"/>
-      <c r="BG70" s="7"/>
-      <c r="BH70" s="7"/>
-      <c r="BI70" s="7"/>
-      <c r="BJ70" s="7"/>
-      <c r="BK70" s="7"/>
-      <c r="BL70" s="7"/>
-      <c r="BM70" s="7"/>
-      <c r="BN70" s="7"/>
-      <c r="BO70" s="7"/>
-      <c r="BP70" s="7"/>
-      <c r="BQ70" s="7"/>
-      <c r="BR70" s="7"/>
-      <c r="BS70" s="7"/>
-      <c r="BT70" s="7"/>
-      <c r="BU70" s="7"/>
-      <c r="BV70" s="7"/>
-      <c r="BW70" s="7"/>
-      <c r="BX70" s="7"/>
-      <c r="BY70" s="7"/>
-      <c r="BZ70" s="7"/>
-      <c r="CA70" s="7"/>
-      <c r="CB70" s="7"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="3"/>
+      <c r="AB70" s="3"/>
+      <c r="AC70" s="3"/>
+      <c r="AD70" s="3"/>
+      <c r="AE70" s="3"/>
+      <c r="AF70" s="3"/>
+      <c r="AG70" s="3"/>
+      <c r="AH70" s="3"/>
+      <c r="AI70" s="3"/>
+      <c r="AJ70" s="3"/>
+      <c r="AK70" s="3"/>
+      <c r="AL70" s="3"/>
+      <c r="AM70" s="3"/>
+      <c r="AN70" s="3"/>
+      <c r="AO70" s="3"/>
+      <c r="AP70" s="3"/>
+      <c r="AQ70" s="3"/>
+      <c r="AR70" s="3"/>
+      <c r="AS70" s="3"/>
+      <c r="AT70" s="3"/>
+      <c r="AU70" s="3"/>
+      <c r="AV70" s="3"/>
+      <c r="AW70" s="3"/>
+      <c r="AX70" s="3"/>
+      <c r="AY70" s="3"/>
+      <c r="AZ70" s="3"/>
+      <c r="BA70" s="3"/>
+      <c r="BB70" s="3"/>
+      <c r="BC70" s="3"/>
+      <c r="BD70" s="3"/>
+      <c r="BE70" s="3"/>
+      <c r="BF70" s="3"/>
+      <c r="BG70" s="3"/>
+      <c r="BH70" s="3"/>
+      <c r="BI70" s="3"/>
+      <c r="BJ70" s="3"/>
+      <c r="BK70" s="3"/>
+      <c r="BL70" s="3"/>
+      <c r="BM70" s="3"/>
+      <c r="BN70" s="3"/>
+      <c r="BO70" s="3"/>
+      <c r="BP70" s="3"/>
+      <c r="BQ70" s="3"/>
+      <c r="BR70" s="3"/>
+      <c r="BS70" s="3"/>
+      <c r="BT70" s="3"/>
+      <c r="BU70" s="3"/>
+      <c r="BV70" s="3"/>
+      <c r="BW70" s="3"/>
+      <c r="BX70" s="3"/>
+      <c r="BY70" s="3"/>
+      <c r="BZ70" s="3"/>
+      <c r="CA70" s="3"/>
+      <c r="CB70" s="3"/>
     </row>
     <row r="71" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
@@ -6570,87 +6555,87 @@
       <c r="CA71" s="7"/>
       <c r="CB71" s="7"/>
     </row>
-    <row r="72" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="5"/>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="5"/>
-      <c r="AA72" s="5"/>
-      <c r="AB72" s="5"/>
-      <c r="AC72" s="5"/>
-      <c r="AD72" s="5"/>
-      <c r="AE72" s="5"/>
-      <c r="AF72" s="5"/>
-      <c r="AG72" s="5"/>
-      <c r="AH72" s="5"/>
-      <c r="AI72" s="5"/>
-      <c r="AJ72" s="5"/>
-      <c r="AK72" s="5"/>
-      <c r="AL72" s="5"/>
-      <c r="AM72" s="5"/>
-      <c r="AN72" s="5"/>
-      <c r="AO72" s="5"/>
-      <c r="AP72" s="5"/>
-      <c r="AQ72" s="5"/>
-      <c r="AR72" s="5"/>
-      <c r="AS72" s="5"/>
-      <c r="AT72" s="5"/>
-      <c r="AU72" s="5"/>
-      <c r="AV72" s="5"/>
-      <c r="AW72" s="5"/>
-      <c r="AX72" s="5"/>
-      <c r="AY72" s="5"/>
-      <c r="AZ72" s="5"/>
-      <c r="BA72" s="5"/>
-      <c r="BB72" s="5"/>
-      <c r="BC72" s="5"/>
-      <c r="BD72" s="5"/>
-      <c r="BE72" s="5"/>
-      <c r="BF72" s="5"/>
-      <c r="BG72" s="5"/>
-      <c r="BH72" s="5"/>
-      <c r="BI72" s="5"/>
-      <c r="BJ72" s="5"/>
-      <c r="BK72" s="5"/>
-      <c r="BL72" s="5"/>
-      <c r="BM72" s="5"/>
-      <c r="BN72" s="5"/>
-      <c r="BO72" s="5"/>
-      <c r="BP72" s="5"/>
-      <c r="BQ72" s="5"/>
-      <c r="BR72" s="5"/>
-      <c r="BS72" s="5"/>
-      <c r="BT72" s="5"/>
-      <c r="BU72" s="5"/>
-      <c r="BV72" s="5"/>
-      <c r="BW72" s="5"/>
-      <c r="BX72" s="5"/>
-      <c r="BY72" s="5"/>
-      <c r="BZ72" s="5"/>
-      <c r="CA72" s="5"/>
-      <c r="CB72" s="5"/>
+    <row r="72" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="7"/>
+      <c r="AB72" s="7"/>
+      <c r="AC72" s="7"/>
+      <c r="AD72" s="7"/>
+      <c r="AE72" s="7"/>
+      <c r="AF72" s="7"/>
+      <c r="AG72" s="7"/>
+      <c r="AH72" s="7"/>
+      <c r="AI72" s="7"/>
+      <c r="AJ72" s="7"/>
+      <c r="AK72" s="7"/>
+      <c r="AL72" s="7"/>
+      <c r="AM72" s="7"/>
+      <c r="AN72" s="7"/>
+      <c r="AO72" s="7"/>
+      <c r="AP72" s="7"/>
+      <c r="AQ72" s="7"/>
+      <c r="AR72" s="7"/>
+      <c r="AS72" s="7"/>
+      <c r="AT72" s="7"/>
+      <c r="AU72" s="7"/>
+      <c r="AV72" s="7"/>
+      <c r="AW72" s="7"/>
+      <c r="AX72" s="7"/>
+      <c r="AY72" s="7"/>
+      <c r="AZ72" s="7"/>
+      <c r="BA72" s="7"/>
+      <c r="BB72" s="7"/>
+      <c r="BC72" s="7"/>
+      <c r="BD72" s="7"/>
+      <c r="BE72" s="7"/>
+      <c r="BF72" s="7"/>
+      <c r="BG72" s="7"/>
+      <c r="BH72" s="7"/>
+      <c r="BI72" s="7"/>
+      <c r="BJ72" s="7"/>
+      <c r="BK72" s="7"/>
+      <c r="BL72" s="7"/>
+      <c r="BM72" s="7"/>
+      <c r="BN72" s="7"/>
+      <c r="BO72" s="7"/>
+      <c r="BP72" s="7"/>
+      <c r="BQ72" s="7"/>
+      <c r="BR72" s="7"/>
+      <c r="BS72" s="7"/>
+      <c r="BT72" s="7"/>
+      <c r="BU72" s="7"/>
+      <c r="BV72" s="7"/>
+      <c r="BW72" s="7"/>
+      <c r="BX72" s="7"/>
+      <c r="BY72" s="7"/>
+      <c r="BZ72" s="7"/>
+      <c r="CA72" s="7"/>
+      <c r="CB72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
@@ -6816,87 +6801,87 @@
       <c r="CA74" s="7"/>
       <c r="CB74" s="7"/>
     </row>
-    <row r="75" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
-      <c r="AA75" s="3"/>
-      <c r="AB75" s="3"/>
-      <c r="AC75" s="3"/>
-      <c r="AD75" s="3"/>
-      <c r="AE75" s="3"/>
-      <c r="AF75" s="3"/>
-      <c r="AG75" s="3"/>
-      <c r="AH75" s="3"/>
-      <c r="AI75" s="3"/>
-      <c r="AJ75" s="3"/>
-      <c r="AK75" s="3"/>
-      <c r="AL75" s="3"/>
-      <c r="AM75" s="3"/>
-      <c r="AN75" s="3"/>
-      <c r="AO75" s="3"/>
-      <c r="AP75" s="3"/>
-      <c r="AQ75" s="3"/>
-      <c r="AR75" s="3"/>
-      <c r="AS75" s="3"/>
-      <c r="AT75" s="3"/>
-      <c r="AU75" s="3"/>
-      <c r="AV75" s="3"/>
-      <c r="AW75" s="3"/>
-      <c r="AX75" s="3"/>
-      <c r="AY75" s="3"/>
-      <c r="AZ75" s="3"/>
-      <c r="BA75" s="3"/>
-      <c r="BB75" s="3"/>
-      <c r="BC75" s="3"/>
-      <c r="BD75" s="3"/>
-      <c r="BE75" s="3"/>
-      <c r="BF75" s="3"/>
-      <c r="BG75" s="3"/>
-      <c r="BH75" s="3"/>
-      <c r="BI75" s="3"/>
-      <c r="BJ75" s="3"/>
-      <c r="BK75" s="3"/>
-      <c r="BL75" s="3"/>
-      <c r="BM75" s="3"/>
-      <c r="BN75" s="3"/>
-      <c r="BO75" s="3"/>
-      <c r="BP75" s="3"/>
-      <c r="BQ75" s="3"/>
-      <c r="BR75" s="3"/>
-      <c r="BS75" s="3"/>
-      <c r="BT75" s="3"/>
-      <c r="BU75" s="3"/>
-      <c r="BV75" s="3"/>
-      <c r="BW75" s="3"/>
-      <c r="BX75" s="3"/>
-      <c r="BY75" s="3"/>
-      <c r="BZ75" s="3"/>
-      <c r="CA75" s="3"/>
-      <c r="CB75" s="3"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
+      <c r="AC75" s="7"/>
+      <c r="AD75" s="7"/>
+      <c r="AE75" s="7"/>
+      <c r="AF75" s="7"/>
+      <c r="AG75" s="7"/>
+      <c r="AH75" s="7"/>
+      <c r="AI75" s="7"/>
+      <c r="AJ75" s="7"/>
+      <c r="AK75" s="7"/>
+      <c r="AL75" s="7"/>
+      <c r="AM75" s="7"/>
+      <c r="AN75" s="7"/>
+      <c r="AO75" s="7"/>
+      <c r="AP75" s="7"/>
+      <c r="AQ75" s="7"/>
+      <c r="AR75" s="7"/>
+      <c r="AS75" s="7"/>
+      <c r="AT75" s="7"/>
+      <c r="AU75" s="7"/>
+      <c r="AV75" s="7"/>
+      <c r="AW75" s="7"/>
+      <c r="AX75" s="7"/>
+      <c r="AY75" s="7"/>
+      <c r="AZ75" s="7"/>
+      <c r="BA75" s="7"/>
+      <c r="BB75" s="7"/>
+      <c r="BC75" s="7"/>
+      <c r="BD75" s="7"/>
+      <c r="BE75" s="7"/>
+      <c r="BF75" s="7"/>
+      <c r="BG75" s="7"/>
+      <c r="BH75" s="7"/>
+      <c r="BI75" s="7"/>
+      <c r="BJ75" s="7"/>
+      <c r="BK75" s="7"/>
+      <c r="BL75" s="7"/>
+      <c r="BM75" s="7"/>
+      <c r="BN75" s="7"/>
+      <c r="BO75" s="7"/>
+      <c r="BP75" s="7"/>
+      <c r="BQ75" s="7"/>
+      <c r="BR75" s="7"/>
+      <c r="BS75" s="7"/>
+      <c r="BT75" s="7"/>
+      <c r="BU75" s="7"/>
+      <c r="BV75" s="7"/>
+      <c r="BW75" s="7"/>
+      <c r="BX75" s="7"/>
+      <c r="BY75" s="7"/>
+      <c r="BZ75" s="7"/>
+      <c r="CA75" s="7"/>
+      <c r="CB75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
@@ -7226,7 +7211,7 @@
       <c r="CA79" s="7"/>
       <c r="CB79" s="7"/>
     </row>
-    <row r="80" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="7"/>
@@ -7636,87 +7621,87 @@
       <c r="CA84" s="7"/>
       <c r="CB84" s="7"/>
     </row>
-    <row r="85" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="7"/>
-      <c r="U85" s="7"/>
-      <c r="V85" s="7"/>
-      <c r="W85" s="7"/>
-      <c r="X85" s="7"/>
-      <c r="Y85" s="7"/>
-      <c r="Z85" s="7"/>
-      <c r="AA85" s="7"/>
-      <c r="AB85" s="7"/>
-      <c r="AC85" s="7"/>
-      <c r="AD85" s="7"/>
-      <c r="AE85" s="7"/>
-      <c r="AF85" s="7"/>
-      <c r="AG85" s="7"/>
-      <c r="AH85" s="7"/>
-      <c r="AI85" s="7"/>
-      <c r="AJ85" s="7"/>
-      <c r="AK85" s="7"/>
-      <c r="AL85" s="7"/>
-      <c r="AM85" s="7"/>
-      <c r="AN85" s="7"/>
-      <c r="AO85" s="7"/>
-      <c r="AP85" s="7"/>
-      <c r="AQ85" s="7"/>
-      <c r="AR85" s="7"/>
-      <c r="AS85" s="7"/>
-      <c r="AT85" s="7"/>
-      <c r="AU85" s="7"/>
-      <c r="AV85" s="7"/>
-      <c r="AW85" s="7"/>
-      <c r="AX85" s="7"/>
-      <c r="AY85" s="7"/>
-      <c r="AZ85" s="7"/>
-      <c r="BA85" s="7"/>
-      <c r="BB85" s="7"/>
-      <c r="BC85" s="7"/>
-      <c r="BD85" s="7"/>
-      <c r="BE85" s="7"/>
-      <c r="BF85" s="7"/>
-      <c r="BG85" s="7"/>
-      <c r="BH85" s="7"/>
-      <c r="BI85" s="7"/>
-      <c r="BJ85" s="7"/>
-      <c r="BK85" s="7"/>
-      <c r="BL85" s="7"/>
-      <c r="BM85" s="7"/>
-      <c r="BN85" s="7"/>
-      <c r="BO85" s="7"/>
-      <c r="BP85" s="7"/>
-      <c r="BQ85" s="7"/>
-      <c r="BR85" s="7"/>
-      <c r="BS85" s="7"/>
-      <c r="BT85" s="7"/>
-      <c r="BU85" s="7"/>
-      <c r="BV85" s="7"/>
-      <c r="BW85" s="7"/>
-      <c r="BX85" s="7"/>
-      <c r="BY85" s="7"/>
-      <c r="BZ85" s="7"/>
-      <c r="CA85" s="7"/>
-      <c r="CB85" s="7"/>
+    <row r="85" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+      <c r="W85" s="5"/>
+      <c r="X85" s="5"/>
+      <c r="Y85" s="5"/>
+      <c r="Z85" s="5"/>
+      <c r="AA85" s="5"/>
+      <c r="AB85" s="5"/>
+      <c r="AC85" s="5"/>
+      <c r="AD85" s="5"/>
+      <c r="AE85" s="5"/>
+      <c r="AF85" s="5"/>
+      <c r="AG85" s="5"/>
+      <c r="AH85" s="5"/>
+      <c r="AI85" s="5"/>
+      <c r="AJ85" s="5"/>
+      <c r="AK85" s="5"/>
+      <c r="AL85" s="5"/>
+      <c r="AM85" s="5"/>
+      <c r="AN85" s="5"/>
+      <c r="AO85" s="5"/>
+      <c r="AP85" s="5"/>
+      <c r="AQ85" s="5"/>
+      <c r="AR85" s="5"/>
+      <c r="AS85" s="5"/>
+      <c r="AT85" s="5"/>
+      <c r="AU85" s="5"/>
+      <c r="AV85" s="5"/>
+      <c r="AW85" s="5"/>
+      <c r="AX85" s="5"/>
+      <c r="AY85" s="5"/>
+      <c r="AZ85" s="5"/>
+      <c r="BA85" s="5"/>
+      <c r="BB85" s="5"/>
+      <c r="BC85" s="5"/>
+      <c r="BD85" s="5"/>
+      <c r="BE85" s="5"/>
+      <c r="BF85" s="5"/>
+      <c r="BG85" s="5"/>
+      <c r="BH85" s="5"/>
+      <c r="BI85" s="5"/>
+      <c r="BJ85" s="5"/>
+      <c r="BK85" s="5"/>
+      <c r="BL85" s="5"/>
+      <c r="BM85" s="5"/>
+      <c r="BN85" s="5"/>
+      <c r="BO85" s="5"/>
+      <c r="BP85" s="5"/>
+      <c r="BQ85" s="5"/>
+      <c r="BR85" s="5"/>
+      <c r="BS85" s="5"/>
+      <c r="BT85" s="5"/>
+      <c r="BU85" s="5"/>
+      <c r="BV85" s="5"/>
+      <c r="BW85" s="5"/>
+      <c r="BX85" s="5"/>
+      <c r="BY85" s="5"/>
+      <c r="BZ85" s="5"/>
+      <c r="CA85" s="5"/>
+      <c r="CB85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2"/>
@@ -7882,87 +7867,87 @@
       <c r="CA87" s="7"/>
       <c r="CB87" s="7"/>
     </row>
-    <row r="88" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="7"/>
-      <c r="S88" s="7"/>
-      <c r="T88" s="7"/>
-      <c r="U88" s="7"/>
-      <c r="V88" s="7"/>
-      <c r="W88" s="7"/>
-      <c r="X88" s="7"/>
-      <c r="Y88" s="7"/>
-      <c r="Z88" s="7"/>
-      <c r="AA88" s="7"/>
-      <c r="AB88" s="7"/>
-      <c r="AC88" s="7"/>
-      <c r="AD88" s="7"/>
-      <c r="AE88" s="7"/>
-      <c r="AF88" s="7"/>
-      <c r="AG88" s="7"/>
-      <c r="AH88" s="7"/>
-      <c r="AI88" s="7"/>
-      <c r="AJ88" s="7"/>
-      <c r="AK88" s="7"/>
-      <c r="AL88" s="7"/>
-      <c r="AM88" s="7"/>
-      <c r="AN88" s="7"/>
-      <c r="AO88" s="7"/>
-      <c r="AP88" s="7"/>
-      <c r="AQ88" s="7"/>
-      <c r="AR88" s="7"/>
-      <c r="AS88" s="7"/>
-      <c r="AT88" s="7"/>
-      <c r="AU88" s="7"/>
-      <c r="AV88" s="7"/>
-      <c r="AW88" s="7"/>
-      <c r="AX88" s="7"/>
-      <c r="AY88" s="7"/>
-      <c r="AZ88" s="7"/>
-      <c r="BA88" s="7"/>
-      <c r="BB88" s="7"/>
-      <c r="BC88" s="7"/>
-      <c r="BD88" s="7"/>
-      <c r="BE88" s="7"/>
-      <c r="BF88" s="7"/>
-      <c r="BG88" s="7"/>
-      <c r="BH88" s="7"/>
-      <c r="BI88" s="7"/>
-      <c r="BJ88" s="7"/>
-      <c r="BK88" s="7"/>
-      <c r="BL88" s="7"/>
-      <c r="BM88" s="7"/>
-      <c r="BN88" s="7"/>
-      <c r="BO88" s="7"/>
-      <c r="BP88" s="7"/>
-      <c r="BQ88" s="7"/>
-      <c r="BR88" s="7"/>
-      <c r="BS88" s="7"/>
-      <c r="BT88" s="7"/>
-      <c r="BU88" s="7"/>
-      <c r="BV88" s="7"/>
-      <c r="BW88" s="7"/>
-      <c r="BX88" s="7"/>
-      <c r="BY88" s="7"/>
-      <c r="BZ88" s="7"/>
-      <c r="CA88" s="7"/>
-      <c r="CB88" s="7"/>
+    <row r="88" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
+      <c r="AA88" s="5"/>
+      <c r="AB88" s="5"/>
+      <c r="AC88" s="5"/>
+      <c r="AD88" s="5"/>
+      <c r="AE88" s="5"/>
+      <c r="AF88" s="5"/>
+      <c r="AG88" s="5"/>
+      <c r="AH88" s="5"/>
+      <c r="AI88" s="5"/>
+      <c r="AJ88" s="5"/>
+      <c r="AK88" s="5"/>
+      <c r="AL88" s="5"/>
+      <c r="AM88" s="5"/>
+      <c r="AN88" s="5"/>
+      <c r="AO88" s="5"/>
+      <c r="AP88" s="5"/>
+      <c r="AQ88" s="5"/>
+      <c r="AR88" s="5"/>
+      <c r="AS88" s="5"/>
+      <c r="AT88" s="5"/>
+      <c r="AU88" s="5"/>
+      <c r="AV88" s="5"/>
+      <c r="AW88" s="5"/>
+      <c r="AX88" s="5"/>
+      <c r="AY88" s="5"/>
+      <c r="AZ88" s="5"/>
+      <c r="BA88" s="5"/>
+      <c r="BB88" s="5"/>
+      <c r="BC88" s="5"/>
+      <c r="BD88" s="5"/>
+      <c r="BE88" s="5"/>
+      <c r="BF88" s="5"/>
+      <c r="BG88" s="5"/>
+      <c r="BH88" s="5"/>
+      <c r="BI88" s="5"/>
+      <c r="BJ88" s="5"/>
+      <c r="BK88" s="5"/>
+      <c r="BL88" s="5"/>
+      <c r="BM88" s="5"/>
+      <c r="BN88" s="5"/>
+      <c r="BO88" s="5"/>
+      <c r="BP88" s="5"/>
+      <c r="BQ88" s="5"/>
+      <c r="BR88" s="5"/>
+      <c r="BS88" s="5"/>
+      <c r="BT88" s="5"/>
+      <c r="BU88" s="5"/>
+      <c r="BV88" s="5"/>
+      <c r="BW88" s="5"/>
+      <c r="BX88" s="5"/>
+      <c r="BY88" s="5"/>
+      <c r="BZ88" s="5"/>
+      <c r="CA88" s="5"/>
+      <c r="CB88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
@@ -8046,87 +8031,87 @@
       <c r="CA89" s="7"/>
       <c r="CB89" s="7"/>
     </row>
-    <row r="90" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-      <c r="U90" s="5"/>
-      <c r="V90" s="5"/>
-      <c r="W90" s="5"/>
-      <c r="X90" s="5"/>
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="5"/>
-      <c r="AA90" s="5"/>
-      <c r="AB90" s="5"/>
-      <c r="AC90" s="5"/>
-      <c r="AD90" s="5"/>
-      <c r="AE90" s="5"/>
-      <c r="AF90" s="5"/>
-      <c r="AG90" s="5"/>
-      <c r="AH90" s="5"/>
-      <c r="AI90" s="5"/>
-      <c r="AJ90" s="5"/>
-      <c r="AK90" s="5"/>
-      <c r="AL90" s="5"/>
-      <c r="AM90" s="5"/>
-      <c r="AN90" s="5"/>
-      <c r="AO90" s="5"/>
-      <c r="AP90" s="5"/>
-      <c r="AQ90" s="5"/>
-      <c r="AR90" s="5"/>
-      <c r="AS90" s="5"/>
-      <c r="AT90" s="5"/>
-      <c r="AU90" s="5"/>
-      <c r="AV90" s="5"/>
-      <c r="AW90" s="5"/>
-      <c r="AX90" s="5"/>
-      <c r="AY90" s="5"/>
-      <c r="AZ90" s="5"/>
-      <c r="BA90" s="5"/>
-      <c r="BB90" s="5"/>
-      <c r="BC90" s="5"/>
-      <c r="BD90" s="5"/>
-      <c r="BE90" s="5"/>
-      <c r="BF90" s="5"/>
-      <c r="BG90" s="5"/>
-      <c r="BH90" s="5"/>
-      <c r="BI90" s="5"/>
-      <c r="BJ90" s="5"/>
-      <c r="BK90" s="5"/>
-      <c r="BL90" s="5"/>
-      <c r="BM90" s="5"/>
-      <c r="BN90" s="5"/>
-      <c r="BO90" s="5"/>
-      <c r="BP90" s="5"/>
-      <c r="BQ90" s="5"/>
-      <c r="BR90" s="5"/>
-      <c r="BS90" s="5"/>
-      <c r="BT90" s="5"/>
-      <c r="BU90" s="5"/>
-      <c r="BV90" s="5"/>
-      <c r="BW90" s="5"/>
-      <c r="BX90" s="5"/>
-      <c r="BY90" s="5"/>
-      <c r="BZ90" s="5"/>
-      <c r="CA90" s="5"/>
-      <c r="CB90" s="5"/>
+    <row r="90" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
+      <c r="W90" s="7"/>
+      <c r="X90" s="7"/>
+      <c r="Y90" s="7"/>
+      <c r="Z90" s="7"/>
+      <c r="AA90" s="7"/>
+      <c r="AB90" s="7"/>
+      <c r="AC90" s="7"/>
+      <c r="AD90" s="7"/>
+      <c r="AE90" s="7"/>
+      <c r="AF90" s="7"/>
+      <c r="AG90" s="7"/>
+      <c r="AH90" s="7"/>
+      <c r="AI90" s="7"/>
+      <c r="AJ90" s="7"/>
+      <c r="AK90" s="7"/>
+      <c r="AL90" s="7"/>
+      <c r="AM90" s="7"/>
+      <c r="AN90" s="7"/>
+      <c r="AO90" s="7"/>
+      <c r="AP90" s="7"/>
+      <c r="AQ90" s="7"/>
+      <c r="AR90" s="7"/>
+      <c r="AS90" s="7"/>
+      <c r="AT90" s="7"/>
+      <c r="AU90" s="7"/>
+      <c r="AV90" s="7"/>
+      <c r="AW90" s="7"/>
+      <c r="AX90" s="7"/>
+      <c r="AY90" s="7"/>
+      <c r="AZ90" s="7"/>
+      <c r="BA90" s="7"/>
+      <c r="BB90" s="7"/>
+      <c r="BC90" s="7"/>
+      <c r="BD90" s="7"/>
+      <c r="BE90" s="7"/>
+      <c r="BF90" s="7"/>
+      <c r="BG90" s="7"/>
+      <c r="BH90" s="7"/>
+      <c r="BI90" s="7"/>
+      <c r="BJ90" s="7"/>
+      <c r="BK90" s="7"/>
+      <c r="BL90" s="7"/>
+      <c r="BM90" s="7"/>
+      <c r="BN90" s="7"/>
+      <c r="BO90" s="7"/>
+      <c r="BP90" s="7"/>
+      <c r="BQ90" s="7"/>
+      <c r="BR90" s="7"/>
+      <c r="BS90" s="7"/>
+      <c r="BT90" s="7"/>
+      <c r="BU90" s="7"/>
+      <c r="BV90" s="7"/>
+      <c r="BW90" s="7"/>
+      <c r="BX90" s="7"/>
+      <c r="BY90" s="7"/>
+      <c r="BZ90" s="7"/>
+      <c r="CA90" s="7"/>
+      <c r="CB90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
@@ -8210,251 +8195,251 @@
       <c r="CA91" s="7"/>
       <c r="CB91" s="7"/>
     </row>
-    <row r="92" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="7"/>
-      <c r="T92" s="7"/>
-      <c r="U92" s="7"/>
-      <c r="V92" s="7"/>
-      <c r="W92" s="7"/>
-      <c r="X92" s="7"/>
-      <c r="Y92" s="7"/>
-      <c r="Z92" s="7"/>
-      <c r="AA92" s="7"/>
-      <c r="AB92" s="7"/>
-      <c r="AC92" s="7"/>
-      <c r="AD92" s="7"/>
-      <c r="AE92" s="7"/>
-      <c r="AF92" s="7"/>
-      <c r="AG92" s="7"/>
-      <c r="AH92" s="7"/>
-      <c r="AI92" s="7"/>
-      <c r="AJ92" s="7"/>
-      <c r="AK92" s="7"/>
-      <c r="AL92" s="7"/>
-      <c r="AM92" s="7"/>
-      <c r="AN92" s="7"/>
-      <c r="AO92" s="7"/>
-      <c r="AP92" s="7"/>
-      <c r="AQ92" s="7"/>
-      <c r="AR92" s="7"/>
-      <c r="AS92" s="7"/>
-      <c r="AT92" s="7"/>
-      <c r="AU92" s="7"/>
-      <c r="AV92" s="7"/>
-      <c r="AW92" s="7"/>
-      <c r="AX92" s="7"/>
-      <c r="AY92" s="7"/>
-      <c r="AZ92" s="7"/>
-      <c r="BA92" s="7"/>
-      <c r="BB92" s="7"/>
-      <c r="BC92" s="7"/>
-      <c r="BD92" s="7"/>
-      <c r="BE92" s="7"/>
-      <c r="BF92" s="7"/>
-      <c r="BG92" s="7"/>
-      <c r="BH92" s="7"/>
-      <c r="BI92" s="7"/>
-      <c r="BJ92" s="7"/>
-      <c r="BK92" s="7"/>
-      <c r="BL92" s="7"/>
-      <c r="BM92" s="7"/>
-      <c r="BN92" s="7"/>
-      <c r="BO92" s="7"/>
-      <c r="BP92" s="7"/>
-      <c r="BQ92" s="7"/>
-      <c r="BR92" s="7"/>
-      <c r="BS92" s="7"/>
-      <c r="BT92" s="7"/>
-      <c r="BU92" s="7"/>
-      <c r="BV92" s="7"/>
-      <c r="BW92" s="7"/>
-      <c r="BX92" s="7"/>
-      <c r="BY92" s="7"/>
-      <c r="BZ92" s="7"/>
-      <c r="CA92" s="7"/>
-      <c r="CB92" s="7"/>
-    </row>
-    <row r="93" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5"/>
-      <c r="V93" s="5"/>
-      <c r="W93" s="5"/>
-      <c r="X93" s="5"/>
-      <c r="Y93" s="5"/>
-      <c r="Z93" s="5"/>
-      <c r="AA93" s="5"/>
-      <c r="AB93" s="5"/>
-      <c r="AC93" s="5"/>
-      <c r="AD93" s="5"/>
-      <c r="AE93" s="5"/>
-      <c r="AF93" s="5"/>
-      <c r="AG93" s="5"/>
-      <c r="AH93" s="5"/>
-      <c r="AI93" s="5"/>
-      <c r="AJ93" s="5"/>
-      <c r="AK93" s="5"/>
-      <c r="AL93" s="5"/>
-      <c r="AM93" s="5"/>
-      <c r="AN93" s="5"/>
-      <c r="AO93" s="5"/>
-      <c r="AP93" s="5"/>
-      <c r="AQ93" s="5"/>
-      <c r="AR93" s="5"/>
-      <c r="AS93" s="5"/>
-      <c r="AT93" s="5"/>
-      <c r="AU93" s="5"/>
-      <c r="AV93" s="5"/>
-      <c r="AW93" s="5"/>
-      <c r="AX93" s="5"/>
-      <c r="AY93" s="5"/>
-      <c r="AZ93" s="5"/>
-      <c r="BA93" s="5"/>
-      <c r="BB93" s="5"/>
-      <c r="BC93" s="5"/>
-      <c r="BD93" s="5"/>
-      <c r="BE93" s="5"/>
-      <c r="BF93" s="5"/>
-      <c r="BG93" s="5"/>
-      <c r="BH93" s="5"/>
-      <c r="BI93" s="5"/>
-      <c r="BJ93" s="5"/>
-      <c r="BK93" s="5"/>
-      <c r="BL93" s="5"/>
-      <c r="BM93" s="5"/>
-      <c r="BN93" s="5"/>
-      <c r="BO93" s="5"/>
-      <c r="BP93" s="5"/>
-      <c r="BQ93" s="5"/>
-      <c r="BR93" s="5"/>
-      <c r="BS93" s="5"/>
-      <c r="BT93" s="5"/>
-      <c r="BU93" s="5"/>
-      <c r="BV93" s="5"/>
-      <c r="BW93" s="5"/>
-      <c r="BX93" s="5"/>
-      <c r="BY93" s="5"/>
-      <c r="BZ93" s="5"/>
-      <c r="CA93" s="5"/>
-      <c r="CB93" s="5"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3"/>
+      <c r="AA92" s="3"/>
+      <c r="AB92" s="3"/>
+      <c r="AC92" s="3"/>
+      <c r="AD92" s="3"/>
+      <c r="AE92" s="3"/>
+      <c r="AF92" s="3"/>
+      <c r="AG92" s="3"/>
+      <c r="AH92" s="3"/>
+      <c r="AI92" s="3"/>
+      <c r="AJ92" s="3"/>
+      <c r="AK92" s="3"/>
+      <c r="AL92" s="3"/>
+      <c r="AM92" s="3"/>
+      <c r="AN92" s="3"/>
+      <c r="AO92" s="3"/>
+      <c r="AP92" s="3"/>
+      <c r="AQ92" s="3"/>
+      <c r="AR92" s="3"/>
+      <c r="AS92" s="3"/>
+      <c r="AT92" s="3"/>
+      <c r="AU92" s="3"/>
+      <c r="AV92" s="3"/>
+      <c r="AW92" s="3"/>
+      <c r="AX92" s="3"/>
+      <c r="AY92" s="3"/>
+      <c r="AZ92" s="3"/>
+      <c r="BA92" s="3"/>
+      <c r="BB92" s="3"/>
+      <c r="BC92" s="3"/>
+      <c r="BD92" s="3"/>
+      <c r="BE92" s="3"/>
+      <c r="BF92" s="3"/>
+      <c r="BG92" s="3"/>
+      <c r="BH92" s="3"/>
+      <c r="BI92" s="3"/>
+      <c r="BJ92" s="3"/>
+      <c r="BK92" s="3"/>
+      <c r="BL92" s="3"/>
+      <c r="BM92" s="3"/>
+      <c r="BN92" s="3"/>
+      <c r="BO92" s="3"/>
+      <c r="BP92" s="3"/>
+      <c r="BQ92" s="3"/>
+      <c r="BR92" s="3"/>
+      <c r="BS92" s="3"/>
+      <c r="BT92" s="3"/>
+      <c r="BU92" s="3"/>
+      <c r="BV92" s="3"/>
+      <c r="BW92" s="3"/>
+      <c r="BX92" s="3"/>
+      <c r="BY92" s="3"/>
+      <c r="BZ92" s="3"/>
+      <c r="CA92" s="3"/>
+      <c r="CB92" s="3"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+      <c r="X93" s="3"/>
+      <c r="Y93" s="3"/>
+      <c r="Z93" s="3"/>
+      <c r="AA93" s="3"/>
+      <c r="AB93" s="3"/>
+      <c r="AC93" s="3"/>
+      <c r="AD93" s="3"/>
+      <c r="AE93" s="3"/>
+      <c r="AF93" s="3"/>
+      <c r="AG93" s="3"/>
+      <c r="AH93" s="3"/>
+      <c r="AI93" s="3"/>
+      <c r="AJ93" s="3"/>
+      <c r="AK93" s="3"/>
+      <c r="AL93" s="3"/>
+      <c r="AM93" s="3"/>
+      <c r="AN93" s="3"/>
+      <c r="AO93" s="3"/>
+      <c r="AP93" s="3"/>
+      <c r="AQ93" s="3"/>
+      <c r="AR93" s="3"/>
+      <c r="AS93" s="3"/>
+      <c r="AT93" s="3"/>
+      <c r="AU93" s="3"/>
+      <c r="AV93" s="3"/>
+      <c r="AW93" s="3"/>
+      <c r="AX93" s="3"/>
+      <c r="AY93" s="3"/>
+      <c r="AZ93" s="3"/>
+      <c r="BA93" s="3"/>
+      <c r="BB93" s="3"/>
+      <c r="BC93" s="3"/>
+      <c r="BD93" s="3"/>
+      <c r="BE93" s="3"/>
+      <c r="BF93" s="3"/>
+      <c r="BG93" s="3"/>
+      <c r="BH93" s="3"/>
+      <c r="BI93" s="3"/>
+      <c r="BJ93" s="3"/>
+      <c r="BK93" s="3"/>
+      <c r="BL93" s="3"/>
+      <c r="BM93" s="3"/>
+      <c r="BN93" s="3"/>
+      <c r="BO93" s="3"/>
+      <c r="BP93" s="3"/>
+      <c r="BQ93" s="3"/>
+      <c r="BR93" s="3"/>
+      <c r="BS93" s="3"/>
+      <c r="BT93" s="3"/>
+      <c r="BU93" s="3"/>
+      <c r="BV93" s="3"/>
+      <c r="BW93" s="3"/>
+      <c r="BX93" s="3"/>
+      <c r="BY93" s="3"/>
+      <c r="BZ93" s="3"/>
+      <c r="CA93" s="3"/>
+      <c r="CB93" s="3"/>
     </row>
     <row r="94" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
-      <c r="S94" s="7"/>
-      <c r="T94" s="7"/>
-      <c r="U94" s="7"/>
-      <c r="V94" s="7"/>
-      <c r="W94" s="7"/>
-      <c r="X94" s="7"/>
-      <c r="Y94" s="7"/>
-      <c r="Z94" s="7"/>
-      <c r="AA94" s="7"/>
-      <c r="AB94" s="7"/>
-      <c r="AC94" s="7"/>
-      <c r="AD94" s="7"/>
-      <c r="AE94" s="7"/>
-      <c r="AF94" s="7"/>
-      <c r="AG94" s="7"/>
-      <c r="AH94" s="7"/>
-      <c r="AI94" s="7"/>
-      <c r="AJ94" s="7"/>
-      <c r="AK94" s="7"/>
-      <c r="AL94" s="7"/>
-      <c r="AM94" s="7"/>
-      <c r="AN94" s="7"/>
-      <c r="AO94" s="7"/>
-      <c r="AP94" s="7"/>
-      <c r="AQ94" s="7"/>
-      <c r="AR94" s="7"/>
-      <c r="AS94" s="7"/>
-      <c r="AT94" s="7"/>
-      <c r="AU94" s="7"/>
-      <c r="AV94" s="7"/>
-      <c r="AW94" s="7"/>
-      <c r="AX94" s="7"/>
-      <c r="AY94" s="7"/>
-      <c r="AZ94" s="7"/>
-      <c r="BA94" s="7"/>
-      <c r="BB94" s="7"/>
-      <c r="BC94" s="7"/>
-      <c r="BD94" s="7"/>
-      <c r="BE94" s="7"/>
-      <c r="BF94" s="7"/>
-      <c r="BG94" s="7"/>
-      <c r="BH94" s="7"/>
-      <c r="BI94" s="7"/>
-      <c r="BJ94" s="7"/>
-      <c r="BK94" s="7"/>
-      <c r="BL94" s="7"/>
-      <c r="BM94" s="7"/>
-      <c r="BN94" s="7"/>
-      <c r="BO94" s="7"/>
-      <c r="BP94" s="7"/>
-      <c r="BQ94" s="7"/>
-      <c r="BR94" s="7"/>
-      <c r="BS94" s="7"/>
-      <c r="BT94" s="7"/>
-      <c r="BU94" s="7"/>
-      <c r="BV94" s="7"/>
-      <c r="BW94" s="7"/>
-      <c r="BX94" s="7"/>
-      <c r="BY94" s="7"/>
-      <c r="BZ94" s="7"/>
-      <c r="CA94" s="7"/>
-      <c r="CB94" s="7"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="3"/>
+      <c r="AA94" s="3"/>
+      <c r="AB94" s="3"/>
+      <c r="AC94" s="3"/>
+      <c r="AD94" s="3"/>
+      <c r="AE94" s="3"/>
+      <c r="AF94" s="3"/>
+      <c r="AG94" s="3"/>
+      <c r="AH94" s="3"/>
+      <c r="AI94" s="3"/>
+      <c r="AJ94" s="3"/>
+      <c r="AK94" s="3"/>
+      <c r="AL94" s="3"/>
+      <c r="AM94" s="3"/>
+      <c r="AN94" s="3"/>
+      <c r="AO94" s="3"/>
+      <c r="AP94" s="3"/>
+      <c r="AQ94" s="3"/>
+      <c r="AR94" s="3"/>
+      <c r="AS94" s="3"/>
+      <c r="AT94" s="3"/>
+      <c r="AU94" s="3"/>
+      <c r="AV94" s="3"/>
+      <c r="AW94" s="3"/>
+      <c r="AX94" s="3"/>
+      <c r="AY94" s="3"/>
+      <c r="AZ94" s="3"/>
+      <c r="BA94" s="3"/>
+      <c r="BB94" s="3"/>
+      <c r="BC94" s="3"/>
+      <c r="BD94" s="3"/>
+      <c r="BE94" s="3"/>
+      <c r="BF94" s="3"/>
+      <c r="BG94" s="3"/>
+      <c r="BH94" s="3"/>
+      <c r="BI94" s="3"/>
+      <c r="BJ94" s="3"/>
+      <c r="BK94" s="3"/>
+      <c r="BL94" s="3"/>
+      <c r="BM94" s="3"/>
+      <c r="BN94" s="3"/>
+      <c r="BO94" s="3"/>
+      <c r="BP94" s="3"/>
+      <c r="BQ94" s="3"/>
+      <c r="BR94" s="3"/>
+      <c r="BS94" s="3"/>
+      <c r="BT94" s="3"/>
+      <c r="BU94" s="3"/>
+      <c r="BV94" s="3"/>
+      <c r="BW94" s="3"/>
+      <c r="BX94" s="3"/>
+      <c r="BY94" s="3"/>
+      <c r="BZ94" s="3"/>
+      <c r="CA94" s="3"/>
+      <c r="CB94" s="3"/>
     </row>
     <row r="95" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
@@ -8620,257 +8605,257 @@
       <c r="CA96" s="7"/>
       <c r="CB96" s="7"/>
     </row>
-    <row r="97" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-      <c r="N97" s="3"/>
-      <c r="O97" s="3"/>
-      <c r="P97" s="3"/>
-      <c r="Q97" s="3"/>
-      <c r="R97" s="3"/>
-      <c r="S97" s="3"/>
-      <c r="T97" s="3"/>
-      <c r="U97" s="3"/>
-      <c r="V97" s="3"/>
-      <c r="W97" s="3"/>
-      <c r="X97" s="3"/>
-      <c r="Y97" s="3"/>
-      <c r="Z97" s="3"/>
-      <c r="AA97" s="3"/>
-      <c r="AB97" s="3"/>
-      <c r="AC97" s="3"/>
-      <c r="AD97" s="3"/>
-      <c r="AE97" s="3"/>
-      <c r="AF97" s="3"/>
-      <c r="AG97" s="3"/>
-      <c r="AH97" s="3"/>
-      <c r="AI97" s="3"/>
-      <c r="AJ97" s="3"/>
-      <c r="AK97" s="3"/>
-      <c r="AL97" s="3"/>
-      <c r="AM97" s="3"/>
-      <c r="AN97" s="3"/>
-      <c r="AO97" s="3"/>
-      <c r="AP97" s="3"/>
-      <c r="AQ97" s="3"/>
-      <c r="AR97" s="3"/>
-      <c r="AS97" s="3"/>
-      <c r="AT97" s="3"/>
-      <c r="AU97" s="3"/>
-      <c r="AV97" s="3"/>
-      <c r="AW97" s="3"/>
-      <c r="AX97" s="3"/>
-      <c r="AY97" s="3"/>
-      <c r="AZ97" s="3"/>
-      <c r="BA97" s="3"/>
-      <c r="BB97" s="3"/>
-      <c r="BC97" s="3"/>
-      <c r="BD97" s="3"/>
-      <c r="BE97" s="3"/>
-      <c r="BF97" s="3"/>
-      <c r="BG97" s="3"/>
-      <c r="BH97" s="3"/>
-      <c r="BI97" s="3"/>
-      <c r="BJ97" s="3"/>
-      <c r="BK97" s="3"/>
-      <c r="BL97" s="3"/>
-      <c r="BM97" s="3"/>
-      <c r="BN97" s="3"/>
-      <c r="BO97" s="3"/>
-      <c r="BP97" s="3"/>
-      <c r="BQ97" s="3"/>
-      <c r="BR97" s="3"/>
-      <c r="BS97" s="3"/>
-      <c r="BT97" s="3"/>
-      <c r="BU97" s="3"/>
-      <c r="BV97" s="3"/>
-      <c r="BW97" s="3"/>
-      <c r="BX97" s="3"/>
-      <c r="BY97" s="3"/>
-      <c r="BZ97" s="3"/>
-      <c r="CA97" s="3"/>
-      <c r="CB97" s="3"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
+      <c r="Y97" s="7"/>
+      <c r="Z97" s="7"/>
+      <c r="AA97" s="7"/>
+      <c r="AB97" s="7"/>
+      <c r="AC97" s="7"/>
+      <c r="AD97" s="7"/>
+      <c r="AE97" s="7"/>
+      <c r="AF97" s="7"/>
+      <c r="AG97" s="7"/>
+      <c r="AH97" s="7"/>
+      <c r="AI97" s="7"/>
+      <c r="AJ97" s="7"/>
+      <c r="AK97" s="7"/>
+      <c r="AL97" s="7"/>
+      <c r="AM97" s="7"/>
+      <c r="AN97" s="7"/>
+      <c r="AO97" s="7"/>
+      <c r="AP97" s="7"/>
+      <c r="AQ97" s="7"/>
+      <c r="AR97" s="7"/>
+      <c r="AS97" s="7"/>
+      <c r="AT97" s="7"/>
+      <c r="AU97" s="7"/>
+      <c r="AV97" s="7"/>
+      <c r="AW97" s="7"/>
+      <c r="AX97" s="7"/>
+      <c r="AY97" s="7"/>
+      <c r="AZ97" s="7"/>
+      <c r="BA97" s="7"/>
+      <c r="BB97" s="7"/>
+      <c r="BC97" s="7"/>
+      <c r="BD97" s="7"/>
+      <c r="BE97" s="7"/>
+      <c r="BF97" s="7"/>
+      <c r="BG97" s="7"/>
+      <c r="BH97" s="7"/>
+      <c r="BI97" s="7"/>
+      <c r="BJ97" s="7"/>
+      <c r="BK97" s="7"/>
+      <c r="BL97" s="7"/>
+      <c r="BM97" s="7"/>
+      <c r="BN97" s="7"/>
+      <c r="BO97" s="7"/>
+      <c r="BP97" s="7"/>
+      <c r="BQ97" s="7"/>
+      <c r="BR97" s="7"/>
+      <c r="BS97" s="7"/>
+      <c r="BT97" s="7"/>
+      <c r="BU97" s="7"/>
+      <c r="BV97" s="7"/>
+      <c r="BW97" s="7"/>
+      <c r="BX97" s="7"/>
+      <c r="BY97" s="7"/>
+      <c r="BZ97" s="7"/>
+      <c r="CA97" s="7"/>
+      <c r="CB97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
-      <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
-      <c r="U98" s="3"/>
-      <c r="V98" s="3"/>
-      <c r="W98" s="3"/>
-      <c r="X98" s="3"/>
-      <c r="Y98" s="3"/>
-      <c r="Z98" s="3"/>
-      <c r="AA98" s="3"/>
-      <c r="AB98" s="3"/>
-      <c r="AC98" s="3"/>
-      <c r="AD98" s="3"/>
-      <c r="AE98" s="3"/>
-      <c r="AF98" s="3"/>
-      <c r="AG98" s="3"/>
-      <c r="AH98" s="3"/>
-      <c r="AI98" s="3"/>
-      <c r="AJ98" s="3"/>
-      <c r="AK98" s="3"/>
-      <c r="AL98" s="3"/>
-      <c r="AM98" s="3"/>
-      <c r="AN98" s="3"/>
-      <c r="AO98" s="3"/>
-      <c r="AP98" s="3"/>
-      <c r="AQ98" s="3"/>
-      <c r="AR98" s="3"/>
-      <c r="AS98" s="3"/>
-      <c r="AT98" s="3"/>
-      <c r="AU98" s="3"/>
-      <c r="AV98" s="3"/>
-      <c r="AW98" s="3"/>
-      <c r="AX98" s="3"/>
-      <c r="AY98" s="3"/>
-      <c r="AZ98" s="3"/>
-      <c r="BA98" s="3"/>
-      <c r="BB98" s="3"/>
-      <c r="BC98" s="3"/>
-      <c r="BD98" s="3"/>
-      <c r="BE98" s="3"/>
-      <c r="BF98" s="3"/>
-      <c r="BG98" s="3"/>
-      <c r="BH98" s="3"/>
-      <c r="BI98" s="3"/>
-      <c r="BJ98" s="3"/>
-      <c r="BK98" s="3"/>
-      <c r="BL98" s="3"/>
-      <c r="BM98" s="3"/>
-      <c r="BN98" s="3"/>
-      <c r="BO98" s="3"/>
-      <c r="BP98" s="3"/>
-      <c r="BQ98" s="3"/>
-      <c r="BR98" s="3"/>
-      <c r="BS98" s="3"/>
-      <c r="BT98" s="3"/>
-      <c r="BU98" s="3"/>
-      <c r="BV98" s="3"/>
-      <c r="BW98" s="3"/>
-      <c r="BX98" s="3"/>
-      <c r="BY98" s="3"/>
-      <c r="BZ98" s="3"/>
-      <c r="CA98" s="3"/>
-      <c r="CB98" s="3"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="9"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="9"/>
+      <c r="U98" s="9"/>
+      <c r="V98" s="9"/>
+      <c r="W98" s="9"/>
+      <c r="X98" s="9"/>
+      <c r="Y98" s="9"/>
+      <c r="Z98" s="9"/>
+      <c r="AA98" s="9"/>
+      <c r="AB98" s="9"/>
+      <c r="AC98" s="9"/>
+      <c r="AD98" s="9"/>
+      <c r="AE98" s="9"/>
+      <c r="AF98" s="9"/>
+      <c r="AG98" s="9"/>
+      <c r="AH98" s="9"/>
+      <c r="AI98" s="9"/>
+      <c r="AJ98" s="9"/>
+      <c r="AK98" s="9"/>
+      <c r="AL98" s="9"/>
+      <c r="AM98" s="9"/>
+      <c r="AN98" s="9"/>
+      <c r="AO98" s="9"/>
+      <c r="AP98" s="9"/>
+      <c r="AQ98" s="9"/>
+      <c r="AR98" s="9"/>
+      <c r="AS98" s="9"/>
+      <c r="AT98" s="9"/>
+      <c r="AU98" s="9"/>
+      <c r="AV98" s="9"/>
+      <c r="AW98" s="9"/>
+      <c r="AX98" s="9"/>
+      <c r="AY98" s="9"/>
+      <c r="AZ98" s="9"/>
+      <c r="BA98" s="9"/>
+      <c r="BB98" s="9"/>
+      <c r="BC98" s="9"/>
+      <c r="BD98" s="9"/>
+      <c r="BE98" s="9"/>
+      <c r="BF98" s="9"/>
+      <c r="BG98" s="9"/>
+      <c r="BH98" s="9"/>
+      <c r="BI98" s="9"/>
+      <c r="BJ98" s="9"/>
+      <c r="BK98" s="9"/>
+      <c r="BL98" s="9"/>
+      <c r="BM98" s="9"/>
+      <c r="BN98" s="9"/>
+      <c r="BO98" s="9"/>
+      <c r="BP98" s="9"/>
+      <c r="BQ98" s="9"/>
+      <c r="BR98" s="9"/>
+      <c r="BS98" s="9"/>
+      <c r="BT98" s="9"/>
+      <c r="BU98" s="9"/>
+      <c r="BV98" s="9"/>
+      <c r="BW98" s="9"/>
+      <c r="BX98" s="9"/>
+      <c r="BY98" s="9"/>
+      <c r="BZ98" s="9"/>
+      <c r="CA98" s="9"/>
+      <c r="CB98" s="9"/>
     </row>
     <row r="99" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
-      <c r="U99" s="3"/>
-      <c r="V99" s="3"/>
-      <c r="W99" s="3"/>
-      <c r="X99" s="3"/>
-      <c r="Y99" s="3"/>
-      <c r="Z99" s="3"/>
-      <c r="AA99" s="3"/>
-      <c r="AB99" s="3"/>
-      <c r="AC99" s="3"/>
-      <c r="AD99" s="3"/>
-      <c r="AE99" s="3"/>
-      <c r="AF99" s="3"/>
-      <c r="AG99" s="3"/>
-      <c r="AH99" s="3"/>
-      <c r="AI99" s="3"/>
-      <c r="AJ99" s="3"/>
-      <c r="AK99" s="3"/>
-      <c r="AL99" s="3"/>
-      <c r="AM99" s="3"/>
-      <c r="AN99" s="3"/>
-      <c r="AO99" s="3"/>
-      <c r="AP99" s="3"/>
-      <c r="AQ99" s="3"/>
-      <c r="AR99" s="3"/>
-      <c r="AS99" s="3"/>
-      <c r="AT99" s="3"/>
-      <c r="AU99" s="3"/>
-      <c r="AV99" s="3"/>
-      <c r="AW99" s="3"/>
-      <c r="AX99" s="3"/>
-      <c r="AY99" s="3"/>
-      <c r="AZ99" s="3"/>
-      <c r="BA99" s="3"/>
-      <c r="BB99" s="3"/>
-      <c r="BC99" s="3"/>
-      <c r="BD99" s="3"/>
-      <c r="BE99" s="3"/>
-      <c r="BF99" s="3"/>
-      <c r="BG99" s="3"/>
-      <c r="BH99" s="3"/>
-      <c r="BI99" s="3"/>
-      <c r="BJ99" s="3"/>
-      <c r="BK99" s="3"/>
-      <c r="BL99" s="3"/>
-      <c r="BM99" s="3"/>
-      <c r="BN99" s="3"/>
-      <c r="BO99" s="3"/>
-      <c r="BP99" s="3"/>
-      <c r="BQ99" s="3"/>
-      <c r="BR99" s="3"/>
-      <c r="BS99" s="3"/>
-      <c r="BT99" s="3"/>
-      <c r="BU99" s="3"/>
-      <c r="BV99" s="3"/>
-      <c r="BW99" s="3"/>
-      <c r="BX99" s="3"/>
-      <c r="BY99" s="3"/>
-      <c r="BZ99" s="3"/>
-      <c r="CA99" s="3"/>
-      <c r="CB99" s="3"/>
-    </row>
-    <row r="100" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
+      <c r="S99" s="7"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7"/>
+      <c r="V99" s="7"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="7"/>
+      <c r="Y99" s="7"/>
+      <c r="Z99" s="7"/>
+      <c r="AA99" s="7"/>
+      <c r="AB99" s="7"/>
+      <c r="AC99" s="7"/>
+      <c r="AD99" s="7"/>
+      <c r="AE99" s="7"/>
+      <c r="AF99" s="7"/>
+      <c r="AG99" s="7"/>
+      <c r="AH99" s="7"/>
+      <c r="AI99" s="7"/>
+      <c r="AJ99" s="7"/>
+      <c r="AK99" s="7"/>
+      <c r="AL99" s="7"/>
+      <c r="AM99" s="7"/>
+      <c r="AN99" s="7"/>
+      <c r="AO99" s="7"/>
+      <c r="AP99" s="7"/>
+      <c r="AQ99" s="7"/>
+      <c r="AR99" s="7"/>
+      <c r="AS99" s="7"/>
+      <c r="AT99" s="7"/>
+      <c r="AU99" s="7"/>
+      <c r="AV99" s="7"/>
+      <c r="AW99" s="7"/>
+      <c r="AX99" s="7"/>
+      <c r="AY99" s="7"/>
+      <c r="AZ99" s="7"/>
+      <c r="BA99" s="7"/>
+      <c r="BB99" s="7"/>
+      <c r="BC99" s="7"/>
+      <c r="BD99" s="7"/>
+      <c r="BE99" s="7"/>
+      <c r="BF99" s="7"/>
+      <c r="BG99" s="7"/>
+      <c r="BH99" s="7"/>
+      <c r="BI99" s="7"/>
+      <c r="BJ99" s="7"/>
+      <c r="BK99" s="7"/>
+      <c r="BL99" s="7"/>
+      <c r="BM99" s="7"/>
+      <c r="BN99" s="7"/>
+      <c r="BO99" s="7"/>
+      <c r="BP99" s="7"/>
+      <c r="BQ99" s="7"/>
+      <c r="BR99" s="7"/>
+      <c r="BS99" s="7"/>
+      <c r="BT99" s="7"/>
+      <c r="BU99" s="7"/>
+      <c r="BV99" s="7"/>
+      <c r="BW99" s="7"/>
+      <c r="BX99" s="7"/>
+      <c r="BY99" s="7"/>
+      <c r="BZ99" s="7"/>
+      <c r="CA99" s="7"/>
+      <c r="CB99" s="7"/>
+    </row>
+    <row r="100" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
@@ -8951,8 +8936,8 @@
     <row r="101" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
@@ -9033,8 +9018,8 @@
     <row r="102" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
@@ -9112,93 +9097,93 @@
       <c r="CA102" s="7"/>
       <c r="CB102" s="7"/>
     </row>
-    <row r="103" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9"/>
-      <c r="M103" s="9"/>
-      <c r="N103" s="9"/>
-      <c r="O103" s="9"/>
-      <c r="P103" s="9"/>
-      <c r="Q103" s="9"/>
-      <c r="R103" s="9"/>
-      <c r="S103" s="9"/>
-      <c r="T103" s="9"/>
-      <c r="U103" s="9"/>
-      <c r="V103" s="9"/>
-      <c r="W103" s="9"/>
-      <c r="X103" s="9"/>
-      <c r="Y103" s="9"/>
-      <c r="Z103" s="9"/>
-      <c r="AA103" s="9"/>
-      <c r="AB103" s="9"/>
-      <c r="AC103" s="9"/>
-      <c r="AD103" s="9"/>
-      <c r="AE103" s="9"/>
-      <c r="AF103" s="9"/>
-      <c r="AG103" s="9"/>
-      <c r="AH103" s="9"/>
-      <c r="AI103" s="9"/>
-      <c r="AJ103" s="9"/>
-      <c r="AK103" s="9"/>
-      <c r="AL103" s="9"/>
-      <c r="AM103" s="9"/>
-      <c r="AN103" s="9"/>
-      <c r="AO103" s="9"/>
-      <c r="AP103" s="9"/>
-      <c r="AQ103" s="9"/>
-      <c r="AR103" s="9"/>
-      <c r="AS103" s="9"/>
-      <c r="AT103" s="9"/>
-      <c r="AU103" s="9"/>
-      <c r="AV103" s="9"/>
-      <c r="AW103" s="9"/>
-      <c r="AX103" s="9"/>
-      <c r="AY103" s="9"/>
-      <c r="AZ103" s="9"/>
-      <c r="BA103" s="9"/>
-      <c r="BB103" s="9"/>
-      <c r="BC103" s="9"/>
-      <c r="BD103" s="9"/>
-      <c r="BE103" s="9"/>
-      <c r="BF103" s="9"/>
-      <c r="BG103" s="9"/>
-      <c r="BH103" s="9"/>
-      <c r="BI103" s="9"/>
-      <c r="BJ103" s="9"/>
-      <c r="BK103" s="9"/>
-      <c r="BL103" s="9"/>
-      <c r="BM103" s="9"/>
-      <c r="BN103" s="9"/>
-      <c r="BO103" s="9"/>
-      <c r="BP103" s="9"/>
-      <c r="BQ103" s="9"/>
-      <c r="BR103" s="9"/>
-      <c r="BS103" s="9"/>
-      <c r="BT103" s="9"/>
-      <c r="BU103" s="9"/>
-      <c r="BV103" s="9"/>
-      <c r="BW103" s="9"/>
-      <c r="BX103" s="9"/>
-      <c r="BY103" s="9"/>
-      <c r="BZ103" s="9"/>
-      <c r="CA103" s="9"/>
-      <c r="CB103" s="9"/>
+    <row r="103" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="7"/>
+      <c r="Y103" s="7"/>
+      <c r="Z103" s="7"/>
+      <c r="AA103" s="7"/>
+      <c r="AB103" s="7"/>
+      <c r="AC103" s="7"/>
+      <c r="AD103" s="7"/>
+      <c r="AE103" s="7"/>
+      <c r="AF103" s="7"/>
+      <c r="AG103" s="7"/>
+      <c r="AH103" s="7"/>
+      <c r="AI103" s="7"/>
+      <c r="AJ103" s="7"/>
+      <c r="AK103" s="7"/>
+      <c r="AL103" s="7"/>
+      <c r="AM103" s="7"/>
+      <c r="AN103" s="7"/>
+      <c r="AO103" s="7"/>
+      <c r="AP103" s="7"/>
+      <c r="AQ103" s="7"/>
+      <c r="AR103" s="7"/>
+      <c r="AS103" s="7"/>
+      <c r="AT103" s="7"/>
+      <c r="AU103" s="7"/>
+      <c r="AV103" s="7"/>
+      <c r="AW103" s="7"/>
+      <c r="AX103" s="7"/>
+      <c r="AY103" s="7"/>
+      <c r="AZ103" s="7"/>
+      <c r="BA103" s="7"/>
+      <c r="BB103" s="7"/>
+      <c r="BC103" s="7"/>
+      <c r="BD103" s="7"/>
+      <c r="BE103" s="7"/>
+      <c r="BF103" s="7"/>
+      <c r="BG103" s="7"/>
+      <c r="BH103" s="7"/>
+      <c r="BI103" s="7"/>
+      <c r="BJ103" s="7"/>
+      <c r="BK103" s="7"/>
+      <c r="BL103" s="7"/>
+      <c r="BM103" s="7"/>
+      <c r="BN103" s="7"/>
+      <c r="BO103" s="7"/>
+      <c r="BP103" s="7"/>
+      <c r="BQ103" s="7"/>
+      <c r="BR103" s="7"/>
+      <c r="BS103" s="7"/>
+      <c r="BT103" s="7"/>
+      <c r="BU103" s="7"/>
+      <c r="BV103" s="7"/>
+      <c r="BW103" s="7"/>
+      <c r="BX103" s="7"/>
+      <c r="BY103" s="7"/>
+      <c r="BZ103" s="7"/>
+      <c r="CA103" s="7"/>
+      <c r="CB103" s="7"/>
     </row>
     <row r="104" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
@@ -9276,7 +9261,7 @@
       <c r="CA104" s="7"/>
       <c r="CB104" s="7"/>
     </row>
-    <row r="105" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="3"/>
@@ -10178,175 +10163,175 @@
       <c r="CA115" s="7"/>
       <c r="CB115" s="7"/>
     </row>
-    <row r="116" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="7"/>
-      <c r="L116" s="7"/>
-      <c r="M116" s="7"/>
-      <c r="N116" s="7"/>
-      <c r="O116" s="7"/>
-      <c r="P116" s="7"/>
-      <c r="Q116" s="7"/>
-      <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
-      <c r="T116" s="7"/>
-      <c r="U116" s="7"/>
-      <c r="V116" s="7"/>
-      <c r="W116" s="7"/>
-      <c r="X116" s="7"/>
-      <c r="Y116" s="7"/>
-      <c r="Z116" s="7"/>
-      <c r="AA116" s="7"/>
-      <c r="AB116" s="7"/>
-      <c r="AC116" s="7"/>
-      <c r="AD116" s="7"/>
-      <c r="AE116" s="7"/>
-      <c r="AF116" s="7"/>
-      <c r="AG116" s="7"/>
-      <c r="AH116" s="7"/>
-      <c r="AI116" s="7"/>
-      <c r="AJ116" s="7"/>
-      <c r="AK116" s="7"/>
-      <c r="AL116" s="7"/>
-      <c r="AM116" s="7"/>
-      <c r="AN116" s="7"/>
-      <c r="AO116" s="7"/>
-      <c r="AP116" s="7"/>
-      <c r="AQ116" s="7"/>
-      <c r="AR116" s="7"/>
-      <c r="AS116" s="7"/>
-      <c r="AT116" s="7"/>
-      <c r="AU116" s="7"/>
-      <c r="AV116" s="7"/>
-      <c r="AW116" s="7"/>
-      <c r="AX116" s="7"/>
-      <c r="AY116" s="7"/>
-      <c r="AZ116" s="7"/>
-      <c r="BA116" s="7"/>
-      <c r="BB116" s="7"/>
-      <c r="BC116" s="7"/>
-      <c r="BD116" s="7"/>
-      <c r="BE116" s="7"/>
-      <c r="BF116" s="7"/>
-      <c r="BG116" s="7"/>
-      <c r="BH116" s="7"/>
-      <c r="BI116" s="7"/>
-      <c r="BJ116" s="7"/>
-      <c r="BK116" s="7"/>
-      <c r="BL116" s="7"/>
-      <c r="BM116" s="7"/>
-      <c r="BN116" s="7"/>
-      <c r="BO116" s="7"/>
-      <c r="BP116" s="7"/>
-      <c r="BQ116" s="7"/>
-      <c r="BR116" s="7"/>
-      <c r="BS116" s="7"/>
-      <c r="BT116" s="7"/>
-      <c r="BU116" s="7"/>
-      <c r="BV116" s="7"/>
-      <c r="BW116" s="7"/>
-      <c r="BX116" s="7"/>
-      <c r="BY116" s="7"/>
-      <c r="BZ116" s="7"/>
-      <c r="CA116" s="7"/>
-      <c r="CB116" s="7"/>
+    <row r="116" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
+      <c r="R116" s="5"/>
+      <c r="S116" s="5"/>
+      <c r="T116" s="5"/>
+      <c r="U116" s="5"/>
+      <c r="V116" s="5"/>
+      <c r="W116" s="5"/>
+      <c r="X116" s="5"/>
+      <c r="Y116" s="5"/>
+      <c r="Z116" s="5"/>
+      <c r="AA116" s="5"/>
+      <c r="AB116" s="5"/>
+      <c r="AC116" s="5"/>
+      <c r="AD116" s="5"/>
+      <c r="AE116" s="5"/>
+      <c r="AF116" s="5"/>
+      <c r="AG116" s="5"/>
+      <c r="AH116" s="5"/>
+      <c r="AI116" s="5"/>
+      <c r="AJ116" s="5"/>
+      <c r="AK116" s="5"/>
+      <c r="AL116" s="5"/>
+      <c r="AM116" s="5"/>
+      <c r="AN116" s="5"/>
+      <c r="AO116" s="5"/>
+      <c r="AP116" s="5"/>
+      <c r="AQ116" s="5"/>
+      <c r="AR116" s="5"/>
+      <c r="AS116" s="5"/>
+      <c r="AT116" s="5"/>
+      <c r="AU116" s="5"/>
+      <c r="AV116" s="5"/>
+      <c r="AW116" s="5"/>
+      <c r="AX116" s="5"/>
+      <c r="AY116" s="5"/>
+      <c r="AZ116" s="5"/>
+      <c r="BA116" s="5"/>
+      <c r="BB116" s="5"/>
+      <c r="BC116" s="5"/>
+      <c r="BD116" s="5"/>
+      <c r="BE116" s="5"/>
+      <c r="BF116" s="5"/>
+      <c r="BG116" s="5"/>
+      <c r="BH116" s="5"/>
+      <c r="BI116" s="5"/>
+      <c r="BJ116" s="5"/>
+      <c r="BK116" s="5"/>
+      <c r="BL116" s="5"/>
+      <c r="BM116" s="5"/>
+      <c r="BN116" s="5"/>
+      <c r="BO116" s="5"/>
+      <c r="BP116" s="5"/>
+      <c r="BQ116" s="5"/>
+      <c r="BR116" s="5"/>
+      <c r="BS116" s="5"/>
+      <c r="BT116" s="5"/>
+      <c r="BU116" s="5"/>
+      <c r="BV116" s="5"/>
+      <c r="BW116" s="5"/>
+      <c r="BX116" s="5"/>
+      <c r="BY116" s="5"/>
+      <c r="BZ116" s="5"/>
+      <c r="CA116" s="5"/>
+      <c r="CB116" s="5"/>
     </row>
     <row r="117" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
-      <c r="L117" s="7"/>
-      <c r="M117" s="7"/>
-      <c r="N117" s="7"/>
-      <c r="O117" s="7"/>
-      <c r="P117" s="7"/>
-      <c r="Q117" s="7"/>
-      <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
-      <c r="T117" s="7"/>
-      <c r="U117" s="7"/>
-      <c r="V117" s="7"/>
-      <c r="W117" s="7"/>
-      <c r="X117" s="7"/>
-      <c r="Y117" s="7"/>
-      <c r="Z117" s="7"/>
-      <c r="AA117" s="7"/>
-      <c r="AB117" s="7"/>
-      <c r="AC117" s="7"/>
-      <c r="AD117" s="7"/>
-      <c r="AE117" s="7"/>
-      <c r="AF117" s="7"/>
-      <c r="AG117" s="7"/>
-      <c r="AH117" s="7"/>
-      <c r="AI117" s="7"/>
-      <c r="AJ117" s="7"/>
-      <c r="AK117" s="7"/>
-      <c r="AL117" s="7"/>
-      <c r="AM117" s="7"/>
-      <c r="AN117" s="7"/>
-      <c r="AO117" s="7"/>
-      <c r="AP117" s="7"/>
-      <c r="AQ117" s="7"/>
-      <c r="AR117" s="7"/>
-      <c r="AS117" s="7"/>
-      <c r="AT117" s="7"/>
-      <c r="AU117" s="7"/>
-      <c r="AV117" s="7"/>
-      <c r="AW117" s="7"/>
-      <c r="AX117" s="7"/>
-      <c r="AY117" s="7"/>
-      <c r="AZ117" s="7"/>
-      <c r="BA117" s="7"/>
-      <c r="BB117" s="7"/>
-      <c r="BC117" s="7"/>
-      <c r="BD117" s="7"/>
-      <c r="BE117" s="7"/>
-      <c r="BF117" s="7"/>
-      <c r="BG117" s="7"/>
-      <c r="BH117" s="7"/>
-      <c r="BI117" s="7"/>
-      <c r="BJ117" s="7"/>
-      <c r="BK117" s="7"/>
-      <c r="BL117" s="7"/>
-      <c r="BM117" s="7"/>
-      <c r="BN117" s="7"/>
-      <c r="BO117" s="7"/>
-      <c r="BP117" s="7"/>
-      <c r="BQ117" s="7"/>
-      <c r="BR117" s="7"/>
-      <c r="BS117" s="7"/>
-      <c r="BT117" s="7"/>
-      <c r="BU117" s="7"/>
-      <c r="BV117" s="7"/>
-      <c r="BW117" s="7"/>
-      <c r="BX117" s="7"/>
-      <c r="BY117" s="7"/>
-      <c r="BZ117" s="7"/>
-      <c r="CA117" s="7"/>
-      <c r="CB117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="3"/>
+      <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
+      <c r="Y117" s="3"/>
+      <c r="Z117" s="3"/>
+      <c r="AA117" s="3"/>
+      <c r="AB117" s="3"/>
+      <c r="AC117" s="3"/>
+      <c r="AD117" s="3"/>
+      <c r="AE117" s="3"/>
+      <c r="AF117" s="3"/>
+      <c r="AG117" s="3"/>
+      <c r="AH117" s="3"/>
+      <c r="AI117" s="3"/>
+      <c r="AJ117" s="3"/>
+      <c r="AK117" s="3"/>
+      <c r="AL117" s="3"/>
+      <c r="AM117" s="3"/>
+      <c r="AN117" s="3"/>
+      <c r="AO117" s="3"/>
+      <c r="AP117" s="3"/>
+      <c r="AQ117" s="3"/>
+      <c r="AR117" s="3"/>
+      <c r="AS117" s="3"/>
+      <c r="AT117" s="3"/>
+      <c r="AU117" s="3"/>
+      <c r="AV117" s="3"/>
+      <c r="AW117" s="3"/>
+      <c r="AX117" s="3"/>
+      <c r="AY117" s="3"/>
+      <c r="AZ117" s="3"/>
+      <c r="BA117" s="3"/>
+      <c r="BB117" s="3"/>
+      <c r="BC117" s="3"/>
+      <c r="BD117" s="3"/>
+      <c r="BE117" s="3"/>
+      <c r="BF117" s="3"/>
+      <c r="BG117" s="3"/>
+      <c r="BH117" s="3"/>
+      <c r="BI117" s="3"/>
+      <c r="BJ117" s="3"/>
+      <c r="BK117" s="3"/>
+      <c r="BL117" s="3"/>
+      <c r="BM117" s="3"/>
+      <c r="BN117" s="3"/>
+      <c r="BO117" s="3"/>
+      <c r="BP117" s="3"/>
+      <c r="BQ117" s="3"/>
+      <c r="BR117" s="3"/>
+      <c r="BS117" s="3"/>
+      <c r="BT117" s="3"/>
+      <c r="BU117" s="3"/>
+      <c r="BV117" s="3"/>
+      <c r="BW117" s="3"/>
+      <c r="BX117" s="3"/>
+      <c r="BY117" s="3"/>
+      <c r="BZ117" s="3"/>
+      <c r="CA117" s="3"/>
+      <c r="CB117" s="3"/>
     </row>
     <row r="118" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
@@ -10427,8 +10412,8 @@
     <row r="119" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
@@ -10509,8 +10494,8 @@
     <row r="120" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
@@ -10588,169 +10573,169 @@
       <c r="CA120" s="7"/>
       <c r="CB120" s="7"/>
     </row>
-    <row r="121" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
-      <c r="L121" s="5"/>
-      <c r="M121" s="5"/>
-      <c r="N121" s="5"/>
-      <c r="O121" s="5"/>
-      <c r="P121" s="5"/>
-      <c r="Q121" s="5"/>
-      <c r="R121" s="5"/>
-      <c r="S121" s="5"/>
-      <c r="T121" s="5"/>
-      <c r="U121" s="5"/>
-      <c r="V121" s="5"/>
-      <c r="W121" s="5"/>
-      <c r="X121" s="5"/>
-      <c r="Y121" s="5"/>
-      <c r="Z121" s="5"/>
-      <c r="AA121" s="5"/>
-      <c r="AB121" s="5"/>
-      <c r="AC121" s="5"/>
-      <c r="AD121" s="5"/>
-      <c r="AE121" s="5"/>
-      <c r="AF121" s="5"/>
-      <c r="AG121" s="5"/>
-      <c r="AH121" s="5"/>
-      <c r="AI121" s="5"/>
-      <c r="AJ121" s="5"/>
-      <c r="AK121" s="5"/>
-      <c r="AL121" s="5"/>
-      <c r="AM121" s="5"/>
-      <c r="AN121" s="5"/>
-      <c r="AO121" s="5"/>
-      <c r="AP121" s="5"/>
-      <c r="AQ121" s="5"/>
-      <c r="AR121" s="5"/>
-      <c r="AS121" s="5"/>
-      <c r="AT121" s="5"/>
-      <c r="AU121" s="5"/>
-      <c r="AV121" s="5"/>
-      <c r="AW121" s="5"/>
-      <c r="AX121" s="5"/>
-      <c r="AY121" s="5"/>
-      <c r="AZ121" s="5"/>
-      <c r="BA121" s="5"/>
-      <c r="BB121" s="5"/>
-      <c r="BC121" s="5"/>
-      <c r="BD121" s="5"/>
-      <c r="BE121" s="5"/>
-      <c r="BF121" s="5"/>
-      <c r="BG121" s="5"/>
-      <c r="BH121" s="5"/>
-      <c r="BI121" s="5"/>
-      <c r="BJ121" s="5"/>
-      <c r="BK121" s="5"/>
-      <c r="BL121" s="5"/>
-      <c r="BM121" s="5"/>
-      <c r="BN121" s="5"/>
-      <c r="BO121" s="5"/>
-      <c r="BP121" s="5"/>
-      <c r="BQ121" s="5"/>
-      <c r="BR121" s="5"/>
-      <c r="BS121" s="5"/>
-      <c r="BT121" s="5"/>
-      <c r="BU121" s="5"/>
-      <c r="BV121" s="5"/>
-      <c r="BW121" s="5"/>
-      <c r="BX121" s="5"/>
-      <c r="BY121" s="5"/>
-      <c r="BZ121" s="5"/>
-      <c r="CA121" s="5"/>
-      <c r="CB121" s="5"/>
-    </row>
-    <row r="122" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
+      <c r="U121" s="3"/>
+      <c r="V121" s="3"/>
+      <c r="W121" s="3"/>
+      <c r="X121" s="3"/>
+      <c r="Y121" s="3"/>
+      <c r="Z121" s="3"/>
+      <c r="AA121" s="3"/>
+      <c r="AB121" s="3"/>
+      <c r="AC121" s="3"/>
+      <c r="AD121" s="3"/>
+      <c r="AE121" s="3"/>
+      <c r="AF121" s="3"/>
+      <c r="AG121" s="3"/>
+      <c r="AH121" s="3"/>
+      <c r="AI121" s="3"/>
+      <c r="AJ121" s="3"/>
+      <c r="AK121" s="3"/>
+      <c r="AL121" s="3"/>
+      <c r="AM121" s="3"/>
+      <c r="AN121" s="3"/>
+      <c r="AO121" s="3"/>
+      <c r="AP121" s="3"/>
+      <c r="AQ121" s="3"/>
+      <c r="AR121" s="3"/>
+      <c r="AS121" s="3"/>
+      <c r="AT121" s="3"/>
+      <c r="AU121" s="3"/>
+      <c r="AV121" s="3"/>
+      <c r="AW121" s="3"/>
+      <c r="AX121" s="3"/>
+      <c r="AY121" s="3"/>
+      <c r="AZ121" s="3"/>
+      <c r="BA121" s="3"/>
+      <c r="BB121" s="3"/>
+      <c r="BC121" s="3"/>
+      <c r="BD121" s="3"/>
+      <c r="BE121" s="3"/>
+      <c r="BF121" s="3"/>
+      <c r="BG121" s="3"/>
+      <c r="BH121" s="3"/>
+      <c r="BI121" s="3"/>
+      <c r="BJ121" s="3"/>
+      <c r="BK121" s="3"/>
+      <c r="BL121" s="3"/>
+      <c r="BM121" s="3"/>
+      <c r="BN121" s="3"/>
+      <c r="BO121" s="3"/>
+      <c r="BP121" s="3"/>
+      <c r="BQ121" s="3"/>
+      <c r="BR121" s="3"/>
+      <c r="BS121" s="3"/>
+      <c r="BT121" s="3"/>
+      <c r="BU121" s="3"/>
+      <c r="BV121" s="3"/>
+      <c r="BW121" s="3"/>
+      <c r="BX121" s="3"/>
+      <c r="BY121" s="3"/>
+      <c r="BZ121" s="3"/>
+      <c r="CA121" s="3"/>
+      <c r="CB121" s="3"/>
+    </row>
+    <row r="122" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
-      <c r="K122" s="3"/>
-      <c r="L122" s="3"/>
-      <c r="M122" s="3"/>
-      <c r="N122" s="3"/>
-      <c r="O122" s="3"/>
-      <c r="P122" s="3"/>
-      <c r="Q122" s="3"/>
-      <c r="R122" s="3"/>
-      <c r="S122" s="3"/>
-      <c r="T122" s="3"/>
-      <c r="U122" s="3"/>
-      <c r="V122" s="3"/>
-      <c r="W122" s="3"/>
-      <c r="X122" s="3"/>
-      <c r="Y122" s="3"/>
-      <c r="Z122" s="3"/>
-      <c r="AA122" s="3"/>
-      <c r="AB122" s="3"/>
-      <c r="AC122" s="3"/>
-      <c r="AD122" s="3"/>
-      <c r="AE122" s="3"/>
-      <c r="AF122" s="3"/>
-      <c r="AG122" s="3"/>
-      <c r="AH122" s="3"/>
-      <c r="AI122" s="3"/>
-      <c r="AJ122" s="3"/>
-      <c r="AK122" s="3"/>
-      <c r="AL122" s="3"/>
-      <c r="AM122" s="3"/>
-      <c r="AN122" s="3"/>
-      <c r="AO122" s="3"/>
-      <c r="AP122" s="3"/>
-      <c r="AQ122" s="3"/>
-      <c r="AR122" s="3"/>
-      <c r="AS122" s="3"/>
-      <c r="AT122" s="3"/>
-      <c r="AU122" s="3"/>
-      <c r="AV122" s="3"/>
-      <c r="AW122" s="3"/>
-      <c r="AX122" s="3"/>
-      <c r="AY122" s="3"/>
-      <c r="AZ122" s="3"/>
-      <c r="BA122" s="3"/>
-      <c r="BB122" s="3"/>
-      <c r="BC122" s="3"/>
-      <c r="BD122" s="3"/>
-      <c r="BE122" s="3"/>
-      <c r="BF122" s="3"/>
-      <c r="BG122" s="3"/>
-      <c r="BH122" s="3"/>
-      <c r="BI122" s="3"/>
-      <c r="BJ122" s="3"/>
-      <c r="BK122" s="3"/>
-      <c r="BL122" s="3"/>
-      <c r="BM122" s="3"/>
-      <c r="BN122" s="3"/>
-      <c r="BO122" s="3"/>
-      <c r="BP122" s="3"/>
-      <c r="BQ122" s="3"/>
-      <c r="BR122" s="3"/>
-      <c r="BS122" s="3"/>
-      <c r="BT122" s="3"/>
-      <c r="BU122" s="3"/>
-      <c r="BV122" s="3"/>
-      <c r="BW122" s="3"/>
-      <c r="BX122" s="3"/>
-      <c r="BY122" s="3"/>
-      <c r="BZ122" s="3"/>
-      <c r="CA122" s="3"/>
-      <c r="CB122" s="3"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="7"/>
+      <c r="O122" s="7"/>
+      <c r="P122" s="7"/>
+      <c r="Q122" s="7"/>
+      <c r="R122" s="7"/>
+      <c r="S122" s="7"/>
+      <c r="T122" s="7"/>
+      <c r="U122" s="7"/>
+      <c r="V122" s="7"/>
+      <c r="W122" s="7"/>
+      <c r="X122" s="7"/>
+      <c r="Y122" s="7"/>
+      <c r="Z122" s="7"/>
+      <c r="AA122" s="7"/>
+      <c r="AB122" s="7"/>
+      <c r="AC122" s="7"/>
+      <c r="AD122" s="7"/>
+      <c r="AE122" s="7"/>
+      <c r="AF122" s="7"/>
+      <c r="AG122" s="7"/>
+      <c r="AH122" s="7"/>
+      <c r="AI122" s="7"/>
+      <c r="AJ122" s="7"/>
+      <c r="AK122" s="7"/>
+      <c r="AL122" s="7"/>
+      <c r="AM122" s="7"/>
+      <c r="AN122" s="7"/>
+      <c r="AO122" s="7"/>
+      <c r="AP122" s="7"/>
+      <c r="AQ122" s="7"/>
+      <c r="AR122" s="7"/>
+      <c r="AS122" s="7"/>
+      <c r="AT122" s="7"/>
+      <c r="AU122" s="7"/>
+      <c r="AV122" s="7"/>
+      <c r="AW122" s="7"/>
+      <c r="AX122" s="7"/>
+      <c r="AY122" s="7"/>
+      <c r="AZ122" s="7"/>
+      <c r="BA122" s="7"/>
+      <c r="BB122" s="7"/>
+      <c r="BC122" s="7"/>
+      <c r="BD122" s="7"/>
+      <c r="BE122" s="7"/>
+      <c r="BF122" s="7"/>
+      <c r="BG122" s="7"/>
+      <c r="BH122" s="7"/>
+      <c r="BI122" s="7"/>
+      <c r="BJ122" s="7"/>
+      <c r="BK122" s="7"/>
+      <c r="BL122" s="7"/>
+      <c r="BM122" s="7"/>
+      <c r="BN122" s="7"/>
+      <c r="BO122" s="7"/>
+      <c r="BP122" s="7"/>
+      <c r="BQ122" s="7"/>
+      <c r="BR122" s="7"/>
+      <c r="BS122" s="7"/>
+      <c r="BT122" s="7"/>
+      <c r="BU122" s="7"/>
+      <c r="BV122" s="7"/>
+      <c r="BW122" s="7"/>
+      <c r="BX122" s="7"/>
+      <c r="BY122" s="7"/>
+      <c r="BZ122" s="7"/>
+      <c r="CA122" s="7"/>
+      <c r="CB122" s="7"/>
     </row>
     <row r="123" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="2"/>
@@ -10998,89 +10983,89 @@
       <c r="CA125" s="7"/>
       <c r="CB125" s="7"/>
     </row>
-    <row r="126" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
-      <c r="L126" s="3"/>
-      <c r="M126" s="3"/>
-      <c r="N126" s="3"/>
-      <c r="O126" s="3"/>
-      <c r="P126" s="3"/>
-      <c r="Q126" s="3"/>
-      <c r="R126" s="3"/>
-      <c r="S126" s="3"/>
-      <c r="T126" s="3"/>
-      <c r="U126" s="3"/>
-      <c r="V126" s="3"/>
-      <c r="W126" s="3"/>
-      <c r="X126" s="3"/>
-      <c r="Y126" s="3"/>
-      <c r="Z126" s="3"/>
-      <c r="AA126" s="3"/>
-      <c r="AB126" s="3"/>
-      <c r="AC126" s="3"/>
-      <c r="AD126" s="3"/>
-      <c r="AE126" s="3"/>
-      <c r="AF126" s="3"/>
-      <c r="AG126" s="3"/>
-      <c r="AH126" s="3"/>
-      <c r="AI126" s="3"/>
-      <c r="AJ126" s="3"/>
-      <c r="AK126" s="3"/>
-      <c r="AL126" s="3"/>
-      <c r="AM126" s="3"/>
-      <c r="AN126" s="3"/>
-      <c r="AO126" s="3"/>
-      <c r="AP126" s="3"/>
-      <c r="AQ126" s="3"/>
-      <c r="AR126" s="3"/>
-      <c r="AS126" s="3"/>
-      <c r="AT126" s="3"/>
-      <c r="AU126" s="3"/>
-      <c r="AV126" s="3"/>
-      <c r="AW126" s="3"/>
-      <c r="AX126" s="3"/>
-      <c r="AY126" s="3"/>
-      <c r="AZ126" s="3"/>
-      <c r="BA126" s="3"/>
-      <c r="BB126" s="3"/>
-      <c r="BC126" s="3"/>
-      <c r="BD126" s="3"/>
-      <c r="BE126" s="3"/>
-      <c r="BF126" s="3"/>
-      <c r="BG126" s="3"/>
-      <c r="BH126" s="3"/>
-      <c r="BI126" s="3"/>
-      <c r="BJ126" s="3"/>
-      <c r="BK126" s="3"/>
-      <c r="BL126" s="3"/>
-      <c r="BM126" s="3"/>
-      <c r="BN126" s="3"/>
-      <c r="BO126" s="3"/>
-      <c r="BP126" s="3"/>
-      <c r="BQ126" s="3"/>
-      <c r="BR126" s="3"/>
-      <c r="BS126" s="3"/>
-      <c r="BT126" s="3"/>
-      <c r="BU126" s="3"/>
-      <c r="BV126" s="3"/>
-      <c r="BW126" s="3"/>
-      <c r="BX126" s="3"/>
-      <c r="BY126" s="3"/>
-      <c r="BZ126" s="3"/>
-      <c r="CA126" s="3"/>
-      <c r="CB126" s="3"/>
-    </row>
-    <row r="127" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7"/>
+      <c r="M126" s="7"/>
+      <c r="N126" s="7"/>
+      <c r="O126" s="7"/>
+      <c r="P126" s="7"/>
+      <c r="Q126" s="7"/>
+      <c r="R126" s="7"/>
+      <c r="S126" s="7"/>
+      <c r="T126" s="7"/>
+      <c r="U126" s="7"/>
+      <c r="V126" s="7"/>
+      <c r="W126" s="7"/>
+      <c r="X126" s="7"/>
+      <c r="Y126" s="7"/>
+      <c r="Z126" s="7"/>
+      <c r="AA126" s="7"/>
+      <c r="AB126" s="7"/>
+      <c r="AC126" s="7"/>
+      <c r="AD126" s="7"/>
+      <c r="AE126" s="7"/>
+      <c r="AF126" s="7"/>
+      <c r="AG126" s="7"/>
+      <c r="AH126" s="7"/>
+      <c r="AI126" s="7"/>
+      <c r="AJ126" s="7"/>
+      <c r="AK126" s="7"/>
+      <c r="AL126" s="7"/>
+      <c r="AM126" s="7"/>
+      <c r="AN126" s="7"/>
+      <c r="AO126" s="7"/>
+      <c r="AP126" s="7"/>
+      <c r="AQ126" s="7"/>
+      <c r="AR126" s="7"/>
+      <c r="AS126" s="7"/>
+      <c r="AT126" s="7"/>
+      <c r="AU126" s="7"/>
+      <c r="AV126" s="7"/>
+      <c r="AW126" s="7"/>
+      <c r="AX126" s="7"/>
+      <c r="AY126" s="7"/>
+      <c r="AZ126" s="7"/>
+      <c r="BA126" s="7"/>
+      <c r="BB126" s="7"/>
+      <c r="BC126" s="7"/>
+      <c r="BD126" s="7"/>
+      <c r="BE126" s="7"/>
+      <c r="BF126" s="7"/>
+      <c r="BG126" s="7"/>
+      <c r="BH126" s="7"/>
+      <c r="BI126" s="7"/>
+      <c r="BJ126" s="7"/>
+      <c r="BK126" s="7"/>
+      <c r="BL126" s="7"/>
+      <c r="BM126" s="7"/>
+      <c r="BN126" s="7"/>
+      <c r="BO126" s="7"/>
+      <c r="BP126" s="7"/>
+      <c r="BQ126" s="7"/>
+      <c r="BR126" s="7"/>
+      <c r="BS126" s="7"/>
+      <c r="BT126" s="7"/>
+      <c r="BU126" s="7"/>
+      <c r="BV126" s="7"/>
+      <c r="BW126" s="7"/>
+      <c r="BX126" s="7"/>
+      <c r="BY126" s="7"/>
+      <c r="BZ126" s="7"/>
+      <c r="CA126" s="7"/>
+      <c r="CB126" s="7"/>
+    </row>
+    <row r="127" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="7"/>
@@ -13376,87 +13361,87 @@
       <c r="CA154" s="7"/>
       <c r="CB154" s="7"/>
     </row>
-    <row r="155" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
-      <c r="I155" s="7"/>
-      <c r="J155" s="7"/>
-      <c r="K155" s="7"/>
-      <c r="L155" s="7"/>
-      <c r="M155" s="7"/>
-      <c r="N155" s="7"/>
-      <c r="O155" s="7"/>
-      <c r="P155" s="7"/>
-      <c r="Q155" s="7"/>
-      <c r="R155" s="7"/>
-      <c r="S155" s="7"/>
-      <c r="T155" s="7"/>
-      <c r="U155" s="7"/>
-      <c r="V155" s="7"/>
-      <c r="W155" s="7"/>
-      <c r="X155" s="7"/>
-      <c r="Y155" s="7"/>
-      <c r="Z155" s="7"/>
-      <c r="AA155" s="7"/>
-      <c r="AB155" s="7"/>
-      <c r="AC155" s="7"/>
-      <c r="AD155" s="7"/>
-      <c r="AE155" s="7"/>
-      <c r="AF155" s="7"/>
-      <c r="AG155" s="7"/>
-      <c r="AH155" s="7"/>
-      <c r="AI155" s="7"/>
-      <c r="AJ155" s="7"/>
-      <c r="AK155" s="7"/>
-      <c r="AL155" s="7"/>
-      <c r="AM155" s="7"/>
-      <c r="AN155" s="7"/>
-      <c r="AO155" s="7"/>
-      <c r="AP155" s="7"/>
-      <c r="AQ155" s="7"/>
-      <c r="AR155" s="7"/>
-      <c r="AS155" s="7"/>
-      <c r="AT155" s="7"/>
-      <c r="AU155" s="7"/>
-      <c r="AV155" s="7"/>
-      <c r="AW155" s="7"/>
-      <c r="AX155" s="7"/>
-      <c r="AY155" s="7"/>
-      <c r="AZ155" s="7"/>
-      <c r="BA155" s="7"/>
-      <c r="BB155" s="7"/>
-      <c r="BC155" s="7"/>
-      <c r="BD155" s="7"/>
-      <c r="BE155" s="7"/>
-      <c r="BF155" s="7"/>
-      <c r="BG155" s="7"/>
-      <c r="BH155" s="7"/>
-      <c r="BI155" s="7"/>
-      <c r="BJ155" s="7"/>
-      <c r="BK155" s="7"/>
-      <c r="BL155" s="7"/>
-      <c r="BM155" s="7"/>
-      <c r="BN155" s="7"/>
-      <c r="BO155" s="7"/>
-      <c r="BP155" s="7"/>
-      <c r="BQ155" s="7"/>
-      <c r="BR155" s="7"/>
-      <c r="BS155" s="7"/>
-      <c r="BT155" s="7"/>
-      <c r="BU155" s="7"/>
-      <c r="BV155" s="7"/>
-      <c r="BW155" s="7"/>
-      <c r="BX155" s="7"/>
-      <c r="BY155" s="7"/>
-      <c r="BZ155" s="7"/>
-      <c r="CA155" s="7"/>
-      <c r="CB155" s="7"/>
+    <row r="155" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="4"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="5"/>
+      <c r="M155" s="5"/>
+      <c r="N155" s="5"/>
+      <c r="O155" s="5"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
+      <c r="R155" s="5"/>
+      <c r="S155" s="5"/>
+      <c r="T155" s="5"/>
+      <c r="U155" s="5"/>
+      <c r="V155" s="5"/>
+      <c r="W155" s="5"/>
+      <c r="X155" s="5"/>
+      <c r="Y155" s="5"/>
+      <c r="Z155" s="5"/>
+      <c r="AA155" s="5"/>
+      <c r="AB155" s="5"/>
+      <c r="AC155" s="5"/>
+      <c r="AD155" s="5"/>
+      <c r="AE155" s="5"/>
+      <c r="AF155" s="5"/>
+      <c r="AG155" s="5"/>
+      <c r="AH155" s="5"/>
+      <c r="AI155" s="5"/>
+      <c r="AJ155" s="5"/>
+      <c r="AK155" s="5"/>
+      <c r="AL155" s="5"/>
+      <c r="AM155" s="5"/>
+      <c r="AN155" s="5"/>
+      <c r="AO155" s="5"/>
+      <c r="AP155" s="5"/>
+      <c r="AQ155" s="5"/>
+      <c r="AR155" s="5"/>
+      <c r="AS155" s="5"/>
+      <c r="AT155" s="5"/>
+      <c r="AU155" s="5"/>
+      <c r="AV155" s="5"/>
+      <c r="AW155" s="5"/>
+      <c r="AX155" s="5"/>
+      <c r="AY155" s="5"/>
+      <c r="AZ155" s="5"/>
+      <c r="BA155" s="5"/>
+      <c r="BB155" s="5"/>
+      <c r="BC155" s="5"/>
+      <c r="BD155" s="5"/>
+      <c r="BE155" s="5"/>
+      <c r="BF155" s="5"/>
+      <c r="BG155" s="5"/>
+      <c r="BH155" s="5"/>
+      <c r="BI155" s="5"/>
+      <c r="BJ155" s="5"/>
+      <c r="BK155" s="5"/>
+      <c r="BL155" s="5"/>
+      <c r="BM155" s="5"/>
+      <c r="BN155" s="5"/>
+      <c r="BO155" s="5"/>
+      <c r="BP155" s="5"/>
+      <c r="BQ155" s="5"/>
+      <c r="BR155" s="5"/>
+      <c r="BS155" s="5"/>
+      <c r="BT155" s="5"/>
+      <c r="BU155" s="5"/>
+      <c r="BV155" s="5"/>
+      <c r="BW155" s="5"/>
+      <c r="BX155" s="5"/>
+      <c r="BY155" s="5"/>
+      <c r="BZ155" s="5"/>
+      <c r="CA155" s="5"/>
+      <c r="CB155" s="5"/>
     </row>
     <row r="156" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="2"/>
@@ -13540,7 +13525,7 @@
       <c r="CA156" s="7"/>
       <c r="CB156" s="7"/>
     </row>
-    <row r="157" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="7"/>
@@ -13622,7 +13607,7 @@
       <c r="CA157" s="7"/>
       <c r="CB157" s="7"/>
     </row>
-    <row r="158" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="7"/>
@@ -13704,7 +13689,7 @@
       <c r="CA158" s="7"/>
       <c r="CB158" s="7"/>
     </row>
-    <row r="159" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="7"/>
@@ -13786,89 +13771,89 @@
       <c r="CA159" s="7"/>
       <c r="CB159" s="7"/>
     </row>
-    <row r="160" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="4"/>
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="5"/>
-      <c r="K160" s="5"/>
-      <c r="L160" s="5"/>
-      <c r="M160" s="5"/>
-      <c r="N160" s="5"/>
-      <c r="O160" s="5"/>
-      <c r="P160" s="5"/>
-      <c r="Q160" s="5"/>
-      <c r="R160" s="5"/>
-      <c r="S160" s="5"/>
-      <c r="T160" s="5"/>
-      <c r="U160" s="5"/>
-      <c r="V160" s="5"/>
-      <c r="W160" s="5"/>
-      <c r="X160" s="5"/>
-      <c r="Y160" s="5"/>
-      <c r="Z160" s="5"/>
-      <c r="AA160" s="5"/>
-      <c r="AB160" s="5"/>
-      <c r="AC160" s="5"/>
-      <c r="AD160" s="5"/>
-      <c r="AE160" s="5"/>
-      <c r="AF160" s="5"/>
-      <c r="AG160" s="5"/>
-      <c r="AH160" s="5"/>
-      <c r="AI160" s="5"/>
-      <c r="AJ160" s="5"/>
-      <c r="AK160" s="5"/>
-      <c r="AL160" s="5"/>
-      <c r="AM160" s="5"/>
-      <c r="AN160" s="5"/>
-      <c r="AO160" s="5"/>
-      <c r="AP160" s="5"/>
-      <c r="AQ160" s="5"/>
-      <c r="AR160" s="5"/>
-      <c r="AS160" s="5"/>
-      <c r="AT160" s="5"/>
-      <c r="AU160" s="5"/>
-      <c r="AV160" s="5"/>
-      <c r="AW160" s="5"/>
-      <c r="AX160" s="5"/>
-      <c r="AY160" s="5"/>
-      <c r="AZ160" s="5"/>
-      <c r="BA160" s="5"/>
-      <c r="BB160" s="5"/>
-      <c r="BC160" s="5"/>
-      <c r="BD160" s="5"/>
-      <c r="BE160" s="5"/>
-      <c r="BF160" s="5"/>
-      <c r="BG160" s="5"/>
-      <c r="BH160" s="5"/>
-      <c r="BI160" s="5"/>
-      <c r="BJ160" s="5"/>
-      <c r="BK160" s="5"/>
-      <c r="BL160" s="5"/>
-      <c r="BM160" s="5"/>
-      <c r="BN160" s="5"/>
-      <c r="BO160" s="5"/>
-      <c r="BP160" s="5"/>
-      <c r="BQ160" s="5"/>
-      <c r="BR160" s="5"/>
-      <c r="BS160" s="5"/>
-      <c r="BT160" s="5"/>
-      <c r="BU160" s="5"/>
-      <c r="BV160" s="5"/>
-      <c r="BW160" s="5"/>
-      <c r="BX160" s="5"/>
-      <c r="BY160" s="5"/>
-      <c r="BZ160" s="5"/>
-      <c r="CA160" s="5"/>
-      <c r="CB160" s="5"/>
-    </row>
-    <row r="161" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
+      <c r="L160" s="7"/>
+      <c r="M160" s="7"/>
+      <c r="N160" s="7"/>
+      <c r="O160" s="7"/>
+      <c r="P160" s="7"/>
+      <c r="Q160" s="7"/>
+      <c r="R160" s="7"/>
+      <c r="S160" s="7"/>
+      <c r="T160" s="7"/>
+      <c r="U160" s="7"/>
+      <c r="V160" s="7"/>
+      <c r="W160" s="7"/>
+      <c r="X160" s="7"/>
+      <c r="Y160" s="7"/>
+      <c r="Z160" s="7"/>
+      <c r="AA160" s="7"/>
+      <c r="AB160" s="7"/>
+      <c r="AC160" s="7"/>
+      <c r="AD160" s="7"/>
+      <c r="AE160" s="7"/>
+      <c r="AF160" s="7"/>
+      <c r="AG160" s="7"/>
+      <c r="AH160" s="7"/>
+      <c r="AI160" s="7"/>
+      <c r="AJ160" s="7"/>
+      <c r="AK160" s="7"/>
+      <c r="AL160" s="7"/>
+      <c r="AM160" s="7"/>
+      <c r="AN160" s="7"/>
+      <c r="AO160" s="7"/>
+      <c r="AP160" s="7"/>
+      <c r="AQ160" s="7"/>
+      <c r="AR160" s="7"/>
+      <c r="AS160" s="7"/>
+      <c r="AT160" s="7"/>
+      <c r="AU160" s="7"/>
+      <c r="AV160" s="7"/>
+      <c r="AW160" s="7"/>
+      <c r="AX160" s="7"/>
+      <c r="AY160" s="7"/>
+      <c r="AZ160" s="7"/>
+      <c r="BA160" s="7"/>
+      <c r="BB160" s="7"/>
+      <c r="BC160" s="7"/>
+      <c r="BD160" s="7"/>
+      <c r="BE160" s="7"/>
+      <c r="BF160" s="7"/>
+      <c r="BG160" s="7"/>
+      <c r="BH160" s="7"/>
+      <c r="BI160" s="7"/>
+      <c r="BJ160" s="7"/>
+      <c r="BK160" s="7"/>
+      <c r="BL160" s="7"/>
+      <c r="BM160" s="7"/>
+      <c r="BN160" s="7"/>
+      <c r="BO160" s="7"/>
+      <c r="BP160" s="7"/>
+      <c r="BQ160" s="7"/>
+      <c r="BR160" s="7"/>
+      <c r="BS160" s="7"/>
+      <c r="BT160" s="7"/>
+      <c r="BU160" s="7"/>
+      <c r="BV160" s="7"/>
+      <c r="BW160" s="7"/>
+      <c r="BX160" s="7"/>
+      <c r="BY160" s="7"/>
+      <c r="BZ160" s="7"/>
+      <c r="CA160" s="7"/>
+      <c r="CB160" s="7"/>
+    </row>
+    <row r="161" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="7"/>
@@ -13950,89 +13935,89 @@
       <c r="CA161" s="7"/>
       <c r="CB161" s="7"/>
     </row>
-    <row r="162" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="7"/>
-      <c r="I162" s="7"/>
-      <c r="J162" s="7"/>
-      <c r="K162" s="7"/>
-      <c r="L162" s="7"/>
-      <c r="M162" s="7"/>
-      <c r="N162" s="7"/>
-      <c r="O162" s="7"/>
-      <c r="P162" s="7"/>
-      <c r="Q162" s="7"/>
-      <c r="R162" s="7"/>
-      <c r="S162" s="7"/>
-      <c r="T162" s="7"/>
-      <c r="U162" s="7"/>
-      <c r="V162" s="7"/>
-      <c r="W162" s="7"/>
-      <c r="X162" s="7"/>
-      <c r="Y162" s="7"/>
-      <c r="Z162" s="7"/>
-      <c r="AA162" s="7"/>
-      <c r="AB162" s="7"/>
-      <c r="AC162" s="7"/>
-      <c r="AD162" s="7"/>
-      <c r="AE162" s="7"/>
-      <c r="AF162" s="7"/>
-      <c r="AG162" s="7"/>
-      <c r="AH162" s="7"/>
-      <c r="AI162" s="7"/>
-      <c r="AJ162" s="7"/>
-      <c r="AK162" s="7"/>
-      <c r="AL162" s="7"/>
-      <c r="AM162" s="7"/>
-      <c r="AN162" s="7"/>
-      <c r="AO162" s="7"/>
-      <c r="AP162" s="7"/>
-      <c r="AQ162" s="7"/>
-      <c r="AR162" s="7"/>
-      <c r="AS162" s="7"/>
-      <c r="AT162" s="7"/>
-      <c r="AU162" s="7"/>
-      <c r="AV162" s="7"/>
-      <c r="AW162" s="7"/>
-      <c r="AX162" s="7"/>
-      <c r="AY162" s="7"/>
-      <c r="AZ162" s="7"/>
-      <c r="BA162" s="7"/>
-      <c r="BB162" s="7"/>
-      <c r="BC162" s="7"/>
-      <c r="BD162" s="7"/>
-      <c r="BE162" s="7"/>
-      <c r="BF162" s="7"/>
-      <c r="BG162" s="7"/>
-      <c r="BH162" s="7"/>
-      <c r="BI162" s="7"/>
-      <c r="BJ162" s="7"/>
-      <c r="BK162" s="7"/>
-      <c r="BL162" s="7"/>
-      <c r="BM162" s="7"/>
-      <c r="BN162" s="7"/>
-      <c r="BO162" s="7"/>
-      <c r="BP162" s="7"/>
-      <c r="BQ162" s="7"/>
-      <c r="BR162" s="7"/>
-      <c r="BS162" s="7"/>
-      <c r="BT162" s="7"/>
-      <c r="BU162" s="7"/>
-      <c r="BV162" s="7"/>
-      <c r="BW162" s="7"/>
-      <c r="BX162" s="7"/>
-      <c r="BY162" s="7"/>
-      <c r="BZ162" s="7"/>
-      <c r="CA162" s="7"/>
-      <c r="CB162" s="7"/>
-    </row>
-    <row r="163" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A162" s="4"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
+      <c r="M162" s="5"/>
+      <c r="N162" s="5"/>
+      <c r="O162" s="5"/>
+      <c r="P162" s="5"/>
+      <c r="Q162" s="5"/>
+      <c r="R162" s="5"/>
+      <c r="S162" s="5"/>
+      <c r="T162" s="5"/>
+      <c r="U162" s="5"/>
+      <c r="V162" s="5"/>
+      <c r="W162" s="5"/>
+      <c r="X162" s="5"/>
+      <c r="Y162" s="5"/>
+      <c r="Z162" s="5"/>
+      <c r="AA162" s="5"/>
+      <c r="AB162" s="5"/>
+      <c r="AC162" s="5"/>
+      <c r="AD162" s="5"/>
+      <c r="AE162" s="5"/>
+      <c r="AF162" s="5"/>
+      <c r="AG162" s="5"/>
+      <c r="AH162" s="5"/>
+      <c r="AI162" s="5"/>
+      <c r="AJ162" s="5"/>
+      <c r="AK162" s="5"/>
+      <c r="AL162" s="5"/>
+      <c r="AM162" s="5"/>
+      <c r="AN162" s="5"/>
+      <c r="AO162" s="5"/>
+      <c r="AP162" s="5"/>
+      <c r="AQ162" s="5"/>
+      <c r="AR162" s="5"/>
+      <c r="AS162" s="5"/>
+      <c r="AT162" s="5"/>
+      <c r="AU162" s="5"/>
+      <c r="AV162" s="5"/>
+      <c r="AW162" s="5"/>
+      <c r="AX162" s="5"/>
+      <c r="AY162" s="5"/>
+      <c r="AZ162" s="5"/>
+      <c r="BA162" s="5"/>
+      <c r="BB162" s="5"/>
+      <c r="BC162" s="5"/>
+      <c r="BD162" s="5"/>
+      <c r="BE162" s="5"/>
+      <c r="BF162" s="5"/>
+      <c r="BG162" s="5"/>
+      <c r="BH162" s="5"/>
+      <c r="BI162" s="5"/>
+      <c r="BJ162" s="5"/>
+      <c r="BK162" s="5"/>
+      <c r="BL162" s="5"/>
+      <c r="BM162" s="5"/>
+      <c r="BN162" s="5"/>
+      <c r="BO162" s="5"/>
+      <c r="BP162" s="5"/>
+      <c r="BQ162" s="5"/>
+      <c r="BR162" s="5"/>
+      <c r="BS162" s="5"/>
+      <c r="BT162" s="5"/>
+      <c r="BU162" s="5"/>
+      <c r="BV162" s="5"/>
+      <c r="BW162" s="5"/>
+      <c r="BX162" s="5"/>
+      <c r="BY162" s="5"/>
+      <c r="BZ162" s="5"/>
+      <c r="CA162" s="5"/>
+      <c r="CB162" s="5"/>
+    </row>
+    <row r="163" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="7"/>
@@ -14114,7 +14099,7 @@
       <c r="CA163" s="7"/>
       <c r="CB163" s="7"/>
     </row>
-    <row r="164" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="7"/>
@@ -14196,89 +14181,89 @@
       <c r="CA164" s="7"/>
       <c r="CB164" s="7"/>
     </row>
-    <row r="165" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="7"/>
-      <c r="I165" s="7"/>
-      <c r="J165" s="7"/>
-      <c r="K165" s="7"/>
-      <c r="L165" s="7"/>
-      <c r="M165" s="7"/>
-      <c r="N165" s="7"/>
-      <c r="O165" s="7"/>
-      <c r="P165" s="7"/>
-      <c r="Q165" s="7"/>
-      <c r="R165" s="7"/>
-      <c r="S165" s="7"/>
-      <c r="T165" s="7"/>
-      <c r="U165" s="7"/>
-      <c r="V165" s="7"/>
-      <c r="W165" s="7"/>
-      <c r="X165" s="7"/>
-      <c r="Y165" s="7"/>
-      <c r="Z165" s="7"/>
-      <c r="AA165" s="7"/>
-      <c r="AB165" s="7"/>
-      <c r="AC165" s="7"/>
-      <c r="AD165" s="7"/>
-      <c r="AE165" s="7"/>
-      <c r="AF165" s="7"/>
-      <c r="AG165" s="7"/>
-      <c r="AH165" s="7"/>
-      <c r="AI165" s="7"/>
-      <c r="AJ165" s="7"/>
-      <c r="AK165" s="7"/>
-      <c r="AL165" s="7"/>
-      <c r="AM165" s="7"/>
-      <c r="AN165" s="7"/>
-      <c r="AO165" s="7"/>
-      <c r="AP165" s="7"/>
-      <c r="AQ165" s="7"/>
-      <c r="AR165" s="7"/>
-      <c r="AS165" s="7"/>
-      <c r="AT165" s="7"/>
-      <c r="AU165" s="7"/>
-      <c r="AV165" s="7"/>
-      <c r="AW165" s="7"/>
-      <c r="AX165" s="7"/>
-      <c r="AY165" s="7"/>
-      <c r="AZ165" s="7"/>
-      <c r="BA165" s="7"/>
-      <c r="BB165" s="7"/>
-      <c r="BC165" s="7"/>
-      <c r="BD165" s="7"/>
-      <c r="BE165" s="7"/>
-      <c r="BF165" s="7"/>
-      <c r="BG165" s="7"/>
-      <c r="BH165" s="7"/>
-      <c r="BI165" s="7"/>
-      <c r="BJ165" s="7"/>
-      <c r="BK165" s="7"/>
-      <c r="BL165" s="7"/>
-      <c r="BM165" s="7"/>
-      <c r="BN165" s="7"/>
-      <c r="BO165" s="7"/>
-      <c r="BP165" s="7"/>
-      <c r="BQ165" s="7"/>
-      <c r="BR165" s="7"/>
-      <c r="BS165" s="7"/>
-      <c r="BT165" s="7"/>
-      <c r="BU165" s="7"/>
-      <c r="BV165" s="7"/>
-      <c r="BW165" s="7"/>
-      <c r="BX165" s="7"/>
-      <c r="BY165" s="7"/>
-      <c r="BZ165" s="7"/>
-      <c r="CA165" s="7"/>
-      <c r="CB165" s="7"/>
-    </row>
-    <row r="166" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A165" s="4"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
+      <c r="M165" s="5"/>
+      <c r="N165" s="5"/>
+      <c r="O165" s="5"/>
+      <c r="P165" s="5"/>
+      <c r="Q165" s="5"/>
+      <c r="R165" s="5"/>
+      <c r="S165" s="5"/>
+      <c r="T165" s="5"/>
+      <c r="U165" s="5"/>
+      <c r="V165" s="5"/>
+      <c r="W165" s="5"/>
+      <c r="X165" s="5"/>
+      <c r="Y165" s="5"/>
+      <c r="Z165" s="5"/>
+      <c r="AA165" s="5"/>
+      <c r="AB165" s="5"/>
+      <c r="AC165" s="5"/>
+      <c r="AD165" s="5"/>
+      <c r="AE165" s="5"/>
+      <c r="AF165" s="5"/>
+      <c r="AG165" s="5"/>
+      <c r="AH165" s="5"/>
+      <c r="AI165" s="5"/>
+      <c r="AJ165" s="5"/>
+      <c r="AK165" s="5"/>
+      <c r="AL165" s="5"/>
+      <c r="AM165" s="5"/>
+      <c r="AN165" s="5"/>
+      <c r="AO165" s="5"/>
+      <c r="AP165" s="5"/>
+      <c r="AQ165" s="5"/>
+      <c r="AR165" s="5"/>
+      <c r="AS165" s="5"/>
+      <c r="AT165" s="5"/>
+      <c r="AU165" s="5"/>
+      <c r="AV165" s="5"/>
+      <c r="AW165" s="5"/>
+      <c r="AX165" s="5"/>
+      <c r="AY165" s="5"/>
+      <c r="AZ165" s="5"/>
+      <c r="BA165" s="5"/>
+      <c r="BB165" s="5"/>
+      <c r="BC165" s="5"/>
+      <c r="BD165" s="5"/>
+      <c r="BE165" s="5"/>
+      <c r="BF165" s="5"/>
+      <c r="BG165" s="5"/>
+      <c r="BH165" s="5"/>
+      <c r="BI165" s="5"/>
+      <c r="BJ165" s="5"/>
+      <c r="BK165" s="5"/>
+      <c r="BL165" s="5"/>
+      <c r="BM165" s="5"/>
+      <c r="BN165" s="5"/>
+      <c r="BO165" s="5"/>
+      <c r="BP165" s="5"/>
+      <c r="BQ165" s="5"/>
+      <c r="BR165" s="5"/>
+      <c r="BS165" s="5"/>
+      <c r="BT165" s="5"/>
+      <c r="BU165" s="5"/>
+      <c r="BV165" s="5"/>
+      <c r="BW165" s="5"/>
+      <c r="BX165" s="5"/>
+      <c r="BY165" s="5"/>
+      <c r="BZ165" s="5"/>
+      <c r="CA165" s="5"/>
+      <c r="CB165" s="5"/>
+    </row>
+    <row r="166" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="7"/>
@@ -14360,87 +14345,87 @@
       <c r="CA166" s="7"/>
       <c r="CB166" s="7"/>
     </row>
-    <row r="167" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="4"/>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="5"/>
-      <c r="J167" s="5"/>
-      <c r="K167" s="5"/>
-      <c r="L167" s="5"/>
-      <c r="M167" s="5"/>
-      <c r="N167" s="5"/>
-      <c r="O167" s="5"/>
-      <c r="P167" s="5"/>
-      <c r="Q167" s="5"/>
-      <c r="R167" s="5"/>
-      <c r="S167" s="5"/>
-      <c r="T167" s="5"/>
-      <c r="U167" s="5"/>
-      <c r="V167" s="5"/>
-      <c r="W167" s="5"/>
-      <c r="X167" s="5"/>
-      <c r="Y167" s="5"/>
-      <c r="Z167" s="5"/>
-      <c r="AA167" s="5"/>
-      <c r="AB167" s="5"/>
-      <c r="AC167" s="5"/>
-      <c r="AD167" s="5"/>
-      <c r="AE167" s="5"/>
-      <c r="AF167" s="5"/>
-      <c r="AG167" s="5"/>
-      <c r="AH167" s="5"/>
-      <c r="AI167" s="5"/>
-      <c r="AJ167" s="5"/>
-      <c r="AK167" s="5"/>
-      <c r="AL167" s="5"/>
-      <c r="AM167" s="5"/>
-      <c r="AN167" s="5"/>
-      <c r="AO167" s="5"/>
-      <c r="AP167" s="5"/>
-      <c r="AQ167" s="5"/>
-      <c r="AR167" s="5"/>
-      <c r="AS167" s="5"/>
-      <c r="AT167" s="5"/>
-      <c r="AU167" s="5"/>
-      <c r="AV167" s="5"/>
-      <c r="AW167" s="5"/>
-      <c r="AX167" s="5"/>
-      <c r="AY167" s="5"/>
-      <c r="AZ167" s="5"/>
-      <c r="BA167" s="5"/>
-      <c r="BB167" s="5"/>
-      <c r="BC167" s="5"/>
-      <c r="BD167" s="5"/>
-      <c r="BE167" s="5"/>
-      <c r="BF167" s="5"/>
-      <c r="BG167" s="5"/>
-      <c r="BH167" s="5"/>
-      <c r="BI167" s="5"/>
-      <c r="BJ167" s="5"/>
-      <c r="BK167" s="5"/>
-      <c r="BL167" s="5"/>
-      <c r="BM167" s="5"/>
-      <c r="BN167" s="5"/>
-      <c r="BO167" s="5"/>
-      <c r="BP167" s="5"/>
-      <c r="BQ167" s="5"/>
-      <c r="BR167" s="5"/>
-      <c r="BS167" s="5"/>
-      <c r="BT167" s="5"/>
-      <c r="BU167" s="5"/>
-      <c r="BV167" s="5"/>
-      <c r="BW167" s="5"/>
-      <c r="BX167" s="5"/>
-      <c r="BY167" s="5"/>
-      <c r="BZ167" s="5"/>
-      <c r="CA167" s="5"/>
-      <c r="CB167" s="5"/>
+    <row r="167" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7"/>
+      <c r="J167" s="7"/>
+      <c r="K167" s="7"/>
+      <c r="L167" s="7"/>
+      <c r="M167" s="7"/>
+      <c r="N167" s="7"/>
+      <c r="O167" s="7"/>
+      <c r="P167" s="7"/>
+      <c r="Q167" s="7"/>
+      <c r="R167" s="7"/>
+      <c r="S167" s="7"/>
+      <c r="T167" s="7"/>
+      <c r="U167" s="7"/>
+      <c r="V167" s="7"/>
+      <c r="W167" s="7"/>
+      <c r="X167" s="7"/>
+      <c r="Y167" s="7"/>
+      <c r="Z167" s="7"/>
+      <c r="AA167" s="7"/>
+      <c r="AB167" s="7"/>
+      <c r="AC167" s="7"/>
+      <c r="AD167" s="7"/>
+      <c r="AE167" s="7"/>
+      <c r="AF167" s="7"/>
+      <c r="AG167" s="7"/>
+      <c r="AH167" s="7"/>
+      <c r="AI167" s="7"/>
+      <c r="AJ167" s="7"/>
+      <c r="AK167" s="7"/>
+      <c r="AL167" s="7"/>
+      <c r="AM167" s="7"/>
+      <c r="AN167" s="7"/>
+      <c r="AO167" s="7"/>
+      <c r="AP167" s="7"/>
+      <c r="AQ167" s="7"/>
+      <c r="AR167" s="7"/>
+      <c r="AS167" s="7"/>
+      <c r="AT167" s="7"/>
+      <c r="AU167" s="7"/>
+      <c r="AV167" s="7"/>
+      <c r="AW167" s="7"/>
+      <c r="AX167" s="7"/>
+      <c r="AY167" s="7"/>
+      <c r="AZ167" s="7"/>
+      <c r="BA167" s="7"/>
+      <c r="BB167" s="7"/>
+      <c r="BC167" s="7"/>
+      <c r="BD167" s="7"/>
+      <c r="BE167" s="7"/>
+      <c r="BF167" s="7"/>
+      <c r="BG167" s="7"/>
+      <c r="BH167" s="7"/>
+      <c r="BI167" s="7"/>
+      <c r="BJ167" s="7"/>
+      <c r="BK167" s="7"/>
+      <c r="BL167" s="7"/>
+      <c r="BM167" s="7"/>
+      <c r="BN167" s="7"/>
+      <c r="BO167" s="7"/>
+      <c r="BP167" s="7"/>
+      <c r="BQ167" s="7"/>
+      <c r="BR167" s="7"/>
+      <c r="BS167" s="7"/>
+      <c r="BT167" s="7"/>
+      <c r="BU167" s="7"/>
+      <c r="BV167" s="7"/>
+      <c r="BW167" s="7"/>
+      <c r="BX167" s="7"/>
+      <c r="BY167" s="7"/>
+      <c r="BZ167" s="7"/>
+      <c r="CA167" s="7"/>
+      <c r="CB167" s="7"/>
     </row>
     <row r="168" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="2"/>
@@ -14606,169 +14591,169 @@
       <c r="CA169" s="7"/>
       <c r="CB169" s="7"/>
     </row>
-    <row r="170" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="4"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5"/>
-      <c r="K170" s="5"/>
-      <c r="L170" s="5"/>
-      <c r="M170" s="5"/>
-      <c r="N170" s="5"/>
-      <c r="O170" s="5"/>
-      <c r="P170" s="5"/>
-      <c r="Q170" s="5"/>
-      <c r="R170" s="5"/>
-      <c r="S170" s="5"/>
-      <c r="T170" s="5"/>
-      <c r="U170" s="5"/>
-      <c r="V170" s="5"/>
-      <c r="W170" s="5"/>
-      <c r="X170" s="5"/>
-      <c r="Y170" s="5"/>
-      <c r="Z170" s="5"/>
-      <c r="AA170" s="5"/>
-      <c r="AB170" s="5"/>
-      <c r="AC170" s="5"/>
-      <c r="AD170" s="5"/>
-      <c r="AE170" s="5"/>
-      <c r="AF170" s="5"/>
-      <c r="AG170" s="5"/>
-      <c r="AH170" s="5"/>
-      <c r="AI170" s="5"/>
-      <c r="AJ170" s="5"/>
-      <c r="AK170" s="5"/>
-      <c r="AL170" s="5"/>
-      <c r="AM170" s="5"/>
-      <c r="AN170" s="5"/>
-      <c r="AO170" s="5"/>
-      <c r="AP170" s="5"/>
-      <c r="AQ170" s="5"/>
-      <c r="AR170" s="5"/>
-      <c r="AS170" s="5"/>
-      <c r="AT170" s="5"/>
-      <c r="AU170" s="5"/>
-      <c r="AV170" s="5"/>
-      <c r="AW170" s="5"/>
-      <c r="AX170" s="5"/>
-      <c r="AY170" s="5"/>
-      <c r="AZ170" s="5"/>
-      <c r="BA170" s="5"/>
-      <c r="BB170" s="5"/>
-      <c r="BC170" s="5"/>
-      <c r="BD170" s="5"/>
-      <c r="BE170" s="5"/>
-      <c r="BF170" s="5"/>
-      <c r="BG170" s="5"/>
-      <c r="BH170" s="5"/>
-      <c r="BI170" s="5"/>
-      <c r="BJ170" s="5"/>
-      <c r="BK170" s="5"/>
-      <c r="BL170" s="5"/>
-      <c r="BM170" s="5"/>
-      <c r="BN170" s="5"/>
-      <c r="BO170" s="5"/>
-      <c r="BP170" s="5"/>
-      <c r="BQ170" s="5"/>
-      <c r="BR170" s="5"/>
-      <c r="BS170" s="5"/>
-      <c r="BT170" s="5"/>
-      <c r="BU170" s="5"/>
-      <c r="BV170" s="5"/>
-      <c r="BW170" s="5"/>
-      <c r="BX170" s="5"/>
-      <c r="BY170" s="5"/>
-      <c r="BZ170" s="5"/>
-      <c r="CA170" s="5"/>
-      <c r="CB170" s="5"/>
-    </row>
-    <row r="171" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="7"/>
-      <c r="G171" s="7"/>
-      <c r="H171" s="7"/>
-      <c r="I171" s="7"/>
-      <c r="J171" s="7"/>
-      <c r="K171" s="7"/>
-      <c r="L171" s="7"/>
-      <c r="M171" s="7"/>
-      <c r="N171" s="7"/>
-      <c r="O171" s="7"/>
-      <c r="P171" s="7"/>
-      <c r="Q171" s="7"/>
-      <c r="R171" s="7"/>
-      <c r="S171" s="7"/>
-      <c r="T171" s="7"/>
-      <c r="U171" s="7"/>
-      <c r="V171" s="7"/>
-      <c r="W171" s="7"/>
-      <c r="X171" s="7"/>
-      <c r="Y171" s="7"/>
-      <c r="Z171" s="7"/>
-      <c r="AA171" s="7"/>
-      <c r="AB171" s="7"/>
-      <c r="AC171" s="7"/>
-      <c r="AD171" s="7"/>
-      <c r="AE171" s="7"/>
-      <c r="AF171" s="7"/>
-      <c r="AG171" s="7"/>
-      <c r="AH171" s="7"/>
-      <c r="AI171" s="7"/>
-      <c r="AJ171" s="7"/>
-      <c r="AK171" s="7"/>
-      <c r="AL171" s="7"/>
-      <c r="AM171" s="7"/>
-      <c r="AN171" s="7"/>
-      <c r="AO171" s="7"/>
-      <c r="AP171" s="7"/>
-      <c r="AQ171" s="7"/>
-      <c r="AR171" s="7"/>
-      <c r="AS171" s="7"/>
-      <c r="AT171" s="7"/>
-      <c r="AU171" s="7"/>
-      <c r="AV171" s="7"/>
-      <c r="AW171" s="7"/>
-      <c r="AX171" s="7"/>
-      <c r="AY171" s="7"/>
-      <c r="AZ171" s="7"/>
-      <c r="BA171" s="7"/>
-      <c r="BB171" s="7"/>
-      <c r="BC171" s="7"/>
-      <c r="BD171" s="7"/>
-      <c r="BE171" s="7"/>
-      <c r="BF171" s="7"/>
-      <c r="BG171" s="7"/>
-      <c r="BH171" s="7"/>
-      <c r="BI171" s="7"/>
-      <c r="BJ171" s="7"/>
-      <c r="BK171" s="7"/>
-      <c r="BL171" s="7"/>
-      <c r="BM171" s="7"/>
-      <c r="BN171" s="7"/>
-      <c r="BO171" s="7"/>
-      <c r="BP171" s="7"/>
-      <c r="BQ171" s="7"/>
-      <c r="BR171" s="7"/>
-      <c r="BS171" s="7"/>
-      <c r="BT171" s="7"/>
-      <c r="BU171" s="7"/>
-      <c r="BV171" s="7"/>
-      <c r="BW171" s="7"/>
-      <c r="BX171" s="7"/>
-      <c r="BY171" s="7"/>
-      <c r="BZ171" s="7"/>
-      <c r="CA171" s="7"/>
-      <c r="CB171" s="7"/>
+    <row r="170" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="7"/>
+      <c r="J170" s="7"/>
+      <c r="K170" s="7"/>
+      <c r="L170" s="7"/>
+      <c r="M170" s="7"/>
+      <c r="N170" s="7"/>
+      <c r="O170" s="7"/>
+      <c r="P170" s="7"/>
+      <c r="Q170" s="7"/>
+      <c r="R170" s="7"/>
+      <c r="S170" s="7"/>
+      <c r="T170" s="7"/>
+      <c r="U170" s="7"/>
+      <c r="V170" s="7"/>
+      <c r="W170" s="7"/>
+      <c r="X170" s="7"/>
+      <c r="Y170" s="7"/>
+      <c r="Z170" s="7"/>
+      <c r="AA170" s="7"/>
+      <c r="AB170" s="7"/>
+      <c r="AC170" s="7"/>
+      <c r="AD170" s="7"/>
+      <c r="AE170" s="7"/>
+      <c r="AF170" s="7"/>
+      <c r="AG170" s="7"/>
+      <c r="AH170" s="7"/>
+      <c r="AI170" s="7"/>
+      <c r="AJ170" s="7"/>
+      <c r="AK170" s="7"/>
+      <c r="AL170" s="7"/>
+      <c r="AM170" s="7"/>
+      <c r="AN170" s="7"/>
+      <c r="AO170" s="7"/>
+      <c r="AP170" s="7"/>
+      <c r="AQ170" s="7"/>
+      <c r="AR170" s="7"/>
+      <c r="AS170" s="7"/>
+      <c r="AT170" s="7"/>
+      <c r="AU170" s="7"/>
+      <c r="AV170" s="7"/>
+      <c r="AW170" s="7"/>
+      <c r="AX170" s="7"/>
+      <c r="AY170" s="7"/>
+      <c r="AZ170" s="7"/>
+      <c r="BA170" s="7"/>
+      <c r="BB170" s="7"/>
+      <c r="BC170" s="7"/>
+      <c r="BD170" s="7"/>
+      <c r="BE170" s="7"/>
+      <c r="BF170" s="7"/>
+      <c r="BG170" s="7"/>
+      <c r="BH170" s="7"/>
+      <c r="BI170" s="7"/>
+      <c r="BJ170" s="7"/>
+      <c r="BK170" s="7"/>
+      <c r="BL170" s="7"/>
+      <c r="BM170" s="7"/>
+      <c r="BN170" s="7"/>
+      <c r="BO170" s="7"/>
+      <c r="BP170" s="7"/>
+      <c r="BQ170" s="7"/>
+      <c r="BR170" s="7"/>
+      <c r="BS170" s="7"/>
+      <c r="BT170" s="7"/>
+      <c r="BU170" s="7"/>
+      <c r="BV170" s="7"/>
+      <c r="BW170" s="7"/>
+      <c r="BX170" s="7"/>
+      <c r="BY170" s="7"/>
+      <c r="BZ170" s="7"/>
+      <c r="CA170" s="7"/>
+      <c r="CB170" s="7"/>
+    </row>
+    <row r="171" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A171" s="4"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5"/>
+      <c r="K171" s="5"/>
+      <c r="L171" s="5"/>
+      <c r="M171" s="5"/>
+      <c r="N171" s="5"/>
+      <c r="O171" s="5"/>
+      <c r="P171" s="5"/>
+      <c r="Q171" s="5"/>
+      <c r="R171" s="5"/>
+      <c r="S171" s="5"/>
+      <c r="T171" s="5"/>
+      <c r="U171" s="5"/>
+      <c r="V171" s="5"/>
+      <c r="W171" s="5"/>
+      <c r="X171" s="5"/>
+      <c r="Y171" s="5"/>
+      <c r="Z171" s="5"/>
+      <c r="AA171" s="5"/>
+      <c r="AB171" s="5"/>
+      <c r="AC171" s="5"/>
+      <c r="AD171" s="5"/>
+      <c r="AE171" s="5"/>
+      <c r="AF171" s="5"/>
+      <c r="AG171" s="5"/>
+      <c r="AH171" s="5"/>
+      <c r="AI171" s="5"/>
+      <c r="AJ171" s="5"/>
+      <c r="AK171" s="5"/>
+      <c r="AL171" s="5"/>
+      <c r="AM171" s="5"/>
+      <c r="AN171" s="5"/>
+      <c r="AO171" s="5"/>
+      <c r="AP171" s="5"/>
+      <c r="AQ171" s="5"/>
+      <c r="AR171" s="5"/>
+      <c r="AS171" s="5"/>
+      <c r="AT171" s="5"/>
+      <c r="AU171" s="5"/>
+      <c r="AV171" s="5"/>
+      <c r="AW171" s="5"/>
+      <c r="AX171" s="5"/>
+      <c r="AY171" s="5"/>
+      <c r="AZ171" s="5"/>
+      <c r="BA171" s="5"/>
+      <c r="BB171" s="5"/>
+      <c r="BC171" s="5"/>
+      <c r="BD171" s="5"/>
+      <c r="BE171" s="5"/>
+      <c r="BF171" s="5"/>
+      <c r="BG171" s="5"/>
+      <c r="BH171" s="5"/>
+      <c r="BI171" s="5"/>
+      <c r="BJ171" s="5"/>
+      <c r="BK171" s="5"/>
+      <c r="BL171" s="5"/>
+      <c r="BM171" s="5"/>
+      <c r="BN171" s="5"/>
+      <c r="BO171" s="5"/>
+      <c r="BP171" s="5"/>
+      <c r="BQ171" s="5"/>
+      <c r="BR171" s="5"/>
+      <c r="BS171" s="5"/>
+      <c r="BT171" s="5"/>
+      <c r="BU171" s="5"/>
+      <c r="BV171" s="5"/>
+      <c r="BW171" s="5"/>
+      <c r="BX171" s="5"/>
+      <c r="BY171" s="5"/>
+      <c r="BZ171" s="5"/>
+      <c r="CA171" s="5"/>
+      <c r="CB171" s="5"/>
     </row>
     <row r="172" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="2"/>
@@ -15098,87 +15083,87 @@
       <c r="CA175" s="7"/>
       <c r="CB175" s="7"/>
     </row>
-    <row r="176" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="4"/>
-      <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
-      <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="5"/>
-      <c r="J176" s="5"/>
-      <c r="K176" s="5"/>
-      <c r="L176" s="5"/>
-      <c r="M176" s="5"/>
-      <c r="N176" s="5"/>
-      <c r="O176" s="5"/>
-      <c r="P176" s="5"/>
-      <c r="Q176" s="5"/>
-      <c r="R176" s="5"/>
-      <c r="S176" s="5"/>
-      <c r="T176" s="5"/>
-      <c r="U176" s="5"/>
-      <c r="V176" s="5"/>
-      <c r="W176" s="5"/>
-      <c r="X176" s="5"/>
-      <c r="Y176" s="5"/>
-      <c r="Z176" s="5"/>
-      <c r="AA176" s="5"/>
-      <c r="AB176" s="5"/>
-      <c r="AC176" s="5"/>
-      <c r="AD176" s="5"/>
-      <c r="AE176" s="5"/>
-      <c r="AF176" s="5"/>
-      <c r="AG176" s="5"/>
-      <c r="AH176" s="5"/>
-      <c r="AI176" s="5"/>
-      <c r="AJ176" s="5"/>
-      <c r="AK176" s="5"/>
-      <c r="AL176" s="5"/>
-      <c r="AM176" s="5"/>
-      <c r="AN176" s="5"/>
-      <c r="AO176" s="5"/>
-      <c r="AP176" s="5"/>
-      <c r="AQ176" s="5"/>
-      <c r="AR176" s="5"/>
-      <c r="AS176" s="5"/>
-      <c r="AT176" s="5"/>
-      <c r="AU176" s="5"/>
-      <c r="AV176" s="5"/>
-      <c r="AW176" s="5"/>
-      <c r="AX176" s="5"/>
-      <c r="AY176" s="5"/>
-      <c r="AZ176" s="5"/>
-      <c r="BA176" s="5"/>
-      <c r="BB176" s="5"/>
-      <c r="BC176" s="5"/>
-      <c r="BD176" s="5"/>
-      <c r="BE176" s="5"/>
-      <c r="BF176" s="5"/>
-      <c r="BG176" s="5"/>
-      <c r="BH176" s="5"/>
-      <c r="BI176" s="5"/>
-      <c r="BJ176" s="5"/>
-      <c r="BK176" s="5"/>
-      <c r="BL176" s="5"/>
-      <c r="BM176" s="5"/>
-      <c r="BN176" s="5"/>
-      <c r="BO176" s="5"/>
-      <c r="BP176" s="5"/>
-      <c r="BQ176" s="5"/>
-      <c r="BR176" s="5"/>
-      <c r="BS176" s="5"/>
-      <c r="BT176" s="5"/>
-      <c r="BU176" s="5"/>
-      <c r="BV176" s="5"/>
-      <c r="BW176" s="5"/>
-      <c r="BX176" s="5"/>
-      <c r="BY176" s="5"/>
-      <c r="BZ176" s="5"/>
-      <c r="CA176" s="5"/>
-      <c r="CB176" s="5"/>
+    <row r="176" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="7"/>
+      <c r="J176" s="7"/>
+      <c r="K176" s="7"/>
+      <c r="L176" s="7"/>
+      <c r="M176" s="7"/>
+      <c r="N176" s="7"/>
+      <c r="O176" s="7"/>
+      <c r="P176" s="7"/>
+      <c r="Q176" s="7"/>
+      <c r="R176" s="7"/>
+      <c r="S176" s="7"/>
+      <c r="T176" s="7"/>
+      <c r="U176" s="7"/>
+      <c r="V176" s="7"/>
+      <c r="W176" s="7"/>
+      <c r="X176" s="7"/>
+      <c r="Y176" s="7"/>
+      <c r="Z176" s="7"/>
+      <c r="AA176" s="7"/>
+      <c r="AB176" s="7"/>
+      <c r="AC176" s="7"/>
+      <c r="AD176" s="7"/>
+      <c r="AE176" s="7"/>
+      <c r="AF176" s="7"/>
+      <c r="AG176" s="7"/>
+      <c r="AH176" s="7"/>
+      <c r="AI176" s="7"/>
+      <c r="AJ176" s="7"/>
+      <c r="AK176" s="7"/>
+      <c r="AL176" s="7"/>
+      <c r="AM176" s="7"/>
+      <c r="AN176" s="7"/>
+      <c r="AO176" s="7"/>
+      <c r="AP176" s="7"/>
+      <c r="AQ176" s="7"/>
+      <c r="AR176" s="7"/>
+      <c r="AS176" s="7"/>
+      <c r="AT176" s="7"/>
+      <c r="AU176" s="7"/>
+      <c r="AV176" s="7"/>
+      <c r="AW176" s="7"/>
+      <c r="AX176" s="7"/>
+      <c r="AY176" s="7"/>
+      <c r="AZ176" s="7"/>
+      <c r="BA176" s="7"/>
+      <c r="BB176" s="7"/>
+      <c r="BC176" s="7"/>
+      <c r="BD176" s="7"/>
+      <c r="BE176" s="7"/>
+      <c r="BF176" s="7"/>
+      <c r="BG176" s="7"/>
+      <c r="BH176" s="7"/>
+      <c r="BI176" s="7"/>
+      <c r="BJ176" s="7"/>
+      <c r="BK176" s="7"/>
+      <c r="BL176" s="7"/>
+      <c r="BM176" s="7"/>
+      <c r="BN176" s="7"/>
+      <c r="BO176" s="7"/>
+      <c r="BP176" s="7"/>
+      <c r="BQ176" s="7"/>
+      <c r="BR176" s="7"/>
+      <c r="BS176" s="7"/>
+      <c r="BT176" s="7"/>
+      <c r="BU176" s="7"/>
+      <c r="BV176" s="7"/>
+      <c r="BW176" s="7"/>
+      <c r="BX176" s="7"/>
+      <c r="BY176" s="7"/>
+      <c r="BZ176" s="7"/>
+      <c r="CA176" s="7"/>
+      <c r="CB176" s="7"/>
     </row>
     <row r="177" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="2"/>
@@ -15344,7 +15329,7 @@
       <c r="CA178" s="7"/>
       <c r="CB178" s="7"/>
     </row>
-    <row r="179" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="91.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="7"/>
@@ -15426,7 +15411,7 @@
       <c r="CA179" s="7"/>
       <c r="CB179" s="7"/>
     </row>
-    <row r="180" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="91.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="7"/>
@@ -15508,7 +15493,7 @@
       <c r="CA180" s="7"/>
       <c r="CB180" s="7"/>
     </row>
-    <row r="181" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="104.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="7"/>
@@ -15590,7 +15575,7 @@
       <c r="CA181" s="7"/>
       <c r="CB181" s="7"/>
     </row>
-    <row r="182" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="104.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="7"/>
@@ -15754,7 +15739,7 @@
       <c r="CA183" s="7"/>
       <c r="CB183" s="7"/>
     </row>
-    <row r="184" customFormat="false" ht="91.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="7"/>
@@ -15836,7 +15821,7 @@
       <c r="CA184" s="7"/>
       <c r="CB184" s="7"/>
     </row>
-    <row r="185" customFormat="false" ht="91.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="7"/>
@@ -15918,7 +15903,7 @@
       <c r="CA185" s="7"/>
       <c r="CB185" s="7"/>
     </row>
-    <row r="186" customFormat="false" ht="104.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="7"/>
@@ -16000,7 +15985,7 @@
       <c r="CA186" s="7"/>
       <c r="CB186" s="7"/>
     </row>
-    <row r="187" customFormat="false" ht="104.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="65.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="7"/>
@@ -16328,7 +16313,7 @@
       <c r="CA190" s="7"/>
       <c r="CB190" s="7"/>
     </row>
-    <row r="191" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="7"/>
@@ -16410,7 +16395,7 @@
       <c r="CA191" s="7"/>
       <c r="CB191" s="7"/>
     </row>
-    <row r="192" customFormat="false" ht="65.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="7"/>
@@ -16984,421 +16969,23 @@
       <c r="CA198" s="7"/>
       <c r="CB198" s="7"/>
     </row>
-    <row r="199" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="7"/>
-      <c r="D199" s="7"/>
-      <c r="E199" s="7"/>
-      <c r="F199" s="7"/>
-      <c r="G199" s="7"/>
-      <c r="H199" s="7"/>
-      <c r="I199" s="7"/>
-      <c r="J199" s="7"/>
-      <c r="K199" s="7"/>
-      <c r="L199" s="7"/>
-      <c r="M199" s="7"/>
-      <c r="N199" s="7"/>
-      <c r="O199" s="7"/>
-      <c r="P199" s="7"/>
-      <c r="Q199" s="7"/>
-      <c r="R199" s="7"/>
-      <c r="S199" s="7"/>
-      <c r="T199" s="7"/>
-      <c r="U199" s="7"/>
-      <c r="V199" s="7"/>
-      <c r="W199" s="7"/>
-      <c r="X199" s="7"/>
-      <c r="Y199" s="7"/>
-      <c r="Z199" s="7"/>
-      <c r="AA199" s="7"/>
-      <c r="AB199" s="7"/>
-      <c r="AC199" s="7"/>
-      <c r="AD199" s="7"/>
-      <c r="AE199" s="7"/>
-      <c r="AF199" s="7"/>
-      <c r="AG199" s="7"/>
-      <c r="AH199" s="7"/>
-      <c r="AI199" s="7"/>
-      <c r="AJ199" s="7"/>
-      <c r="AK199" s="7"/>
-      <c r="AL199" s="7"/>
-      <c r="AM199" s="7"/>
-      <c r="AN199" s="7"/>
-      <c r="AO199" s="7"/>
-      <c r="AP199" s="7"/>
-      <c r="AQ199" s="7"/>
-      <c r="AR199" s="7"/>
-      <c r="AS199" s="7"/>
-      <c r="AT199" s="7"/>
-      <c r="AU199" s="7"/>
-      <c r="AV199" s="7"/>
-      <c r="AW199" s="7"/>
-      <c r="AX199" s="7"/>
-      <c r="AY199" s="7"/>
-      <c r="AZ199" s="7"/>
-      <c r="BA199" s="7"/>
-      <c r="BB199" s="7"/>
-      <c r="BC199" s="7"/>
-      <c r="BD199" s="7"/>
-      <c r="BE199" s="7"/>
-      <c r="BF199" s="7"/>
-      <c r="BG199" s="7"/>
-      <c r="BH199" s="7"/>
-      <c r="BI199" s="7"/>
-      <c r="BJ199" s="7"/>
-      <c r="BK199" s="7"/>
-      <c r="BL199" s="7"/>
-      <c r="BM199" s="7"/>
-      <c r="BN199" s="7"/>
-      <c r="BO199" s="7"/>
-      <c r="BP199" s="7"/>
-      <c r="BQ199" s="7"/>
-      <c r="BR199" s="7"/>
-      <c r="BS199" s="7"/>
-      <c r="BT199" s="7"/>
-      <c r="BU199" s="7"/>
-      <c r="BV199" s="7"/>
-      <c r="BW199" s="7"/>
-      <c r="BX199" s="7"/>
-      <c r="BY199" s="7"/>
-      <c r="BZ199" s="7"/>
-      <c r="CA199" s="7"/>
-      <c r="CB199" s="7"/>
-    </row>
-    <row r="200" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="7"/>
-      <c r="D200" s="7"/>
-      <c r="E200" s="7"/>
-      <c r="F200" s="7"/>
-      <c r="G200" s="7"/>
-      <c r="H200" s="7"/>
-      <c r="I200" s="7"/>
-      <c r="J200" s="7"/>
-      <c r="K200" s="7"/>
-      <c r="L200" s="7"/>
-      <c r="M200" s="7"/>
-      <c r="N200" s="7"/>
-      <c r="O200" s="7"/>
-      <c r="P200" s="7"/>
-      <c r="Q200" s="7"/>
-      <c r="R200" s="7"/>
-      <c r="S200" s="7"/>
-      <c r="T200" s="7"/>
-      <c r="U200" s="7"/>
-      <c r="V200" s="7"/>
-      <c r="W200" s="7"/>
-      <c r="X200" s="7"/>
-      <c r="Y200" s="7"/>
-      <c r="Z200" s="7"/>
-      <c r="AA200" s="7"/>
-      <c r="AB200" s="7"/>
-      <c r="AC200" s="7"/>
-      <c r="AD200" s="7"/>
-      <c r="AE200" s="7"/>
-      <c r="AF200" s="7"/>
-      <c r="AG200" s="7"/>
-      <c r="AH200" s="7"/>
-      <c r="AI200" s="7"/>
-      <c r="AJ200" s="7"/>
-      <c r="AK200" s="7"/>
-      <c r="AL200" s="7"/>
-      <c r="AM200" s="7"/>
-      <c r="AN200" s="7"/>
-      <c r="AO200" s="7"/>
-      <c r="AP200" s="7"/>
-      <c r="AQ200" s="7"/>
-      <c r="AR200" s="7"/>
-      <c r="AS200" s="7"/>
-      <c r="AT200" s="7"/>
-      <c r="AU200" s="7"/>
-      <c r="AV200" s="7"/>
-      <c r="AW200" s="7"/>
-      <c r="AX200" s="7"/>
-      <c r="AY200" s="7"/>
-      <c r="AZ200" s="7"/>
-      <c r="BA200" s="7"/>
-      <c r="BB200" s="7"/>
-      <c r="BC200" s="7"/>
-      <c r="BD200" s="7"/>
-      <c r="BE200" s="7"/>
-      <c r="BF200" s="7"/>
-      <c r="BG200" s="7"/>
-      <c r="BH200" s="7"/>
-      <c r="BI200" s="7"/>
-      <c r="BJ200" s="7"/>
-      <c r="BK200" s="7"/>
-      <c r="BL200" s="7"/>
-      <c r="BM200" s="7"/>
-      <c r="BN200" s="7"/>
-      <c r="BO200" s="7"/>
-      <c r="BP200" s="7"/>
-      <c r="BQ200" s="7"/>
-      <c r="BR200" s="7"/>
-      <c r="BS200" s="7"/>
-      <c r="BT200" s="7"/>
-      <c r="BU200" s="7"/>
-      <c r="BV200" s="7"/>
-      <c r="BW200" s="7"/>
-      <c r="BX200" s="7"/>
-      <c r="BY200" s="7"/>
-      <c r="BZ200" s="7"/>
-      <c r="CA200" s="7"/>
-      <c r="CB200" s="7"/>
-    </row>
-    <row r="201" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="7"/>
-      <c r="D201" s="7"/>
-      <c r="E201" s="7"/>
-      <c r="F201" s="7"/>
-      <c r="G201" s="7"/>
-      <c r="H201" s="7"/>
-      <c r="I201" s="7"/>
-      <c r="J201" s="7"/>
-      <c r="K201" s="7"/>
-      <c r="L201" s="7"/>
-      <c r="M201" s="7"/>
-      <c r="N201" s="7"/>
-      <c r="O201" s="7"/>
-      <c r="P201" s="7"/>
-      <c r="Q201" s="7"/>
-      <c r="R201" s="7"/>
-      <c r="S201" s="7"/>
-      <c r="T201" s="7"/>
-      <c r="U201" s="7"/>
-      <c r="V201" s="7"/>
-      <c r="W201" s="7"/>
-      <c r="X201" s="7"/>
-      <c r="Y201" s="7"/>
-      <c r="Z201" s="7"/>
-      <c r="AA201" s="7"/>
-      <c r="AB201" s="7"/>
-      <c r="AC201" s="7"/>
-      <c r="AD201" s="7"/>
-      <c r="AE201" s="7"/>
-      <c r="AF201" s="7"/>
-      <c r="AG201" s="7"/>
-      <c r="AH201" s="7"/>
-      <c r="AI201" s="7"/>
-      <c r="AJ201" s="7"/>
-      <c r="AK201" s="7"/>
-      <c r="AL201" s="7"/>
-      <c r="AM201" s="7"/>
-      <c r="AN201" s="7"/>
-      <c r="AO201" s="7"/>
-      <c r="AP201" s="7"/>
-      <c r="AQ201" s="7"/>
-      <c r="AR201" s="7"/>
-      <c r="AS201" s="7"/>
-      <c r="AT201" s="7"/>
-      <c r="AU201" s="7"/>
-      <c r="AV201" s="7"/>
-      <c r="AW201" s="7"/>
-      <c r="AX201" s="7"/>
-      <c r="AY201" s="7"/>
-      <c r="AZ201" s="7"/>
-      <c r="BA201" s="7"/>
-      <c r="BB201" s="7"/>
-      <c r="BC201" s="7"/>
-      <c r="BD201" s="7"/>
-      <c r="BE201" s="7"/>
-      <c r="BF201" s="7"/>
-      <c r="BG201" s="7"/>
-      <c r="BH201" s="7"/>
-      <c r="BI201" s="7"/>
-      <c r="BJ201" s="7"/>
-      <c r="BK201" s="7"/>
-      <c r="BL201" s="7"/>
-      <c r="BM201" s="7"/>
-      <c r="BN201" s="7"/>
-      <c r="BO201" s="7"/>
-      <c r="BP201" s="7"/>
-      <c r="BQ201" s="7"/>
-      <c r="BR201" s="7"/>
-      <c r="BS201" s="7"/>
-      <c r="BT201" s="7"/>
-      <c r="BU201" s="7"/>
-      <c r="BV201" s="7"/>
-      <c r="BW201" s="7"/>
-      <c r="BX201" s="7"/>
-      <c r="BY201" s="7"/>
-      <c r="BZ201" s="7"/>
-      <c r="CA201" s="7"/>
-      <c r="CB201" s="7"/>
-    </row>
-    <row r="202" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="7"/>
-      <c r="D202" s="7"/>
-      <c r="E202" s="7"/>
-      <c r="F202" s="7"/>
-      <c r="G202" s="7"/>
-      <c r="H202" s="7"/>
-      <c r="I202" s="7"/>
-      <c r="J202" s="7"/>
-      <c r="K202" s="7"/>
-      <c r="L202" s="7"/>
-      <c r="M202" s="7"/>
-      <c r="N202" s="7"/>
-      <c r="O202" s="7"/>
-      <c r="P202" s="7"/>
-      <c r="Q202" s="7"/>
-      <c r="R202" s="7"/>
-      <c r="S202" s="7"/>
-      <c r="T202" s="7"/>
-      <c r="U202" s="7"/>
-      <c r="V202" s="7"/>
-      <c r="W202" s="7"/>
-      <c r="X202" s="7"/>
-      <c r="Y202" s="7"/>
-      <c r="Z202" s="7"/>
-      <c r="AA202" s="7"/>
-      <c r="AB202" s="7"/>
-      <c r="AC202" s="7"/>
-      <c r="AD202" s="7"/>
-      <c r="AE202" s="7"/>
-      <c r="AF202" s="7"/>
-      <c r="AG202" s="7"/>
-      <c r="AH202" s="7"/>
-      <c r="AI202" s="7"/>
-      <c r="AJ202" s="7"/>
-      <c r="AK202" s="7"/>
-      <c r="AL202" s="7"/>
-      <c r="AM202" s="7"/>
-      <c r="AN202" s="7"/>
-      <c r="AO202" s="7"/>
-      <c r="AP202" s="7"/>
-      <c r="AQ202" s="7"/>
-      <c r="AR202" s="7"/>
-      <c r="AS202" s="7"/>
-      <c r="AT202" s="7"/>
-      <c r="AU202" s="7"/>
-      <c r="AV202" s="7"/>
-      <c r="AW202" s="7"/>
-      <c r="AX202" s="7"/>
-      <c r="AY202" s="7"/>
-      <c r="AZ202" s="7"/>
-      <c r="BA202" s="7"/>
-      <c r="BB202" s="7"/>
-      <c r="BC202" s="7"/>
-      <c r="BD202" s="7"/>
-      <c r="BE202" s="7"/>
-      <c r="BF202" s="7"/>
-      <c r="BG202" s="7"/>
-      <c r="BH202" s="7"/>
-      <c r="BI202" s="7"/>
-      <c r="BJ202" s="7"/>
-      <c r="BK202" s="7"/>
-      <c r="BL202" s="7"/>
-      <c r="BM202" s="7"/>
-      <c r="BN202" s="7"/>
-      <c r="BO202" s="7"/>
-      <c r="BP202" s="7"/>
-      <c r="BQ202" s="7"/>
-      <c r="BR202" s="7"/>
-      <c r="BS202" s="7"/>
-      <c r="BT202" s="7"/>
-      <c r="BU202" s="7"/>
-      <c r="BV202" s="7"/>
-      <c r="BW202" s="7"/>
-      <c r="BX202" s="7"/>
-      <c r="BY202" s="7"/>
-      <c r="BZ202" s="7"/>
-      <c r="CA202" s="7"/>
-      <c r="CB202" s="7"/>
-    </row>
-    <row r="203" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="7"/>
-      <c r="D203" s="7"/>
-      <c r="E203" s="7"/>
-      <c r="F203" s="7"/>
-      <c r="G203" s="7"/>
-      <c r="H203" s="7"/>
-      <c r="I203" s="7"/>
-      <c r="J203" s="7"/>
-      <c r="K203" s="7"/>
-      <c r="L203" s="7"/>
-      <c r="M203" s="7"/>
-      <c r="N203" s="7"/>
-      <c r="O203" s="7"/>
-      <c r="P203" s="7"/>
-      <c r="Q203" s="7"/>
-      <c r="R203" s="7"/>
-      <c r="S203" s="7"/>
-      <c r="T203" s="7"/>
-      <c r="U203" s="7"/>
-      <c r="V203" s="7"/>
-      <c r="W203" s="7"/>
-      <c r="X203" s="7"/>
-      <c r="Y203" s="7"/>
-      <c r="Z203" s="7"/>
-      <c r="AA203" s="7"/>
-      <c r="AB203" s="7"/>
-      <c r="AC203" s="7"/>
-      <c r="AD203" s="7"/>
-      <c r="AE203" s="7"/>
-      <c r="AF203" s="7"/>
-      <c r="AG203" s="7"/>
-      <c r="AH203" s="7"/>
-      <c r="AI203" s="7"/>
-      <c r="AJ203" s="7"/>
-      <c r="AK203" s="7"/>
-      <c r="AL203" s="7"/>
-      <c r="AM203" s="7"/>
-      <c r="AN203" s="7"/>
-      <c r="AO203" s="7"/>
-      <c r="AP203" s="7"/>
-      <c r="AQ203" s="7"/>
-      <c r="AR203" s="7"/>
-      <c r="AS203" s="7"/>
-      <c r="AT203" s="7"/>
-      <c r="AU203" s="7"/>
-      <c r="AV203" s="7"/>
-      <c r="AW203" s="7"/>
-      <c r="AX203" s="7"/>
-      <c r="AY203" s="7"/>
-      <c r="AZ203" s="7"/>
-      <c r="BA203" s="7"/>
-      <c r="BB203" s="7"/>
-      <c r="BC203" s="7"/>
-      <c r="BD203" s="7"/>
-      <c r="BE203" s="7"/>
-      <c r="BF203" s="7"/>
-      <c r="BG203" s="7"/>
-      <c r="BH203" s="7"/>
-      <c r="BI203" s="7"/>
-      <c r="BJ203" s="7"/>
-      <c r="BK203" s="7"/>
-      <c r="BL203" s="7"/>
-      <c r="BM203" s="7"/>
-      <c r="BN203" s="7"/>
-      <c r="BO203" s="7"/>
-      <c r="BP203" s="7"/>
-      <c r="BQ203" s="7"/>
-      <c r="BR203" s="7"/>
-      <c r="BS203" s="7"/>
-      <c r="BT203" s="7"/>
-      <c r="BU203" s="7"/>
-      <c r="BV203" s="7"/>
-      <c r="BW203" s="7"/>
-      <c r="BX203" s="7"/>
-      <c r="BY203" s="7"/>
-      <c r="BZ203" s="7"/>
-      <c r="CA203" s="7"/>
-      <c r="CB203" s="7"/>
-    </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B220" s="15"/>
-    </row>
-    <row r="235" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="6"/>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B215" s="15"/>
+    </row>
+    <row r="230" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="6"/>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B242" s="15"/>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B243" s="15"/>
+    </row>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B244" s="15"/>
+    </row>
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B245" s="15"/>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="15"/>
@@ -17412,18 +16999,11 @@
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="15"/>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B252" s="15"/>
-    </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B253" s="15"/>
-    </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B254" s="15"/>
-    </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B255" s="15"/>
-    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/lib/l10n/strings.xlsx
+++ b/lib/l10n/strings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t xml:space="preserve">User’s name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resultsFunctionCalling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Résultats de functions calling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function calling results</t>
   </si>
 </sst>
 </file>
@@ -611,7 +620,7 @@
   <dimension ref="A1:CB1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2292,9 +2301,15 @@
       <c r="CB19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="D20" s="9"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>

--- a/lib/l10n/strings.xlsx
+++ b/lib/l10n/strings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -191,6 +191,15 @@
   </si>
   <si>
     <t xml:space="preserve">Function calling results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personaAssistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personnalité de l’assistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assistant’s persona</t>
   </si>
 </sst>
 </file>
@@ -620,7 +629,7 @@
   <dimension ref="A1:CB1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2389,9 +2398,15 @@
       <c r="CB20" s="7"/>
     </row>
     <row r="21" s="6" customFormat="true" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
